--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3A4C4-5EB5-4E0C-88FC-C9BAA49A9B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AABE76-4D79-4105-9F51-1D50FE30E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -2177,7 +2177,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF08F70-6061-4334-B6F9-12A767772C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2221,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CE3B6C-F45A-4A9A-83A7-260FE2022E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2270,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6629FB-C09F-4200-B78E-4FD5614996BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2320,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA8B95B-A935-4706-BBFB-6D5C157F61C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2370,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DB6255-16F1-4131-B80B-898A983DA66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2419,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C8A817-8A7F-451D-A8EF-15CA92E73ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -2481,7 +2481,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1104FA2-617F-40B5-9110-C12C45401468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2536,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,21 +2972,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="50" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="50" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="50" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="50" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="50" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="50" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="50" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="50" customWidth="1"/>
     <col min="13" max="13" width="10" style="50" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="50" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="50" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="50"/>
+    <col min="14" max="14" width="11.453125" style="50" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="50" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -3014,7 +3014,7 @@
       <c r="Y1" s="71"/>
       <c r="Z1" s="71"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -3042,7 +3042,7 @@
       <c r="Y2" s="71"/>
       <c r="Z2" s="71"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -3070,7 +3070,7 @@
       <c r="Y3" s="71"/>
       <c r="Z3" s="71"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -3098,7 +3098,7 @@
       <c r="Y4" s="71"/>
       <c r="Z4" s="71"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -3126,7 +3126,7 @@
       <c r="Y5" s="71"/>
       <c r="Z5" s="71"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -3154,7 +3154,7 @@
       <c r="Y6" s="71"/>
       <c r="Z6" s="71"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -3182,7 +3182,7 @@
       <c r="Y7" s="71"/>
       <c r="Z7" s="71"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -3210,7 +3210,7 @@
       <c r="Y8" s="71"/>
       <c r="Z8" s="71"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -3238,7 +3238,7 @@
       <c r="Y9" s="71"/>
       <c r="Z9" s="71"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -3266,7 +3266,7 @@
       <c r="Y10" s="71"/>
       <c r="Z10" s="71"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -3294,7 +3294,7 @@
       <c r="Y11" s="71"/>
       <c r="Z11" s="71"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -3322,7 +3322,7 @@
       <c r="Y12" s="71"/>
       <c r="Z12" s="71"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="70"/>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
@@ -3350,7 +3350,7 @@
       <c r="Y13" s="71"/>
       <c r="Z13" s="71"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -3378,7 +3378,7 @@
       <c r="Y14" s="71"/>
       <c r="Z14" s="71"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="70"/>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -3406,7 +3406,7 @@
       <c r="Y15" s="71"/>
       <c r="Z15" s="71"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="86" t="s">
         <v>258</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="Y16" s="71"/>
       <c r="Z16" s="71"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -3464,7 +3464,7 @@
       <c r="Y17" s="71"/>
       <c r="Z17" s="71"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -3492,7 +3492,7 @@
       <c r="Y18" s="71"/>
       <c r="Z18" s="71"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="77" t="s">
         <v>31</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="Y19" s="71"/>
       <c r="Z19" s="71"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="77" t="s">
         <v>259</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="Y20" s="71"/>
       <c r="Z20" s="71"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="77" t="s">
         <v>260</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="Y21" s="71"/>
       <c r="Z21" s="71"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="77"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -3616,7 +3616,7 @@
       <c r="Y22" s="71"/>
       <c r="Z22" s="71"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="77" t="s">
         <v>261</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="Y23" s="71"/>
       <c r="Z23" s="71"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -3674,7 +3674,7 @@
       <c r="Y24" s="71"/>
       <c r="Z24" s="71"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="77"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -3702,7 +3702,7 @@
       <c r="Y25" s="71"/>
       <c r="Z25" s="71"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
         <v>262</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="Y26" s="71"/>
       <c r="Z26" s="71"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="77"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -3762,7 +3762,7 @@
       <c r="Y27" s="71"/>
       <c r="Z27" s="71"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="77"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -3790,7 +3790,7 @@
       <c r="Y28" s="71"/>
       <c r="Z28" s="71"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>263</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="Y29" s="71"/>
       <c r="Z29" s="71"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="77" t="s">
         <v>264</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="Y30" s="71"/>
       <c r="Z30" s="71"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="77" t="s">
         <v>266</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="Y31" s="71"/>
       <c r="Z31" s="71"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="83"/>
       <c r="B32" s="84" t="s">
         <v>268</v>
@@ -3916,7 +3916,7 @@
       <c r="Y32" s="71"/>
       <c r="Z32" s="71"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="70"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
@@ -3944,7 +3944,7 @@
       <c r="Y33" s="71"/>
       <c r="Z33" s="71"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="70"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -3972,7 +3972,7 @@
       <c r="Y34" s="71"/>
       <c r="Z34" s="71"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="70"/>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
@@ -4000,7 +4000,7 @@
       <c r="Y35" s="71"/>
       <c r="Z35" s="71"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="70"/>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -4028,7 +4028,7 @@
       <c r="Y36" s="71"/>
       <c r="Z36" s="71"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="70"/>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
@@ -4056,7 +4056,7 @@
       <c r="Y37" s="71"/>
       <c r="Z37" s="71"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="70"/>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
@@ -4084,7 +4084,7 @@
       <c r="Y38" s="71"/>
       <c r="Z38" s="71"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="70"/>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
@@ -4112,7 +4112,7 @@
       <c r="Y39" s="71"/>
       <c r="Z39" s="71"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="70"/>
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
@@ -4140,7 +4140,7 @@
       <c r="Y40" s="71"/>
       <c r="Z40" s="71"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="70"/>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
@@ -4168,7 +4168,7 @@
       <c r="Y41" s="71"/>
       <c r="Z41" s="71"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="70"/>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -4196,7 +4196,7 @@
       <c r="Y42" s="71"/>
       <c r="Z42" s="71"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -4224,7 +4224,7 @@
       <c r="Y43" s="71"/>
       <c r="Z43" s="71"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
@@ -4252,7 +4252,7 @@
       <c r="Y44" s="71"/>
       <c r="Z44" s="71"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="71"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
@@ -4280,7 +4280,7 @@
       <c r="Y45" s="71"/>
       <c r="Z45" s="71"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="71"/>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
@@ -4308,7 +4308,7 @@
       <c r="Y46" s="71"/>
       <c r="Z46" s="71"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="71"/>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
@@ -4336,7 +4336,7 @@
       <c r="Y47" s="71"/>
       <c r="Z47" s="71"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
@@ -4364,7 +4364,7 @@
       <c r="Y48" s="71"/>
       <c r="Z48" s="71"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="71"/>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
@@ -4392,7 +4392,7 @@
       <c r="Y49" s="71"/>
       <c r="Z49" s="71"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="71"/>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
@@ -4420,7 +4420,7 @@
       <c r="Y50" s="71"/>
       <c r="Z50" s="71"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="71"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
@@ -4448,7 +4448,7 @@
       <c r="Y51" s="71"/>
       <c r="Z51" s="71"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="71"/>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
@@ -4476,7 +4476,7 @@
       <c r="Y52" s="71"/>
       <c r="Z52" s="71"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="71"/>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
@@ -4504,7 +4504,7 @@
       <c r="Y53" s="71"/>
       <c r="Z53" s="71"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="71"/>
       <c r="B54" s="71"/>
       <c r="C54" s="71"/>
@@ -4532,7 +4532,7 @@
       <c r="Y54" s="71"/>
       <c r="Z54" s="71"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="71"/>
       <c r="B55" s="71"/>
       <c r="C55" s="71"/>
@@ -4560,7 +4560,7 @@
       <c r="Y55" s="71"/>
       <c r="Z55" s="71"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="71"/>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
@@ -4588,7 +4588,7 @@
       <c r="Y56" s="71"/>
       <c r="Z56" s="71"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="71"/>
       <c r="B57" s="71"/>
       <c r="C57" s="71"/>
@@ -4616,7 +4616,7 @@
       <c r="Y57" s="71"/>
       <c r="Z57" s="71"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="71"/>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
@@ -4644,7 +4644,7 @@
       <c r="Y58" s="71"/>
       <c r="Z58" s="71"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="71"/>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
@@ -4672,7 +4672,7 @@
       <c r="Y59" s="71"/>
       <c r="Z59" s="71"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="71"/>
       <c r="B60" s="71"/>
       <c r="C60" s="71"/>
@@ -4700,7 +4700,7 @@
       <c r="Y60" s="71"/>
       <c r="Z60" s="71"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="71"/>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
@@ -4728,7 +4728,7 @@
       <c r="Y61" s="71"/>
       <c r="Z61" s="71"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="71"/>
       <c r="B62" s="71"/>
       <c r="C62" s="71"/>
@@ -4756,7 +4756,7 @@
       <c r="Y62" s="71"/>
       <c r="Z62" s="71"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="71"/>
       <c r="B63" s="71"/>
       <c r="C63" s="71"/>
@@ -4784,7 +4784,7 @@
       <c r="Y63" s="71"/>
       <c r="Z63" s="71"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="71"/>
       <c r="B64" s="71"/>
       <c r="C64" s="71"/>
@@ -4812,7 +4812,7 @@
       <c r="Y64" s="71"/>
       <c r="Z64" s="71"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="71"/>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
@@ -4840,7 +4840,7 @@
       <c r="Y65" s="71"/>
       <c r="Z65" s="71"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="71"/>
       <c r="B66" s="71"/>
       <c r="C66" s="71"/>
@@ -4868,7 +4868,7 @@
       <c r="Y66" s="71"/>
       <c r="Z66" s="71"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="71"/>
       <c r="B67" s="71"/>
       <c r="C67" s="71"/>
@@ -4896,7 +4896,7 @@
       <c r="Y67" s="71"/>
       <c r="Z67" s="71"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="71"/>
       <c r="B68" s="71"/>
       <c r="C68" s="71"/>
@@ -4924,7 +4924,7 @@
       <c r="Y68" s="71"/>
       <c r="Z68" s="71"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="71"/>
       <c r="B69" s="71"/>
       <c r="C69" s="71"/>
@@ -4952,7 +4952,7 @@
       <c r="Y69" s="71"/>
       <c r="Z69" s="71"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="71"/>
       <c r="B70" s="71"/>
       <c r="C70" s="71"/>
@@ -4980,7 +4980,7 @@
       <c r="Y70" s="71"/>
       <c r="Z70" s="71"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="71"/>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
@@ -5008,7 +5008,7 @@
       <c r="Y71" s="71"/>
       <c r="Z71" s="71"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="71"/>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
@@ -5036,7 +5036,7 @@
       <c r="Y72" s="71"/>
       <c r="Z72" s="71"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="71"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -5064,7 +5064,7 @@
       <c r="Y73" s="71"/>
       <c r="Z73" s="71"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="71"/>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
@@ -5092,7 +5092,7 @@
       <c r="Y74" s="71"/>
       <c r="Z74" s="71"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="71"/>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
@@ -5120,7 +5120,7 @@
       <c r="Y75" s="71"/>
       <c r="Z75" s="71"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="71"/>
       <c r="B76" s="71"/>
       <c r="C76" s="71"/>
@@ -5148,7 +5148,7 @@
       <c r="Y76" s="71"/>
       <c r="Z76" s="71"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="71"/>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
@@ -5176,7 +5176,7 @@
       <c r="Y77" s="71"/>
       <c r="Z77" s="71"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="71"/>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
@@ -5204,7 +5204,7 @@
       <c r="Y78" s="71"/>
       <c r="Z78" s="71"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="71"/>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
@@ -5232,7 +5232,7 @@
       <c r="Y79" s="71"/>
       <c r="Z79" s="71"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
@@ -5260,7 +5260,7 @@
       <c r="Y80" s="71"/>
       <c r="Z80" s="71"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
@@ -5288,7 +5288,7 @@
       <c r="Y81" s="71"/>
       <c r="Z81" s="71"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
       <c r="C82" s="71"/>
@@ -5316,7 +5316,7 @@
       <c r="Y82" s="71"/>
       <c r="Z82" s="71"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
       <c r="C83" s="71"/>
@@ -5344,7 +5344,7 @@
       <c r="Y83" s="71"/>
       <c r="Z83" s="71"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
@@ -5372,7 +5372,7 @@
       <c r="Y84" s="71"/>
       <c r="Z84" s="71"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
@@ -5400,7 +5400,7 @@
       <c r="Y85" s="71"/>
       <c r="Z85" s="71"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="71"/>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
@@ -5428,7 +5428,7 @@
       <c r="Y86" s="71"/>
       <c r="Z86" s="71"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="71"/>
       <c r="B87" s="71"/>
       <c r="C87" s="71"/>
@@ -5456,7 +5456,7 @@
       <c r="Y87" s="71"/>
       <c r="Z87" s="71"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="71"/>
       <c r="B88" s="71"/>
       <c r="C88" s="71"/>
@@ -5484,7 +5484,7 @@
       <c r="Y88" s="71"/>
       <c r="Z88" s="71"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="71"/>
       <c r="B89" s="71"/>
       <c r="C89" s="71"/>
@@ -5512,7 +5512,7 @@
       <c r="Y89" s="71"/>
       <c r="Z89" s="71"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="71"/>
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
@@ -5540,7 +5540,7 @@
       <c r="Y90" s="71"/>
       <c r="Z90" s="71"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="71"/>
       <c r="B91" s="71"/>
       <c r="C91" s="71"/>
@@ -5568,7 +5568,7 @@
       <c r="Y91" s="71"/>
       <c r="Z91" s="71"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="71"/>
       <c r="B92" s="71"/>
       <c r="C92" s="71"/>
@@ -5596,7 +5596,7 @@
       <c r="Y92" s="71"/>
       <c r="Z92" s="71"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="71"/>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
@@ -5624,7 +5624,7 @@
       <c r="Y93" s="71"/>
       <c r="Z93" s="71"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="71"/>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
@@ -5652,7 +5652,7 @@
       <c r="Y94" s="71"/>
       <c r="Z94" s="71"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="71"/>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
@@ -5680,7 +5680,7 @@
       <c r="Y95" s="71"/>
       <c r="Z95" s="71"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="71"/>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
@@ -5708,7 +5708,7 @@
       <c r="Y96" s="71"/>
       <c r="Z96" s="71"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="71"/>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
@@ -5736,7 +5736,7 @@
       <c r="Y97" s="71"/>
       <c r="Z97" s="71"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="71"/>
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
@@ -5764,7 +5764,7 @@
       <c r="Y98" s="71"/>
       <c r="Z98" s="71"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="71"/>
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
@@ -5821,12 +5821,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>2.7679848891515602</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6208,12 +6208,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3.22687367398184</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>2.9375514476297502</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.48784295359637803</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0.37305637627958299</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>0.31709791983764601</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1.2683916793505801</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>43.274952141011099</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>39.394910105381101</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6843,18 +6843,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="25" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="25" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="25"/>
-    <col min="7" max="7" width="42.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="19.54296875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="27.26953125" style="25" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="25"/>
+    <col min="7" max="7" width="42.7265625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="56.7265625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="101.54296875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
@@ -6865,14 +6865,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="49"/>
       <c r="B5" s="88" t="str">
         <f>"Veda Fill table"</f>
@@ -6880,24 +6880,24 @@
       </c>
       <c r="C5" s="89"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="33"/>
       <c r="B6" s="90" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="91"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
         <v>52</v>
       </c>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="C9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>52</v>
       </c>
@@ -6915,21 +6915,21 @@
       </c>
       <c r="C10" s="41"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="42"/>
       <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="42"/>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
         <v>57</v>
       </c>
@@ -6940,14 +6940,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
         <v>63</v>
       </c>
@@ -6965,14 +6965,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>65</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>67</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>69</v>
       </c>
@@ -6999,14 +6999,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>72</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>74</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>76</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>78</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>80</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>82</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
         <v>84</v>
       </c>
@@ -7069,14 +7069,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>87</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>11</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>91</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>95</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="28" t="s">
         <v>97</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>100</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="28" t="s">
         <v>102</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
         <v>104</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
         <v>107</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">
         <v>109</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>112</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>115</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>118</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="46" t="s">
         <v>121</v>
       </c>
@@ -7262,28 +7262,28 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
         <v>37</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -8274,7 +8274,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>37</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>37</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>37</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="15" t="s">
         <v>37</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -8578,7 +8578,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="15" t="s">
         <v>37</v>
       </c>
@@ -8711,28 +8711,28 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>241</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>241</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>241</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>241</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>241</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>241</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>241</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>241</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>241</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>241</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
         <v>241</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -9228,7 +9228,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>241</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>241</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>241</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>241</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>241</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>241</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>241</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>241</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>241</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -9665,7 +9665,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>241</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -9727,7 +9727,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>241</v>
       </c>
@@ -9758,7 +9758,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>241</v>
       </c>
@@ -9789,7 +9789,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>241</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>241</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>241</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="15" t="s">
         <v>241</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -10059,7 +10059,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>241</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>241</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -10124,7 +10124,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>241</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="15" t="s">
         <v>241</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>254</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>S-REF-PU*</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>127</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>S-REF-CS*</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>127</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>S-OEL-PU*</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>127</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>S-OEL-CS*</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>127</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>127</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>9.366584709050458E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>127</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>2.6860059092129972E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
         <v>127</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>0.12176560121765607</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>30</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>6.0882800608827838E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>30</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="C67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10509,25 +10509,25 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.1796875" style="20"/>
     <col min="2" max="2" width="11" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="3" max="3" width="14.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="20"/>
+    <col min="6" max="6" width="10.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>196</v>
       </c>
@@ -10540,7 +10540,7 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="47" t="s">
         <v>16</v>
       </c>
@@ -10590,7 +10590,7 @@
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -10611,8 +10611,8 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>197</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
@@ -10696,8 +10696,8 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>198</v>
       </c>
@@ -10710,7 +10710,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
@@ -10760,7 +10760,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="47" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>242</v>
       </c>
@@ -10794,7 +10794,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>16</v>
       </c>
@@ -10844,7 +10844,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="47" t="s">
         <v>16</v>
       </c>
@@ -10880,40 +10880,40 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="50" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="50" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="50"/>
+    <col min="29" max="29" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C3" s="51" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -11027,12 +11027,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>128</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>131</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>132</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="53" t="s">
         <v>133</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>135</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
         <v>137</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
         <v>139</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
         <v>141</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
         <v>143</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
         <v>145</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
         <v>147</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="55" t="s">
         <v>149</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="55" t="s">
         <v>151</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
         <v>153</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>155</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
         <v>157</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="55" t="s">
         <v>159</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="55" t="s">
         <v>161</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="55" t="s">
         <v>163</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
         <v>165</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="55" t="s">
         <v>167</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="55" t="s">
         <v>169</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="55" t="s">
         <v>171</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="55" t="s">
         <v>173</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="55" t="s">
         <v>175</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
         <v>177</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
         <v>179</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
         <v>181</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
         <v>183</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="55" t="s">
         <v>185</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="56" t="s">
         <v>187</v>
       </c>
@@ -11647,44 +11647,44 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" style="50" customWidth="1"/>
     <col min="2" max="2" width="10" style="50" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="50" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="50"/>
+    <col min="3" max="3" width="23.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" s="57" t="s">
         <v>188</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="Z3" s="50"/>
       <c r="AA3" s="50"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>189</v>
       </c>
@@ -11754,7 +11754,7 @@
       <c r="Z4" s="50"/>
       <c r="AA4" s="50"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C5" s="63" t="s">
         <v>30</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="Z5" s="50"/>
       <c r="AA5" s="50"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -11806,7 +11806,7 @@
       <c r="Z6" s="50"/>
       <c r="AA6" s="50"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
@@ -11842,12 +11842,12 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -13215,12 +13215,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AABE76-4D79-4105-9F51-1D50FE30E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3A4C4-5EB5-4E0C-88FC-C9BAA49A9B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -2177,7 +2177,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF08F70-6061-4334-B6F9-12A767772C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2221,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CE3B6C-F45A-4A9A-83A7-260FE2022E45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2270,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6629FB-C09F-4200-B78E-4FD5614996BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2320,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA8B95B-A935-4706-BBFB-6D5C157F61C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2370,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DB6255-16F1-4131-B80B-898A983DA66E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2419,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C8A817-8A7F-451D-A8EF-15CA92E73ED5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -2481,7 +2481,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1104FA2-617F-40B5-9110-C12C45401468}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2536,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,21 +2972,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="50" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="50" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="50" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="50" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="50" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="50" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="50" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="50" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="50" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="50" customWidth="1"/>
     <col min="13" max="13" width="10" style="50" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="50" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="50" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="50"/>
+    <col min="14" max="14" width="11.42578125" style="50" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="50" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -3014,7 +3014,7 @@
       <c r="Y1" s="71"/>
       <c r="Z1" s="71"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -3042,7 +3042,7 @@
       <c r="Y2" s="71"/>
       <c r="Z2" s="71"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -3070,7 +3070,7 @@
       <c r="Y3" s="71"/>
       <c r="Z3" s="71"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -3098,7 +3098,7 @@
       <c r="Y4" s="71"/>
       <c r="Z4" s="71"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -3126,7 +3126,7 @@
       <c r="Y5" s="71"/>
       <c r="Z5" s="71"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -3154,7 +3154,7 @@
       <c r="Y6" s="71"/>
       <c r="Z6" s="71"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -3182,7 +3182,7 @@
       <c r="Y7" s="71"/>
       <c r="Z7" s="71"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -3210,7 +3210,7 @@
       <c r="Y8" s="71"/>
       <c r="Z8" s="71"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -3238,7 +3238,7 @@
       <c r="Y9" s="71"/>
       <c r="Z9" s="71"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -3266,7 +3266,7 @@
       <c r="Y10" s="71"/>
       <c r="Z10" s="71"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -3294,7 +3294,7 @@
       <c r="Y11" s="71"/>
       <c r="Z11" s="71"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -3322,7 +3322,7 @@
       <c r="Y12" s="71"/>
       <c r="Z12" s="71"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
@@ -3350,7 +3350,7 @@
       <c r="Y13" s="71"/>
       <c r="Z13" s="71"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -3378,7 +3378,7 @@
       <c r="Y14" s="71"/>
       <c r="Z14" s="71"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -3406,7 +3406,7 @@
       <c r="Y15" s="71"/>
       <c r="Z15" s="71"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86" t="s">
         <v>258</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="Y16" s="71"/>
       <c r="Z16" s="71"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -3464,7 +3464,7 @@
       <c r="Y17" s="71"/>
       <c r="Z17" s="71"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -3492,7 +3492,7 @@
       <c r="Y18" s="71"/>
       <c r="Z18" s="71"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>31</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="Y19" s="71"/>
       <c r="Z19" s="71"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>259</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="Y20" s="71"/>
       <c r="Z20" s="71"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>260</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="Y21" s="71"/>
       <c r="Z21" s="71"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="77"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -3616,7 +3616,7 @@
       <c r="Y22" s="71"/>
       <c r="Z22" s="71"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>261</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="Y23" s="71"/>
       <c r="Z23" s="71"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="77"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -3674,7 +3674,7 @@
       <c r="Y24" s="71"/>
       <c r="Z24" s="71"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="77"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -3702,7 +3702,7 @@
       <c r="Y25" s="71"/>
       <c r="Z25" s="71"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>262</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="Y26" s="71"/>
       <c r="Z26" s="71"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -3762,7 +3762,7 @@
       <c r="Y27" s="71"/>
       <c r="Z27" s="71"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="77"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -3790,7 +3790,7 @@
       <c r="Y28" s="71"/>
       <c r="Z28" s="71"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
         <v>263</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="Y29" s="71"/>
       <c r="Z29" s="71"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="s">
         <v>264</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="Y30" s="71"/>
       <c r="Z30" s="71"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="77" t="s">
         <v>266</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="Y31" s="71"/>
       <c r="Z31" s="71"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="83"/>
       <c r="B32" s="84" t="s">
         <v>268</v>
@@ -3916,7 +3916,7 @@
       <c r="Y32" s="71"/>
       <c r="Z32" s="71"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="70"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
@@ -3944,7 +3944,7 @@
       <c r="Y33" s="71"/>
       <c r="Z33" s="71"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="70"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -3972,7 +3972,7 @@
       <c r="Y34" s="71"/>
       <c r="Z34" s="71"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="70"/>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
@@ -4000,7 +4000,7 @@
       <c r="Y35" s="71"/>
       <c r="Z35" s="71"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="70"/>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -4028,7 +4028,7 @@
       <c r="Y36" s="71"/>
       <c r="Z36" s="71"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="70"/>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
@@ -4056,7 +4056,7 @@
       <c r="Y37" s="71"/>
       <c r="Z37" s="71"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="70"/>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
@@ -4084,7 +4084,7 @@
       <c r="Y38" s="71"/>
       <c r="Z38" s="71"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="70"/>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
@@ -4112,7 +4112,7 @@
       <c r="Y39" s="71"/>
       <c r="Z39" s="71"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="70"/>
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
@@ -4140,7 +4140,7 @@
       <c r="Y40" s="71"/>
       <c r="Z40" s="71"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="70"/>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
@@ -4168,7 +4168,7 @@
       <c r="Y41" s="71"/>
       <c r="Z41" s="71"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -4196,7 +4196,7 @@
       <c r="Y42" s="71"/>
       <c r="Z42" s="71"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -4224,7 +4224,7 @@
       <c r="Y43" s="71"/>
       <c r="Z43" s="71"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
@@ -4252,7 +4252,7 @@
       <c r="Y44" s="71"/>
       <c r="Z44" s="71"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
@@ -4280,7 +4280,7 @@
       <c r="Y45" s="71"/>
       <c r="Z45" s="71"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="71"/>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
@@ -4308,7 +4308,7 @@
       <c r="Y46" s="71"/>
       <c r="Z46" s="71"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="71"/>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
@@ -4336,7 +4336,7 @@
       <c r="Y47" s="71"/>
       <c r="Z47" s="71"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
@@ -4364,7 +4364,7 @@
       <c r="Y48" s="71"/>
       <c r="Z48" s="71"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="71"/>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
@@ -4392,7 +4392,7 @@
       <c r="Y49" s="71"/>
       <c r="Z49" s="71"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="71"/>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
@@ -4420,7 +4420,7 @@
       <c r="Y50" s="71"/>
       <c r="Z50" s="71"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="71"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
@@ -4448,7 +4448,7 @@
       <c r="Y51" s="71"/>
       <c r="Z51" s="71"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="71"/>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
@@ -4476,7 +4476,7 @@
       <c r="Y52" s="71"/>
       <c r="Z52" s="71"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="71"/>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
@@ -4504,7 +4504,7 @@
       <c r="Y53" s="71"/>
       <c r="Z53" s="71"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="71"/>
       <c r="B54" s="71"/>
       <c r="C54" s="71"/>
@@ -4532,7 +4532,7 @@
       <c r="Y54" s="71"/>
       <c r="Z54" s="71"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="71"/>
       <c r="B55" s="71"/>
       <c r="C55" s="71"/>
@@ -4560,7 +4560,7 @@
       <c r="Y55" s="71"/>
       <c r="Z55" s="71"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="71"/>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
@@ -4588,7 +4588,7 @@
       <c r="Y56" s="71"/>
       <c r="Z56" s="71"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="71"/>
       <c r="B57" s="71"/>
       <c r="C57" s="71"/>
@@ -4616,7 +4616,7 @@
       <c r="Y57" s="71"/>
       <c r="Z57" s="71"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="71"/>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
@@ -4644,7 +4644,7 @@
       <c r="Y58" s="71"/>
       <c r="Z58" s="71"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="71"/>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
@@ -4672,7 +4672,7 @@
       <c r="Y59" s="71"/>
       <c r="Z59" s="71"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="71"/>
       <c r="B60" s="71"/>
       <c r="C60" s="71"/>
@@ -4700,7 +4700,7 @@
       <c r="Y60" s="71"/>
       <c r="Z60" s="71"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="71"/>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
@@ -4728,7 +4728,7 @@
       <c r="Y61" s="71"/>
       <c r="Z61" s="71"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="71"/>
       <c r="B62" s="71"/>
       <c r="C62" s="71"/>
@@ -4756,7 +4756,7 @@
       <c r="Y62" s="71"/>
       <c r="Z62" s="71"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="71"/>
       <c r="B63" s="71"/>
       <c r="C63" s="71"/>
@@ -4784,7 +4784,7 @@
       <c r="Y63" s="71"/>
       <c r="Z63" s="71"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="71"/>
       <c r="B64" s="71"/>
       <c r="C64" s="71"/>
@@ -4812,7 +4812,7 @@
       <c r="Y64" s="71"/>
       <c r="Z64" s="71"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="71"/>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
@@ -4840,7 +4840,7 @@
       <c r="Y65" s="71"/>
       <c r="Z65" s="71"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="71"/>
       <c r="B66" s="71"/>
       <c r="C66" s="71"/>
@@ -4868,7 +4868,7 @@
       <c r="Y66" s="71"/>
       <c r="Z66" s="71"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="71"/>
       <c r="B67" s="71"/>
       <c r="C67" s="71"/>
@@ -4896,7 +4896,7 @@
       <c r="Y67" s="71"/>
       <c r="Z67" s="71"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="71"/>
       <c r="B68" s="71"/>
       <c r="C68" s="71"/>
@@ -4924,7 +4924,7 @@
       <c r="Y68" s="71"/>
       <c r="Z68" s="71"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="71"/>
       <c r="B69" s="71"/>
       <c r="C69" s="71"/>
@@ -4952,7 +4952,7 @@
       <c r="Y69" s="71"/>
       <c r="Z69" s="71"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="71"/>
       <c r="B70" s="71"/>
       <c r="C70" s="71"/>
@@ -4980,7 +4980,7 @@
       <c r="Y70" s="71"/>
       <c r="Z70" s="71"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="71"/>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
@@ -5008,7 +5008,7 @@
       <c r="Y71" s="71"/>
       <c r="Z71" s="71"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="71"/>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
@@ -5036,7 +5036,7 @@
       <c r="Y72" s="71"/>
       <c r="Z72" s="71"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="71"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -5064,7 +5064,7 @@
       <c r="Y73" s="71"/>
       <c r="Z73" s="71"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="71"/>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
@@ -5092,7 +5092,7 @@
       <c r="Y74" s="71"/>
       <c r="Z74" s="71"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="71"/>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
@@ -5120,7 +5120,7 @@
       <c r="Y75" s="71"/>
       <c r="Z75" s="71"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="71"/>
       <c r="B76" s="71"/>
       <c r="C76" s="71"/>
@@ -5148,7 +5148,7 @@
       <c r="Y76" s="71"/>
       <c r="Z76" s="71"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="71"/>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
@@ -5176,7 +5176,7 @@
       <c r="Y77" s="71"/>
       <c r="Z77" s="71"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="71"/>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
@@ -5204,7 +5204,7 @@
       <c r="Y78" s="71"/>
       <c r="Z78" s="71"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="71"/>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
@@ -5232,7 +5232,7 @@
       <c r="Y79" s="71"/>
       <c r="Z79" s="71"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
@@ -5260,7 +5260,7 @@
       <c r="Y80" s="71"/>
       <c r="Z80" s="71"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
@@ -5288,7 +5288,7 @@
       <c r="Y81" s="71"/>
       <c r="Z81" s="71"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
       <c r="C82" s="71"/>
@@ -5316,7 +5316,7 @@
       <c r="Y82" s="71"/>
       <c r="Z82" s="71"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
       <c r="C83" s="71"/>
@@ -5344,7 +5344,7 @@
       <c r="Y83" s="71"/>
       <c r="Z83" s="71"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
@@ -5372,7 +5372,7 @@
       <c r="Y84" s="71"/>
       <c r="Z84" s="71"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
@@ -5400,7 +5400,7 @@
       <c r="Y85" s="71"/>
       <c r="Z85" s="71"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="71"/>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
@@ -5428,7 +5428,7 @@
       <c r="Y86" s="71"/>
       <c r="Z86" s="71"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="71"/>
       <c r="B87" s="71"/>
       <c r="C87" s="71"/>
@@ -5456,7 +5456,7 @@
       <c r="Y87" s="71"/>
       <c r="Z87" s="71"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="71"/>
       <c r="B88" s="71"/>
       <c r="C88" s="71"/>
@@ -5484,7 +5484,7 @@
       <c r="Y88" s="71"/>
       <c r="Z88" s="71"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="71"/>
       <c r="B89" s="71"/>
       <c r="C89" s="71"/>
@@ -5512,7 +5512,7 @@
       <c r="Y89" s="71"/>
       <c r="Z89" s="71"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="71"/>
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
@@ -5540,7 +5540,7 @@
       <c r="Y90" s="71"/>
       <c r="Z90" s="71"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="71"/>
       <c r="B91" s="71"/>
       <c r="C91" s="71"/>
@@ -5568,7 +5568,7 @@
       <c r="Y91" s="71"/>
       <c r="Z91" s="71"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="71"/>
       <c r="B92" s="71"/>
       <c r="C92" s="71"/>
@@ -5596,7 +5596,7 @@
       <c r="Y92" s="71"/>
       <c r="Z92" s="71"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="71"/>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
@@ -5624,7 +5624,7 @@
       <c r="Y93" s="71"/>
       <c r="Z93" s="71"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="71"/>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
@@ -5652,7 +5652,7 @@
       <c r="Y94" s="71"/>
       <c r="Z94" s="71"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="71"/>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
@@ -5680,7 +5680,7 @@
       <c r="Y95" s="71"/>
       <c r="Z95" s="71"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="71"/>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
@@ -5708,7 +5708,7 @@
       <c r="Y96" s="71"/>
       <c r="Z96" s="71"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="71"/>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
@@ -5736,7 +5736,7 @@
       <c r="Y97" s="71"/>
       <c r="Z97" s="71"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="71"/>
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
@@ -5764,7 +5764,7 @@
       <c r="Y98" s="71"/>
       <c r="Z98" s="71"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="71"/>
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
@@ -5821,12 +5821,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>2.7679848891515602</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6208,12 +6208,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3.22687367398184</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>2.9375514476297502</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.48784295359637803</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0.37305637627958299</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>0.31709791983764601</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1.2683916793505801</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>43.274952141011099</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>39.394910105381101</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6843,18 +6843,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="25" customWidth="1"/>
-    <col min="2" max="3" width="27.26953125" style="25" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="25"/>
-    <col min="7" max="7" width="42.7265625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="56.7265625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="101.54296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="25"/>
+    <col min="1" max="1" width="19.5703125" style="25" customWidth="1"/>
+    <col min="2" max="3" width="27.28515625" style="25" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="25"/>
+    <col min="7" max="7" width="42.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="101.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
@@ -6865,14 +6865,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="88" t="str">
         <f>"Veda Fill table"</f>
@@ -6880,24 +6880,24 @@
       </c>
       <c r="C5" s="89"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="90" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="91"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
     </row>
-    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>52</v>
       </c>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="C9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>52</v>
       </c>
@@ -6915,21 +6915,21 @@
       </c>
       <c r="C10" s="41"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="42"/>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>57</v>
       </c>
@@ -6940,14 +6940,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
         <v>63</v>
       </c>
@@ -6965,14 +6965,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>65</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>67</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>69</v>
       </c>
@@ -6999,14 +6999,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>72</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>74</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>76</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>78</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>80</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>82</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>84</v>
       </c>
@@ -7069,14 +7069,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>87</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>11</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>91</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>95</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>97</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>100</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>102</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>104</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>107</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>109</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>112</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>115</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>118</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
         <v>121</v>
       </c>
@@ -7262,28 +7262,28 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.1796875" style="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>37</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -8274,7 +8274,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>37</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>37</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>37</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>37</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -8578,7 +8578,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>37</v>
       </c>
@@ -8711,28 +8711,28 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.1796875" style="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>241</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>241</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>241</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>241</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>241</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>241</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>241</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>241</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>241</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>241</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>241</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -9228,7 +9228,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>241</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>241</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>241</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>241</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>241</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>241</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>241</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>241</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>241</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -9665,7 +9665,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>241</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -9727,7 +9727,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>241</v>
       </c>
@@ -9758,7 +9758,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>241</v>
       </c>
@@ -9789,7 +9789,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>241</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>241</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>241</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>241</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -10059,7 +10059,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>241</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>241</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -10124,7 +10124,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>241</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>241</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>254</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>S-REF-PU*</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>127</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>S-REF-CS*</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>127</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>S-OEL-PU*</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>127</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>S-OEL-CS*</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>127</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>127</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>9.366584709050458E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>127</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>2.6860059092129972E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>127</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>0.12176560121765607</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>30</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>6.0882800608827838E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>30</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="C67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10509,25 +10509,25 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="20"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="11" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="20"/>
-    <col min="6" max="6" width="10.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="20"/>
+    <col min="3" max="3" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>196</v>
       </c>
@@ -10540,7 +10540,7 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
         <v>16</v>
       </c>
@@ -10590,7 +10590,7 @@
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -10611,8 +10611,8 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>197</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
@@ -10696,8 +10696,8 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>198</v>
       </c>
@@ -10710,7 +10710,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
@@ -10760,7 +10760,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>242</v>
       </c>
@@ -10794,7 +10794,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>16</v>
       </c>
@@ -10844,7 +10844,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
         <v>16</v>
       </c>
@@ -10880,40 +10880,40 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.81640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="50" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="50" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="50"/>
+    <col min="29" max="29" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="51" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -11027,12 +11027,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>128</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>131</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>132</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>133</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>135</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>137</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>139</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>141</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>143</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
         <v>145</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>147</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
         <v>149</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>151</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>153</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>155</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
         <v>157</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>159</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
         <v>161</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
         <v>163</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
         <v>165</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>167</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>169</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>171</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
         <v>173</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
         <v>175</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
         <v>177</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
         <v>179</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
         <v>181</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>183</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>185</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>187</v>
       </c>
@@ -11647,44 +11647,44 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="50" customWidth="1"/>
     <col min="2" max="2" width="10" style="50" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.453125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.54296875" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.453125" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.54296875" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.453125" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7265625" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.54296875" style="58" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.453125" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.26953125" style="50" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="50"/>
+    <col min="3" max="3" width="23.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="50" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>188</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="Z3" s="50"/>
       <c r="AA3" s="50"/>
     </row>
-    <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="60" t="s">
         <v>189</v>
       </c>
@@ -11754,7 +11754,7 @@
       <c r="Z4" s="50"/>
       <c r="AA4" s="50"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
         <v>30</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="Z5" s="50"/>
       <c r="AA5" s="50"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -11806,7 +11806,7 @@
       <c r="Z6" s="50"/>
       <c r="AA6" s="50"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
@@ -11842,12 +11842,12 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -13215,12 +13215,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3A4C4-5EB5-4E0C-88FC-C9BAA49A9B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D40C4-D1C0-465B-8049-5042CEFAD81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -2177,7 +2177,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF08F70-6061-4334-B6F9-12A767772C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2221,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CE3B6C-F45A-4A9A-83A7-260FE2022E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2270,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6629FB-C09F-4200-B78E-4FD5614996BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2320,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA8B95B-A935-4706-BBFB-6D5C157F61C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2370,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DB6255-16F1-4131-B80B-898A983DA66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2419,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C8A817-8A7F-451D-A8EF-15CA92E73ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -2481,7 +2481,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1104FA2-617F-40B5-9110-C12C45401468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2536,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,21 +2972,21 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="50" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="50" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="50" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="50" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="50" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="50" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="50" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="50" customWidth="1"/>
     <col min="13" max="13" width="10" style="50" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="50" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="50" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="50"/>
+    <col min="14" max="14" width="11.453125" style="50" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="50" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -3014,7 +3014,7 @@
       <c r="Y1" s="71"/>
       <c r="Z1" s="71"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -3042,7 +3042,7 @@
       <c r="Y2" s="71"/>
       <c r="Z2" s="71"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -3070,7 +3070,7 @@
       <c r="Y3" s="71"/>
       <c r="Z3" s="71"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -3098,7 +3098,7 @@
       <c r="Y4" s="71"/>
       <c r="Z4" s="71"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -3126,7 +3126,7 @@
       <c r="Y5" s="71"/>
       <c r="Z5" s="71"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -3154,7 +3154,7 @@
       <c r="Y6" s="71"/>
       <c r="Z6" s="71"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -3182,7 +3182,7 @@
       <c r="Y7" s="71"/>
       <c r="Z7" s="71"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -3210,7 +3210,7 @@
       <c r="Y8" s="71"/>
       <c r="Z8" s="71"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -3238,7 +3238,7 @@
       <c r="Y9" s="71"/>
       <c r="Z9" s="71"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -3266,7 +3266,7 @@
       <c r="Y10" s="71"/>
       <c r="Z10" s="71"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -3294,7 +3294,7 @@
       <c r="Y11" s="71"/>
       <c r="Z11" s="71"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -3322,7 +3322,7 @@
       <c r="Y12" s="71"/>
       <c r="Z12" s="71"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="70"/>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
@@ -3350,7 +3350,7 @@
       <c r="Y13" s="71"/>
       <c r="Z13" s="71"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -3378,7 +3378,7 @@
       <c r="Y14" s="71"/>
       <c r="Z14" s="71"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="70"/>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -3406,7 +3406,7 @@
       <c r="Y15" s="71"/>
       <c r="Z15" s="71"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="86" t="s">
         <v>258</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="Y16" s="71"/>
       <c r="Z16" s="71"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -3464,7 +3464,7 @@
       <c r="Y17" s="71"/>
       <c r="Z17" s="71"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -3492,7 +3492,7 @@
       <c r="Y18" s="71"/>
       <c r="Z18" s="71"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="77" t="s">
         <v>31</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="Y19" s="71"/>
       <c r="Z19" s="71"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="77" t="s">
         <v>259</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="Y20" s="71"/>
       <c r="Z20" s="71"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="77" t="s">
         <v>260</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="Y21" s="71"/>
       <c r="Z21" s="71"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="77"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -3616,7 +3616,7 @@
       <c r="Y22" s="71"/>
       <c r="Z22" s="71"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="77" t="s">
         <v>261</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="Y23" s="71"/>
       <c r="Z23" s="71"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -3674,7 +3674,7 @@
       <c r="Y24" s="71"/>
       <c r="Z24" s="71"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="77"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -3702,7 +3702,7 @@
       <c r="Y25" s="71"/>
       <c r="Z25" s="71"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77" t="s">
         <v>262</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="Y26" s="71"/>
       <c r="Z26" s="71"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="77"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -3762,7 +3762,7 @@
       <c r="Y27" s="71"/>
       <c r="Z27" s="71"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="77"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -3790,7 +3790,7 @@
       <c r="Y28" s="71"/>
       <c r="Z28" s="71"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>263</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="Y29" s="71"/>
       <c r="Z29" s="71"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="77" t="s">
         <v>264</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="Y30" s="71"/>
       <c r="Z30" s="71"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="77" t="s">
         <v>266</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="Y31" s="71"/>
       <c r="Z31" s="71"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="83"/>
       <c r="B32" s="84" t="s">
         <v>268</v>
@@ -3916,7 +3916,7 @@
       <c r="Y32" s="71"/>
       <c r="Z32" s="71"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="70"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
@@ -3944,7 +3944,7 @@
       <c r="Y33" s="71"/>
       <c r="Z33" s="71"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="70"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -3972,7 +3972,7 @@
       <c r="Y34" s="71"/>
       <c r="Z34" s="71"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="70"/>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
@@ -4000,7 +4000,7 @@
       <c r="Y35" s="71"/>
       <c r="Z35" s="71"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="70"/>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -4028,7 +4028,7 @@
       <c r="Y36" s="71"/>
       <c r="Z36" s="71"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="70"/>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
@@ -4056,7 +4056,7 @@
       <c r="Y37" s="71"/>
       <c r="Z37" s="71"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="70"/>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
@@ -4084,7 +4084,7 @@
       <c r="Y38" s="71"/>
       <c r="Z38" s="71"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="70"/>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
@@ -4112,7 +4112,7 @@
       <c r="Y39" s="71"/>
       <c r="Z39" s="71"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="70"/>
       <c r="B40" s="70"/>
       <c r="C40" s="70"/>
@@ -4140,7 +4140,7 @@
       <c r="Y40" s="71"/>
       <c r="Z40" s="71"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="70"/>
       <c r="B41" s="70"/>
       <c r="C41" s="70"/>
@@ -4168,7 +4168,7 @@
       <c r="Y41" s="71"/>
       <c r="Z41" s="71"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="70"/>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -4196,7 +4196,7 @@
       <c r="Y42" s="71"/>
       <c r="Z42" s="71"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -4224,7 +4224,7 @@
       <c r="Y43" s="71"/>
       <c r="Z43" s="71"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
@@ -4252,7 +4252,7 @@
       <c r="Y44" s="71"/>
       <c r="Z44" s="71"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="71"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
@@ -4280,7 +4280,7 @@
       <c r="Y45" s="71"/>
       <c r="Z45" s="71"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="71"/>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
@@ -4308,7 +4308,7 @@
       <c r="Y46" s="71"/>
       <c r="Z46" s="71"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="71"/>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
@@ -4336,7 +4336,7 @@
       <c r="Y47" s="71"/>
       <c r="Z47" s="71"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
@@ -4364,7 +4364,7 @@
       <c r="Y48" s="71"/>
       <c r="Z48" s="71"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="71"/>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
@@ -4392,7 +4392,7 @@
       <c r="Y49" s="71"/>
       <c r="Z49" s="71"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="71"/>
       <c r="B50" s="71"/>
       <c r="C50" s="71"/>
@@ -4420,7 +4420,7 @@
       <c r="Y50" s="71"/>
       <c r="Z50" s="71"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="71"/>
       <c r="B51" s="71"/>
       <c r="C51" s="71"/>
@@ -4448,7 +4448,7 @@
       <c r="Y51" s="71"/>
       <c r="Z51" s="71"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="71"/>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
@@ -4476,7 +4476,7 @@
       <c r="Y52" s="71"/>
       <c r="Z52" s="71"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="71"/>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
@@ -4504,7 +4504,7 @@
       <c r="Y53" s="71"/>
       <c r="Z53" s="71"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="71"/>
       <c r="B54" s="71"/>
       <c r="C54" s="71"/>
@@ -4532,7 +4532,7 @@
       <c r="Y54" s="71"/>
       <c r="Z54" s="71"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="71"/>
       <c r="B55" s="71"/>
       <c r="C55" s="71"/>
@@ -4560,7 +4560,7 @@
       <c r="Y55" s="71"/>
       <c r="Z55" s="71"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="71"/>
       <c r="B56" s="71"/>
       <c r="C56" s="71"/>
@@ -4588,7 +4588,7 @@
       <c r="Y56" s="71"/>
       <c r="Z56" s="71"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="71"/>
       <c r="B57" s="71"/>
       <c r="C57" s="71"/>
@@ -4616,7 +4616,7 @@
       <c r="Y57" s="71"/>
       <c r="Z57" s="71"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="71"/>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
@@ -4644,7 +4644,7 @@
       <c r="Y58" s="71"/>
       <c r="Z58" s="71"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="71"/>
       <c r="B59" s="71"/>
       <c r="C59" s="71"/>
@@ -4672,7 +4672,7 @@
       <c r="Y59" s="71"/>
       <c r="Z59" s="71"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="71"/>
       <c r="B60" s="71"/>
       <c r="C60" s="71"/>
@@ -4700,7 +4700,7 @@
       <c r="Y60" s="71"/>
       <c r="Z60" s="71"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="71"/>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
@@ -4728,7 +4728,7 @@
       <c r="Y61" s="71"/>
       <c r="Z61" s="71"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="71"/>
       <c r="B62" s="71"/>
       <c r="C62" s="71"/>
@@ -4756,7 +4756,7 @@
       <c r="Y62" s="71"/>
       <c r="Z62" s="71"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="71"/>
       <c r="B63" s="71"/>
       <c r="C63" s="71"/>
@@ -4784,7 +4784,7 @@
       <c r="Y63" s="71"/>
       <c r="Z63" s="71"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="71"/>
       <c r="B64" s="71"/>
       <c r="C64" s="71"/>
@@ -4812,7 +4812,7 @@
       <c r="Y64" s="71"/>
       <c r="Z64" s="71"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="71"/>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
@@ -4840,7 +4840,7 @@
       <c r="Y65" s="71"/>
       <c r="Z65" s="71"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="71"/>
       <c r="B66" s="71"/>
       <c r="C66" s="71"/>
@@ -4868,7 +4868,7 @@
       <c r="Y66" s="71"/>
       <c r="Z66" s="71"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="71"/>
       <c r="B67" s="71"/>
       <c r="C67" s="71"/>
@@ -4896,7 +4896,7 @@
       <c r="Y67" s="71"/>
       <c r="Z67" s="71"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="71"/>
       <c r="B68" s="71"/>
       <c r="C68" s="71"/>
@@ -4924,7 +4924,7 @@
       <c r="Y68" s="71"/>
       <c r="Z68" s="71"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="71"/>
       <c r="B69" s="71"/>
       <c r="C69" s="71"/>
@@ -4952,7 +4952,7 @@
       <c r="Y69" s="71"/>
       <c r="Z69" s="71"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="71"/>
       <c r="B70" s="71"/>
       <c r="C70" s="71"/>
@@ -4980,7 +4980,7 @@
       <c r="Y70" s="71"/>
       <c r="Z70" s="71"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="71"/>
       <c r="B71" s="71"/>
       <c r="C71" s="71"/>
@@ -5008,7 +5008,7 @@
       <c r="Y71" s="71"/>
       <c r="Z71" s="71"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="71"/>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
@@ -5036,7 +5036,7 @@
       <c r="Y72" s="71"/>
       <c r="Z72" s="71"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="71"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -5064,7 +5064,7 @@
       <c r="Y73" s="71"/>
       <c r="Z73" s="71"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="71"/>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
@@ -5092,7 +5092,7 @@
       <c r="Y74" s="71"/>
       <c r="Z74" s="71"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="71"/>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
@@ -5120,7 +5120,7 @@
       <c r="Y75" s="71"/>
       <c r="Z75" s="71"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="71"/>
       <c r="B76" s="71"/>
       <c r="C76" s="71"/>
@@ -5148,7 +5148,7 @@
       <c r="Y76" s="71"/>
       <c r="Z76" s="71"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="71"/>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
@@ -5176,7 +5176,7 @@
       <c r="Y77" s="71"/>
       <c r="Z77" s="71"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="71"/>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
@@ -5204,7 +5204,7 @@
       <c r="Y78" s="71"/>
       <c r="Z78" s="71"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="71"/>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
@@ -5232,7 +5232,7 @@
       <c r="Y79" s="71"/>
       <c r="Z79" s="71"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
@@ -5260,7 +5260,7 @@
       <c r="Y80" s="71"/>
       <c r="Z80" s="71"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
@@ -5288,7 +5288,7 @@
       <c r="Y81" s="71"/>
       <c r="Z81" s="71"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
       <c r="C82" s="71"/>
@@ -5316,7 +5316,7 @@
       <c r="Y82" s="71"/>
       <c r="Z82" s="71"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
       <c r="C83" s="71"/>
@@ -5344,7 +5344,7 @@
       <c r="Y83" s="71"/>
       <c r="Z83" s="71"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
@@ -5372,7 +5372,7 @@
       <c r="Y84" s="71"/>
       <c r="Z84" s="71"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
@@ -5400,7 +5400,7 @@
       <c r="Y85" s="71"/>
       <c r="Z85" s="71"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="71"/>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
@@ -5428,7 +5428,7 @@
       <c r="Y86" s="71"/>
       <c r="Z86" s="71"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="71"/>
       <c r="B87" s="71"/>
       <c r="C87" s="71"/>
@@ -5456,7 +5456,7 @@
       <c r="Y87" s="71"/>
       <c r="Z87" s="71"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="71"/>
       <c r="B88" s="71"/>
       <c r="C88" s="71"/>
@@ -5484,7 +5484,7 @@
       <c r="Y88" s="71"/>
       <c r="Z88" s="71"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="71"/>
       <c r="B89" s="71"/>
       <c r="C89" s="71"/>
@@ -5512,7 +5512,7 @@
       <c r="Y89" s="71"/>
       <c r="Z89" s="71"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="71"/>
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
@@ -5540,7 +5540,7 @@
       <c r="Y90" s="71"/>
       <c r="Z90" s="71"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="71"/>
       <c r="B91" s="71"/>
       <c r="C91" s="71"/>
@@ -5568,7 +5568,7 @@
       <c r="Y91" s="71"/>
       <c r="Z91" s="71"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="71"/>
       <c r="B92" s="71"/>
       <c r="C92" s="71"/>
@@ -5596,7 +5596,7 @@
       <c r="Y92" s="71"/>
       <c r="Z92" s="71"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="71"/>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
@@ -5624,7 +5624,7 @@
       <c r="Y93" s="71"/>
       <c r="Z93" s="71"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="71"/>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
@@ -5652,7 +5652,7 @@
       <c r="Y94" s="71"/>
       <c r="Z94" s="71"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="71"/>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
@@ -5680,7 +5680,7 @@
       <c r="Y95" s="71"/>
       <c r="Z95" s="71"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="71"/>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
@@ -5708,7 +5708,7 @@
       <c r="Y96" s="71"/>
       <c r="Z96" s="71"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="71"/>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
@@ -5736,7 +5736,7 @@
       <c r="Y97" s="71"/>
       <c r="Z97" s="71"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="71"/>
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
@@ -5764,7 +5764,7 @@
       <c r="Y98" s="71"/>
       <c r="Z98" s="71"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="71"/>
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
@@ -5821,12 +5821,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>2.7679848891515602</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6208,12 +6208,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3.22687367398184</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>2.9375514476297502</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.48784295359637803</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0.37305637627958299</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>0.31709791983764601</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1.2683916793505801</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>43.274952141011099</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>39.394910105381101</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6843,18 +6843,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="25" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="25" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="25"/>
-    <col min="7" max="7" width="42.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="19.54296875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="27.26953125" style="25" customWidth="1"/>
+    <col min="4" max="6" width="9.1796875" style="25"/>
+    <col min="7" max="7" width="42.7265625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="56.7265625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="101.54296875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
@@ -6865,14 +6865,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="49"/>
       <c r="B5" s="88" t="str">
         <f>"Veda Fill table"</f>
@@ -6880,24 +6880,24 @@
       </c>
       <c r="C5" s="89"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="33"/>
       <c r="B6" s="90" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="91"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
         <v>52</v>
       </c>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="C9" s="38"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>52</v>
       </c>
@@ -6915,21 +6915,21 @@
       </c>
       <c r="C10" s="41"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="42"/>
       <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="42"/>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
         <v>57</v>
       </c>
@@ -6940,14 +6940,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
         <v>63</v>
       </c>
@@ -6965,14 +6965,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>65</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>67</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>69</v>
       </c>
@@ -6999,14 +6999,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>72</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>74</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>76</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>78</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>80</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>82</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
         <v>84</v>
       </c>
@@ -7069,14 +7069,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>87</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>11</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>91</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>95</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="28" t="s">
         <v>97</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>100</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="28" t="s">
         <v>102</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
         <v>104</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
         <v>107</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">
         <v>109</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>112</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>115</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>118</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="46" t="s">
         <v>121</v>
       </c>
@@ -7262,28 +7262,28 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
         <v>37</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -8274,7 +8274,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>37</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>37</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>37</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="15" t="s">
         <v>37</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -8578,7 +8578,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>14</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="15" t="s">
         <v>37</v>
       </c>
@@ -8711,28 +8711,28 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>241</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>241</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>241</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>241</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>241</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>241</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>241</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>241</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>241</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>241</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15" t="s">
         <v>241</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -9228,7 +9228,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>241</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>241</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>241</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>241</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>241</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>241</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>241</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>241</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>241</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -9665,7 +9665,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>241</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -9727,7 +9727,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>241</v>
       </c>
@@ -9758,7 +9758,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>241</v>
       </c>
@@ -9789,7 +9789,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>241</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>241</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>241</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="15" t="s">
         <v>241</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>28</v>
       </c>
@@ -10059,7 +10059,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>241</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>241</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>36</v>
       </c>
@@ -10124,7 +10124,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>241</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="15" t="s">
         <v>241</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>254</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>S-REF-PU*</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>127</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>S-REF-CS*</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>127</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>S-OEL-PU*</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>127</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>S-OEL-CS*</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>127</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>127</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>9.366584709050458E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>127</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>2.6860059092129972E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
         <v>127</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>0.12176560121765607</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>30</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>6.0882800608827838E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>30</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="C67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10509,25 +10509,25 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="1" max="1" width="9.1796875" style="20"/>
     <col min="2" max="2" width="11" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="3" max="3" width="14.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="20"/>
+    <col min="6" max="6" width="10.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>196</v>
       </c>
@@ -10540,7 +10540,7 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="47" t="s">
         <v>16</v>
       </c>
@@ -10590,7 +10590,7 @@
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
@@ -10611,8 +10611,8 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>197</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="47" t="s">
         <v>16</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="47" t="s">
         <v>16</v>
       </c>
@@ -10696,8 +10696,8 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>198</v>
       </c>
@@ -10710,7 +10710,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
@@ -10760,7 +10760,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="47" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>242</v>
       </c>
@@ -10794,7 +10794,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="47" t="s">
         <v>16</v>
       </c>
@@ -10844,7 +10844,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="47" t="s">
         <v>16</v>
       </c>
@@ -10880,40 +10880,40 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="50" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="50" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="50" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="50"/>
+    <col min="29" max="29" width="5.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C3" s="51" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -11027,12 +11027,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>128</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>131</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>132</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="53" t="s">
         <v>133</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
         <v>135</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
         <v>137</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
         <v>139</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
         <v>141</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
         <v>143</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
         <v>145</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
         <v>147</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="55" t="s">
         <v>149</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="55" t="s">
         <v>151</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
         <v>153</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="55" t="s">
         <v>155</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="55" t="s">
         <v>157</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="55" t="s">
         <v>159</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="55" t="s">
         <v>161</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="55" t="s">
         <v>163</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="55" t="s">
         <v>165</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="55" t="s">
         <v>167</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="55" t="s">
         <v>169</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="55" t="s">
         <v>171</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="55" t="s">
         <v>173</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="55" t="s">
         <v>175</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="55" t="s">
         <v>177</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
         <v>179</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="55" t="s">
         <v>181</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="55" t="s">
         <v>183</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="55" t="s">
         <v>185</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="56" t="s">
         <v>187</v>
       </c>
@@ -11647,44 +11647,44 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" style="50" customWidth="1"/>
     <col min="2" max="2" width="10" style="50" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="50" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="50"/>
+    <col min="3" max="3" width="23.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="50" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.7265625" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.453125" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.26953125" style="58" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.26953125" style="50" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.54296875" style="50" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.7265625" style="50" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" s="57" t="s">
         <v>188</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="Z3" s="50"/>
       <c r="AA3" s="50"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>189</v>
       </c>
@@ -11754,7 +11754,7 @@
       <c r="Z4" s="50"/>
       <c r="AA4" s="50"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C5" s="63" t="s">
         <v>30</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="Z5" s="50"/>
       <c r="AA5" s="50"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -11806,7 +11806,7 @@
       <c r="Z6" s="50"/>
       <c r="AA6" s="50"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
@@ -11842,12 +11842,12 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -12749,7 +12749,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>2.74705437385472</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -13215,12 +13215,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -14245,7 +14245,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3A4C4-5EB5-4E0C-88FC-C9BAA49A9B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1D1E7D-7258-4815-BB38-59630E822859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="BY_S-SC" sheetId="11" r:id="rId10"/>
     <sheet name="BY_S-EAP" sheetId="18" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="6" hidden="1">#REF!</definedName>
@@ -542,7 +545,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="273">
   <si>
     <t>LimType</t>
   </si>
@@ -2177,7 +2180,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF08F70-6061-4334-B6F9-12A767772C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2224,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CE3B6C-F45A-4A9A-83A7-260FE2022E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2273,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6629FB-C09F-4200-B78E-4FD5614996BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2323,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA8B95B-A935-4706-BBFB-6D5C157F61C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2373,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DB6255-16F1-4131-B80B-898A983DA66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2422,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C8A817-8A7F-451D-A8EF-15CA92E73ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -2481,7 +2484,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1104FA2-617F-40B5-9110-C12C45401468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2539,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,6 +2645,29 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Regions"/>
+      <sheetName val="TechSelection"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>IE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2968,7 +2994,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -7258,7 +7284,7 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -11641,10 +11667,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB4249C-0490-477F-A930-E3E0809B104E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B3:AA7"/>
+  <dimension ref="B3:AH7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11684,7 +11710,7 @@
     <col min="38" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>188</v>
       </c>
@@ -11708,7 +11734,7 @@
       <c r="Z3" s="50"/>
       <c r="AA3" s="50"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="60" t="s">
         <v>189</v>
       </c>
@@ -11728,33 +11754,89 @@
         <v>193</v>
       </c>
       <c r="H4" s="61" t="str">
-        <f>Regions!C3</f>
+        <f>[1]Regions!C3</f>
         <v>IE</v>
       </c>
-      <c r="I4" s="62" t="str">
-        <f>Regions!D3</f>
-        <v>National</v>
-      </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I4" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="T4" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="V4" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="W4" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y4" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z4" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB4" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC4" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD4" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE4" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF4" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG4" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH4" s="62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C5" s="63" t="s">
         <v>30</v>
       </c>
@@ -11764,29 +11846,86 @@
       <c r="H5" s="50">
         <v>1</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="50">
         <v>1</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="J5" s="50">
+        <v>1</v>
+      </c>
+      <c r="K5" s="50">
+        <v>1</v>
+      </c>
+      <c r="L5" s="50">
+        <v>1</v>
+      </c>
+      <c r="M5" s="50">
+        <v>1</v>
+      </c>
+      <c r="N5" s="50">
+        <v>1</v>
+      </c>
+      <c r="O5" s="50">
+        <v>1</v>
+      </c>
+      <c r="P5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>1</v>
+      </c>
+      <c r="R5" s="50">
+        <v>1</v>
+      </c>
+      <c r="S5" s="50">
+        <v>1</v>
+      </c>
+      <c r="T5" s="50">
+        <v>1</v>
+      </c>
+      <c r="U5" s="50">
+        <v>1</v>
+      </c>
+      <c r="V5" s="50">
+        <v>1</v>
+      </c>
+      <c r="W5" s="50">
+        <v>1</v>
+      </c>
+      <c r="X5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="50">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -11806,7 +11945,7 @@
       <c r="Z6" s="50"/>
       <c r="AA6" s="50"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1D1E7D-7258-4815-BB38-59630E822859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D98373-76A0-45BD-ABE3-CE33C36FDF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-750" yWindow="-16170" windowWidth="16200" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="273">
   <si>
     <t>LimType</t>
   </si>
@@ -1574,18 +1574,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1890,7 +1884,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1904,7 +1898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,16 +1913,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,10 +1937,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1958,7 +1952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1968,7 +1962,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1977,21 +1971,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2000,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2012,7 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2030,16 +2024,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2047,25 +2041,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2074,58 +2062,58 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2662,6 +2650,9 @@
           <cell r="C3" t="str">
             <v>IE</v>
           </cell>
+          <cell r="D3" t="str">
+            <v>National</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
@@ -3013,2810 +3004,2810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="79">
         <v>1</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="69"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="69"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="69"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="69"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="69"/>
+      <c r="Z40" s="69"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
+      <c r="Z42" s="69"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="69"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="69"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="69"/>
+      <c r="X45" s="69"/>
+      <c r="Y45" s="69"/>
+      <c r="Z45" s="69"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
+      <c r="Z46" s="69"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="69"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="69"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="69"/>
+      <c r="W49" s="69"/>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="69"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="69"/>
+      <c r="X50" s="69"/>
+      <c r="Y50" s="69"/>
+      <c r="Z50" s="69"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="71"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="71"/>
-      <c r="Y53" s="71"/>
-      <c r="Z53" s="71"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="69"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="71"/>
-      <c r="Y54" s="71"/>
-      <c r="Z54" s="71"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="69"/>
+      <c r="V54" s="69"/>
+      <c r="W54" s="69"/>
+      <c r="X54" s="69"/>
+      <c r="Y54" s="69"/>
+      <c r="Z54" s="69"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="71"/>
-      <c r="X55" s="71"/>
-      <c r="Y55" s="71"/>
-      <c r="Z55" s="71"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="69"/>
+      <c r="X55" s="69"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="69"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="69"/>
+      <c r="W56" s="69"/>
+      <c r="X56" s="69"/>
+      <c r="Y56" s="69"/>
+      <c r="Z56" s="69"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="69"/>
+      <c r="W58" s="69"/>
+      <c r="X58" s="69"/>
+      <c r="Y58" s="69"/>
+      <c r="Z58" s="69"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="69"/>
+      <c r="W59" s="69"/>
+      <c r="X59" s="69"/>
+      <c r="Y59" s="69"/>
+      <c r="Z59" s="69"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="69"/>
+      <c r="W60" s="69"/>
+      <c r="X60" s="69"/>
+      <c r="Y60" s="69"/>
+      <c r="Z60" s="69"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="69"/>
+      <c r="T61" s="69"/>
+      <c r="U61" s="69"/>
+      <c r="V61" s="69"/>
+      <c r="W61" s="69"/>
+      <c r="X61" s="69"/>
+      <c r="Y61" s="69"/>
+      <c r="Z61" s="69"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="69"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="69"/>
+      <c r="U62" s="69"/>
+      <c r="V62" s="69"/>
+      <c r="W62" s="69"/>
+      <c r="X62" s="69"/>
+      <c r="Y62" s="69"/>
+      <c r="Z62" s="69"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
+      <c r="S63" s="69"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="69"/>
+      <c r="V63" s="69"/>
+      <c r="W63" s="69"/>
+      <c r="X63" s="69"/>
+      <c r="Y63" s="69"/>
+      <c r="Z63" s="69"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="71"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="71"/>
-      <c r="T64" s="71"/>
-      <c r="U64" s="71"/>
-      <c r="V64" s="71"/>
-      <c r="W64" s="71"/>
-      <c r="X64" s="71"/>
-      <c r="Y64" s="71"/>
-      <c r="Z64" s="71"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="69"/>
+      <c r="P64" s="69"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="69"/>
+      <c r="S64" s="69"/>
+      <c r="T64" s="69"/>
+      <c r="U64" s="69"/>
+      <c r="V64" s="69"/>
+      <c r="W64" s="69"/>
+      <c r="X64" s="69"/>
+      <c r="Y64" s="69"/>
+      <c r="Z64" s="69"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="71"/>
-      <c r="Y65" s="71"/>
-      <c r="Z65" s="71"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="69"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="69"/>
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="69"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71"/>
-      <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
-      <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="71"/>
-      <c r="Y66" s="71"/>
-      <c r="Z66" s="71"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
+      <c r="P66" s="69"/>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69"/>
+      <c r="S66" s="69"/>
+      <c r="T66" s="69"/>
+      <c r="U66" s="69"/>
+      <c r="V66" s="69"/>
+      <c r="W66" s="69"/>
+      <c r="X66" s="69"/>
+      <c r="Y66" s="69"/>
+      <c r="Z66" s="69"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="71"/>
-      <c r="Y67" s="71"/>
-      <c r="Z67" s="71"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="69"/>
+      <c r="P67" s="69"/>
+      <c r="Q67" s="69"/>
+      <c r="R67" s="69"/>
+      <c r="S67" s="69"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="69"/>
+      <c r="V67" s="69"/>
+      <c r="W67" s="69"/>
+      <c r="X67" s="69"/>
+      <c r="Y67" s="69"/>
+      <c r="Z67" s="69"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="71"/>
-      <c r="V68" s="71"/>
-      <c r="W68" s="71"/>
-      <c r="X68" s="71"/>
-      <c r="Y68" s="71"/>
-      <c r="Z68" s="71"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="69"/>
+      <c r="P68" s="69"/>
+      <c r="Q68" s="69"/>
+      <c r="R68" s="69"/>
+      <c r="S68" s="69"/>
+      <c r="T68" s="69"/>
+      <c r="U68" s="69"/>
+      <c r="V68" s="69"/>
+      <c r="W68" s="69"/>
+      <c r="X68" s="69"/>
+      <c r="Y68" s="69"/>
+      <c r="Z68" s="69"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71"/>
-      <c r="O69" s="71"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="71"/>
-      <c r="U69" s="71"/>
-      <c r="V69" s="71"/>
-      <c r="W69" s="71"/>
-      <c r="X69" s="71"/>
-      <c r="Y69" s="71"/>
-      <c r="Z69" s="71"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69"/>
+      <c r="S69" s="69"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="69"/>
+      <c r="Y69" s="69"/>
+      <c r="Z69" s="69"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="71"/>
-      <c r="W70" s="71"/>
-      <c r="X70" s="71"/>
-      <c r="Y70" s="71"/>
-      <c r="Z70" s="71"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="69"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="69"/>
+      <c r="U70" s="69"/>
+      <c r="V70" s="69"/>
+      <c r="W70" s="69"/>
+      <c r="X70" s="69"/>
+      <c r="Y70" s="69"/>
+      <c r="Z70" s="69"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
-      <c r="W71" s="71"/>
-      <c r="X71" s="71"/>
-      <c r="Y71" s="71"/>
-      <c r="Z71" s="71"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="69"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="69"/>
+      <c r="V71" s="69"/>
+      <c r="W71" s="69"/>
+      <c r="X71" s="69"/>
+      <c r="Y71" s="69"/>
+      <c r="Z71" s="69"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="71"/>
-      <c r="V72" s="71"/>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="71"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="69"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="69"/>
+      <c r="U72" s="69"/>
+      <c r="V72" s="69"/>
+      <c r="W72" s="69"/>
+      <c r="X72" s="69"/>
+      <c r="Y72" s="69"/>
+      <c r="Z72" s="69"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="71"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="71"/>
-      <c r="X73" s="71"/>
-      <c r="Y73" s="71"/>
-      <c r="Z73" s="71"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="69"/>
+      <c r="Y73" s="69"/>
+      <c r="Z73" s="69"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="S74" s="69"/>
+      <c r="T74" s="69"/>
+      <c r="U74" s="69"/>
+      <c r="V74" s="69"/>
+      <c r="W74" s="69"/>
+      <c r="X74" s="69"/>
+      <c r="Y74" s="69"/>
+      <c r="Z74" s="69"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
-      <c r="V75" s="71"/>
-      <c r="W75" s="71"/>
-      <c r="X75" s="71"/>
-      <c r="Y75" s="71"/>
-      <c r="Z75" s="71"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="69"/>
+      <c r="R75" s="69"/>
+      <c r="S75" s="69"/>
+      <c r="T75" s="69"/>
+      <c r="U75" s="69"/>
+      <c r="V75" s="69"/>
+      <c r="W75" s="69"/>
+      <c r="X75" s="69"/>
+      <c r="Y75" s="69"/>
+      <c r="Z75" s="69"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="71"/>
-      <c r="W76" s="71"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="69"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
+      <c r="S76" s="69"/>
+      <c r="T76" s="69"/>
+      <c r="U76" s="69"/>
+      <c r="V76" s="69"/>
+      <c r="W76" s="69"/>
+      <c r="X76" s="69"/>
+      <c r="Y76" s="69"/>
+      <c r="Z76" s="69"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="71"/>
-      <c r="U77" s="71"/>
-      <c r="V77" s="71"/>
-      <c r="W77" s="71"/>
-      <c r="X77" s="71"/>
-      <c r="Y77" s="71"/>
-      <c r="Z77" s="71"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+      <c r="S77" s="69"/>
+      <c r="T77" s="69"/>
+      <c r="U77" s="69"/>
+      <c r="V77" s="69"/>
+      <c r="W77" s="69"/>
+      <c r="X77" s="69"/>
+      <c r="Y77" s="69"/>
+      <c r="Z77" s="69"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="71"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="71"/>
-      <c r="T78" s="71"/>
-      <c r="U78" s="71"/>
-      <c r="V78" s="71"/>
-      <c r="W78" s="71"/>
-      <c r="X78" s="71"/>
-      <c r="Y78" s="71"/>
-      <c r="Z78" s="71"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="69"/>
+      <c r="S78" s="69"/>
+      <c r="T78" s="69"/>
+      <c r="U78" s="69"/>
+      <c r="V78" s="69"/>
+      <c r="W78" s="69"/>
+      <c r="X78" s="69"/>
+      <c r="Y78" s="69"/>
+      <c r="Z78" s="69"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="71"/>
-      <c r="W79" s="71"/>
-      <c r="X79" s="71"/>
-      <c r="Y79" s="71"/>
-      <c r="Z79" s="71"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="69"/>
+      <c r="T79" s="69"/>
+      <c r="U79" s="69"/>
+      <c r="V79" s="69"/>
+      <c r="W79" s="69"/>
+      <c r="X79" s="69"/>
+      <c r="Y79" s="69"/>
+      <c r="Z79" s="69"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="71"/>
-      <c r="V80" s="71"/>
-      <c r="W80" s="71"/>
-      <c r="X80" s="71"/>
-      <c r="Y80" s="71"/>
-      <c r="Z80" s="71"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="69"/>
+      <c r="P80" s="69"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="69"/>
+      <c r="T80" s="69"/>
+      <c r="U80" s="69"/>
+      <c r="V80" s="69"/>
+      <c r="W80" s="69"/>
+      <c r="X80" s="69"/>
+      <c r="Y80" s="69"/>
+      <c r="Z80" s="69"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="71"/>
-      <c r="T81" s="71"/>
-      <c r="U81" s="71"/>
-      <c r="V81" s="71"/>
-      <c r="W81" s="71"/>
-      <c r="X81" s="71"/>
-      <c r="Y81" s="71"/>
-      <c r="Z81" s="71"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="69"/>
+      <c r="O81" s="69"/>
+      <c r="P81" s="69"/>
+      <c r="Q81" s="69"/>
+      <c r="R81" s="69"/>
+      <c r="S81" s="69"/>
+      <c r="T81" s="69"/>
+      <c r="U81" s="69"/>
+      <c r="V81" s="69"/>
+      <c r="W81" s="69"/>
+      <c r="X81" s="69"/>
+      <c r="Y81" s="69"/>
+      <c r="Z81" s="69"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="71"/>
-      <c r="T82" s="71"/>
-      <c r="U82" s="71"/>
-      <c r="V82" s="71"/>
-      <c r="W82" s="71"/>
-      <c r="X82" s="71"/>
-      <c r="Y82" s="71"/>
-      <c r="Z82" s="71"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="69"/>
+      <c r="R82" s="69"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="69"/>
+      <c r="U82" s="69"/>
+      <c r="V82" s="69"/>
+      <c r="W82" s="69"/>
+      <c r="X82" s="69"/>
+      <c r="Y82" s="69"/>
+      <c r="Z82" s="69"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="71"/>
-      <c r="T83" s="71"/>
-      <c r="U83" s="71"/>
-      <c r="V83" s="71"/>
-      <c r="W83" s="71"/>
-      <c r="X83" s="71"/>
-      <c r="Y83" s="71"/>
-      <c r="Z83" s="71"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="69"/>
+      <c r="R83" s="69"/>
+      <c r="S83" s="69"/>
+      <c r="T83" s="69"/>
+      <c r="U83" s="69"/>
+      <c r="V83" s="69"/>
+      <c r="W83" s="69"/>
+      <c r="X83" s="69"/>
+      <c r="Y83" s="69"/>
+      <c r="Z83" s="69"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="71"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="71"/>
-      <c r="W84" s="71"/>
-      <c r="X84" s="71"/>
-      <c r="Y84" s="71"/>
-      <c r="Z84" s="71"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
+      <c r="P84" s="69"/>
+      <c r="Q84" s="69"/>
+      <c r="R84" s="69"/>
+      <c r="S84" s="69"/>
+      <c r="T84" s="69"/>
+      <c r="U84" s="69"/>
+      <c r="V84" s="69"/>
+      <c r="W84" s="69"/>
+      <c r="X84" s="69"/>
+      <c r="Y84" s="69"/>
+      <c r="Z84" s="69"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="71"/>
-      <c r="U85" s="71"/>
-      <c r="V85" s="71"/>
-      <c r="W85" s="71"/>
-      <c r="X85" s="71"/>
-      <c r="Y85" s="71"/>
-      <c r="Z85" s="71"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
+      <c r="O85" s="69"/>
+      <c r="P85" s="69"/>
+      <c r="Q85" s="69"/>
+      <c r="R85" s="69"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="69"/>
+      <c r="U85" s="69"/>
+      <c r="V85" s="69"/>
+      <c r="W85" s="69"/>
+      <c r="X85" s="69"/>
+      <c r="Y85" s="69"/>
+      <c r="Z85" s="69"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="71"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="71"/>
-      <c r="T86" s="71"/>
-      <c r="U86" s="71"/>
-      <c r="V86" s="71"/>
-      <c r="W86" s="71"/>
-      <c r="X86" s="71"/>
-      <c r="Y86" s="71"/>
-      <c r="Z86" s="71"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="69"/>
+      <c r="R86" s="69"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="69"/>
+      <c r="U86" s="69"/>
+      <c r="V86" s="69"/>
+      <c r="W86" s="69"/>
+      <c r="X86" s="69"/>
+      <c r="Y86" s="69"/>
+      <c r="Z86" s="69"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="71"/>
-      <c r="V87" s="71"/>
-      <c r="W87" s="71"/>
-      <c r="X87" s="71"/>
-      <c r="Y87" s="71"/>
-      <c r="Z87" s="71"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="69"/>
+      <c r="Q87" s="69"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="69"/>
+      <c r="T87" s="69"/>
+      <c r="U87" s="69"/>
+      <c r="V87" s="69"/>
+      <c r="W87" s="69"/>
+      <c r="X87" s="69"/>
+      <c r="Y87" s="69"/>
+      <c r="Z87" s="69"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="71"/>
-      <c r="W88" s="71"/>
-      <c r="X88" s="71"/>
-      <c r="Y88" s="71"/>
-      <c r="Z88" s="71"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+      <c r="Q88" s="69"/>
+      <c r="R88" s="69"/>
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
+      <c r="V88" s="69"/>
+      <c r="W88" s="69"/>
+      <c r="X88" s="69"/>
+      <c r="Y88" s="69"/>
+      <c r="Z88" s="69"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="71"/>
-      <c r="T89" s="71"/>
-      <c r="U89" s="71"/>
-      <c r="V89" s="71"/>
-      <c r="W89" s="71"/>
-      <c r="X89" s="71"/>
-      <c r="Y89" s="71"/>
-      <c r="Z89" s="71"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="69"/>
+      <c r="P89" s="69"/>
+      <c r="Q89" s="69"/>
+      <c r="R89" s="69"/>
+      <c r="S89" s="69"/>
+      <c r="T89" s="69"/>
+      <c r="U89" s="69"/>
+      <c r="V89" s="69"/>
+      <c r="W89" s="69"/>
+      <c r="X89" s="69"/>
+      <c r="Y89" s="69"/>
+      <c r="Z89" s="69"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
-      <c r="U90" s="71"/>
-      <c r="V90" s="71"/>
-      <c r="W90" s="71"/>
-      <c r="X90" s="71"/>
-      <c r="Y90" s="71"/>
-      <c r="Z90" s="71"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="69"/>
+      <c r="P90" s="69"/>
+      <c r="Q90" s="69"/>
+      <c r="R90" s="69"/>
+      <c r="S90" s="69"/>
+      <c r="T90" s="69"/>
+      <c r="U90" s="69"/>
+      <c r="V90" s="69"/>
+      <c r="W90" s="69"/>
+      <c r="X90" s="69"/>
+      <c r="Y90" s="69"/>
+      <c r="Z90" s="69"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
-      <c r="U91" s="71"/>
-      <c r="V91" s="71"/>
-      <c r="W91" s="71"/>
-      <c r="X91" s="71"/>
-      <c r="Y91" s="71"/>
-      <c r="Z91" s="71"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="69"/>
+      <c r="O91" s="69"/>
+      <c r="P91" s="69"/>
+      <c r="Q91" s="69"/>
+      <c r="R91" s="69"/>
+      <c r="S91" s="69"/>
+      <c r="T91" s="69"/>
+      <c r="U91" s="69"/>
+      <c r="V91" s="69"/>
+      <c r="W91" s="69"/>
+      <c r="X91" s="69"/>
+      <c r="Y91" s="69"/>
+      <c r="Z91" s="69"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="71"/>
-      <c r="N92" s="71"/>
-      <c r="O92" s="71"/>
-      <c r="P92" s="71"/>
-      <c r="Q92" s="71"/>
-      <c r="R92" s="71"/>
-      <c r="S92" s="71"/>
-      <c r="T92" s="71"/>
-      <c r="U92" s="71"/>
-      <c r="V92" s="71"/>
-      <c r="W92" s="71"/>
-      <c r="X92" s="71"/>
-      <c r="Y92" s="71"/>
-      <c r="Z92" s="71"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="69"/>
+      <c r="O92" s="69"/>
+      <c r="P92" s="69"/>
+      <c r="Q92" s="69"/>
+      <c r="R92" s="69"/>
+      <c r="S92" s="69"/>
+      <c r="T92" s="69"/>
+      <c r="U92" s="69"/>
+      <c r="V92" s="69"/>
+      <c r="W92" s="69"/>
+      <c r="X92" s="69"/>
+      <c r="Y92" s="69"/>
+      <c r="Z92" s="69"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
-      <c r="P93" s="71"/>
-      <c r="Q93" s="71"/>
-      <c r="R93" s="71"/>
-      <c r="S93" s="71"/>
-      <c r="T93" s="71"/>
-      <c r="U93" s="71"/>
-      <c r="V93" s="71"/>
-      <c r="W93" s="71"/>
-      <c r="X93" s="71"/>
-      <c r="Y93" s="71"/>
-      <c r="Z93" s="71"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="69"/>
+      <c r="O93" s="69"/>
+      <c r="P93" s="69"/>
+      <c r="Q93" s="69"/>
+      <c r="R93" s="69"/>
+      <c r="S93" s="69"/>
+      <c r="T93" s="69"/>
+      <c r="U93" s="69"/>
+      <c r="V93" s="69"/>
+      <c r="W93" s="69"/>
+      <c r="X93" s="69"/>
+      <c r="Y93" s="69"/>
+      <c r="Z93" s="69"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
-      <c r="Q94" s="71"/>
-      <c r="R94" s="71"/>
-      <c r="S94" s="71"/>
-      <c r="T94" s="71"/>
-      <c r="U94" s="71"/>
-      <c r="V94" s="71"/>
-      <c r="W94" s="71"/>
-      <c r="X94" s="71"/>
-      <c r="Y94" s="71"/>
-      <c r="Z94" s="71"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="69"/>
+      <c r="O94" s="69"/>
+      <c r="P94" s="69"/>
+      <c r="Q94" s="69"/>
+      <c r="R94" s="69"/>
+      <c r="S94" s="69"/>
+      <c r="T94" s="69"/>
+      <c r="U94" s="69"/>
+      <c r="V94" s="69"/>
+      <c r="W94" s="69"/>
+      <c r="X94" s="69"/>
+      <c r="Y94" s="69"/>
+      <c r="Z94" s="69"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71"/>
-      <c r="O95" s="71"/>
-      <c r="P95" s="71"/>
-      <c r="Q95" s="71"/>
-      <c r="R95" s="71"/>
-      <c r="S95" s="71"/>
-      <c r="T95" s="71"/>
-      <c r="U95" s="71"/>
-      <c r="V95" s="71"/>
-      <c r="W95" s="71"/>
-      <c r="X95" s="71"/>
-      <c r="Y95" s="71"/>
-      <c r="Z95" s="71"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="69"/>
+      <c r="P95" s="69"/>
+      <c r="Q95" s="69"/>
+      <c r="R95" s="69"/>
+      <c r="S95" s="69"/>
+      <c r="T95" s="69"/>
+      <c r="U95" s="69"/>
+      <c r="V95" s="69"/>
+      <c r="W95" s="69"/>
+      <c r="X95" s="69"/>
+      <c r="Y95" s="69"/>
+      <c r="Z95" s="69"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="71"/>
-      <c r="O96" s="71"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="71"/>
-      <c r="R96" s="71"/>
-      <c r="S96" s="71"/>
-      <c r="T96" s="71"/>
-      <c r="U96" s="71"/>
-      <c r="V96" s="71"/>
-      <c r="W96" s="71"/>
-      <c r="X96" s="71"/>
-      <c r="Y96" s="71"/>
-      <c r="Z96" s="71"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+      <c r="O96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="69"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="69"/>
+      <c r="U96" s="69"/>
+      <c r="V96" s="69"/>
+      <c r="W96" s="69"/>
+      <c r="X96" s="69"/>
+      <c r="Y96" s="69"/>
+      <c r="Z96" s="69"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="71"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="71"/>
-      <c r="O97" s="71"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="71"/>
-      <c r="R97" s="71"/>
-      <c r="S97" s="71"/>
-      <c r="T97" s="71"/>
-      <c r="U97" s="71"/>
-      <c r="V97" s="71"/>
-      <c r="W97" s="71"/>
-      <c r="X97" s="71"/>
-      <c r="Y97" s="71"/>
-      <c r="Z97" s="71"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="69"/>
+      <c r="K97" s="69"/>
+      <c r="L97" s="69"/>
+      <c r="M97" s="69"/>
+      <c r="N97" s="69"/>
+      <c r="O97" s="69"/>
+      <c r="P97" s="69"/>
+      <c r="Q97" s="69"/>
+      <c r="R97" s="69"/>
+      <c r="S97" s="69"/>
+      <c r="T97" s="69"/>
+      <c r="U97" s="69"/>
+      <c r="V97" s="69"/>
+      <c r="W97" s="69"/>
+      <c r="X97" s="69"/>
+      <c r="Y97" s="69"/>
+      <c r="Z97" s="69"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="71"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="71"/>
-      <c r="O98" s="71"/>
-      <c r="P98" s="71"/>
-      <c r="Q98" s="71"/>
-      <c r="R98" s="71"/>
-      <c r="S98" s="71"/>
-      <c r="T98" s="71"/>
-      <c r="U98" s="71"/>
-      <c r="V98" s="71"/>
-      <c r="W98" s="71"/>
-      <c r="X98" s="71"/>
-      <c r="Y98" s="71"/>
-      <c r="Z98" s="71"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="69"/>
+      <c r="R98" s="69"/>
+      <c r="S98" s="69"/>
+      <c r="T98" s="69"/>
+      <c r="U98" s="69"/>
+      <c r="V98" s="69"/>
+      <c r="W98" s="69"/>
+      <c r="X98" s="69"/>
+      <c r="Y98" s="69"/>
+      <c r="Z98" s="69"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
-      <c r="O99" s="71"/>
-      <c r="P99" s="71"/>
-      <c r="Q99" s="71"/>
-      <c r="R99" s="71"/>
-      <c r="S99" s="71"/>
-      <c r="T99" s="71"/>
-      <c r="U99" s="71"/>
-      <c r="V99" s="71"/>
-      <c r="W99" s="71"/>
-      <c r="X99" s="71"/>
-      <c r="Y99" s="71"/>
-      <c r="Z99" s="71"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="69"/>
+      <c r="U99" s="69"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6900,18 +6891,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
-      <c r="B5" s="88" t="str">
+      <c r="B5" s="86" t="str">
         <f>"Veda Fill table"</f>
         <v>Veda Fill table</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="87"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="89"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
@@ -9826,7 +9817,7 @@
       <c r="C42" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="69" t="str">
+      <c r="D42" s="67" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H42,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
         <v>*2.74705437385472</v>
       </c>
@@ -9839,7 +9830,7 @@
         <f>Legend!B39</f>
         <v>ELC</v>
       </c>
-      <c r="H42" s="68" t="str">
+      <c r="H42" s="66" t="str">
         <f>"S-SH-"&amp;F10&amp;"_"&amp;G10&amp;"-HP*"</f>
         <v>S-SH-PU_ELC-HP*</v>
       </c>
@@ -10029,7 +10020,7 @@
       <c r="C49" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="69" t="str">
+      <c r="D49" s="67" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H49,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
         <v>*2.74705437385472</v>
       </c>
@@ -10041,7 +10032,7 @@
         <f t="shared" si="12"/>
         <v>ELC</v>
       </c>
-      <c r="H49" s="68" t="str">
+      <c r="H49" s="66" t="str">
         <f>"S-SH-"&amp;F10&amp;"_"&amp;G10&amp;"-HP*"</f>
         <v>S-SH-PU_ELC-HP*</v>
       </c>
@@ -10347,10 +10338,10 @@
         <f t="shared" si="16"/>
         <v>S-LIG-PU*</v>
       </c>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="65" t="s">
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="63" t="s">
         <v>257</v>
       </c>
     </row>
@@ -10380,19 +10371,19 @@
         <f t="shared" si="16"/>
         <v>S-LIG-CS*</v>
       </c>
-      <c r="J63" s="66" t="str">
+      <c r="J63" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K63" s="66" t="str">
+      <c r="K63" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L63" s="66" t="str">
+      <c r="L63" s="64" t="str">
         <f>"S-"&amp;K63&amp;"-"&amp;J63&amp;"*X1"</f>
         <v>S-PLIG-PU*X1</v>
       </c>
-      <c r="M63" s="67">
+      <c r="M63" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L63,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L63,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>9.366584709050458E-3</v>
       </c>
@@ -10423,19 +10414,19 @@
         <f>"S-"&amp;G64&amp;"-"&amp;F64&amp;"*"</f>
         <v>S-PLIG-PU*</v>
       </c>
-      <c r="J64" s="66" t="str">
+      <c r="J64" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K64" s="66" t="str">
+      <c r="K64" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L64" s="66" t="str">
+      <c r="L64" s="64" t="str">
         <f>"S-"&amp;K64&amp;"-"&amp;J64&amp;"*X2"</f>
         <v>S-PLIG-PU*X2</v>
       </c>
-      <c r="M64" s="67">
+      <c r="M64" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L64,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L64,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>2.6860059092129972E-2</v>
       </c>
@@ -10466,19 +10457,19 @@
         <f>"S-"&amp;G65&amp;"-"&amp;F65&amp;"*X4"</f>
         <v>S-PLIG-PU*X4</v>
       </c>
-      <c r="J65" s="66" t="str">
+      <c r="J65" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K65" s="66" t="str">
+      <c r="K65" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L65" s="66" t="str">
+      <c r="L65" s="64" t="str">
         <f>"S-"&amp;K65&amp;"-"&amp;J65&amp;"*X3"</f>
         <v>S-PLIG-PU*X3</v>
       </c>
-      <c r="M65" s="67">
+      <c r="M65" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L65,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L65,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>0.12176560121765607</v>
       </c>
@@ -10490,19 +10481,19 @@
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="J66" s="66" t="str">
+      <c r="J66" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K66" s="66" t="str">
+      <c r="K66" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L66" s="66" t="str">
+      <c r="L66" s="64" t="str">
         <f>"S-"&amp;K66&amp;"-"&amp;J66&amp;"*X4"</f>
         <v>S-PLIG-PU*X4</v>
       </c>
-      <c r="M66" s="67">
+      <c r="M66" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L66,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L66,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>6.0882800608827838E-3</v>
       </c>
@@ -11667,10 +11658,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB4249C-0490-477F-A930-E3E0809B104E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B3:AH7"/>
+  <dimension ref="B3:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11710,11 +11701,11 @@
     <col min="38" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
@@ -11734,110 +11725,54 @@
       <c r="Z3" s="50"/>
       <c r="AA3" s="50"/>
     </row>
-    <row r="4" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="H4" s="61" t="str">
+      <c r="H4" s="60" t="str">
         <f>[1]Regions!C3</f>
         <v>IE</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="M4" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="P4" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="S4" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="T4" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="U4" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="V4" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="W4" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="X4" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y4" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z4" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB4" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC4" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD4" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE4" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF4" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG4" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH4" s="62" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
+      <c r="I4" s="60" t="str">
+        <f>[1]Regions!D3</f>
+        <v>National</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="61" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="50">
@@ -11849,83 +11784,27 @@
       <c r="I5" s="50">
         <v>1</v>
       </c>
-      <c r="J5" s="50">
-        <v>1</v>
-      </c>
-      <c r="K5" s="50">
-        <v>1</v>
-      </c>
-      <c r="L5" s="50">
-        <v>1</v>
-      </c>
-      <c r="M5" s="50">
-        <v>1</v>
-      </c>
-      <c r="N5" s="50">
-        <v>1</v>
-      </c>
-      <c r="O5" s="50">
-        <v>1</v>
-      </c>
-      <c r="P5" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="50">
-        <v>1</v>
-      </c>
-      <c r="R5" s="50">
-        <v>1</v>
-      </c>
-      <c r="S5" s="50">
-        <v>1</v>
-      </c>
-      <c r="T5" s="50">
-        <v>1</v>
-      </c>
-      <c r="U5" s="50">
-        <v>1</v>
-      </c>
-      <c r="V5" s="50">
-        <v>1</v>
-      </c>
-      <c r="W5" s="50">
-        <v>1</v>
-      </c>
-      <c r="X5" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -11945,7 +11824,7 @@
       <c r="Z6" s="50"/>
       <c r="AA6" s="50"/>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D40C4-D1C0-465B-8049-5042CEFAD81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6F6F9-002C-447A-9536-213E7AD0E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25260" yWindow="2772" windowWidth="14400" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C3A4C4-5EB5-4E0C-88FC-C9BAA49A9B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D98373-76A0-45BD-ABE3-CE33C36FDF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-750" yWindow="-16170" windowWidth="16200" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="BY_S-SC" sheetId="11" r:id="rId10"/>
     <sheet name="BY_S-EAP" sheetId="18" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="6" hidden="1">#REF!</definedName>
@@ -1571,18 +1574,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1887,7 +1884,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1901,7 +1898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,16 +1913,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1940,10 +1937,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1955,7 +1952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1965,7 +1962,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1974,21 +1971,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1997,7 +1994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2009,7 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2027,16 +2024,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2044,25 +2041,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,58 +2062,58 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2177,7 +2168,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF08F70-6061-4334-B6F9-12A767772C59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2212,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CE3B6C-F45A-4A9A-83A7-260FE2022E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2261,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6629FB-C09F-4200-B78E-4FD5614996BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2311,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA8B95B-A935-4706-BBFB-6D5C157F61C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2361,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DB6255-16F1-4131-B80B-898A983DA66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2410,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C8A817-8A7F-451D-A8EF-15CA92E73ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -2481,7 +2472,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1104FA2-617F-40B5-9110-C12C45401468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2527,7 @@
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,6 +2633,32 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Regions"/>
+      <sheetName val="TechSelection"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>IE</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>National</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2968,7 +2985,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2987,2810 +3004,2810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="79">
         <v>1</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="69"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="69"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="69"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="69"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="69"/>
+      <c r="Z40" s="69"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
+      <c r="Z42" s="69"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="69"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="69"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="69"/>
+      <c r="X45" s="69"/>
+      <c r="Y45" s="69"/>
+      <c r="Z45" s="69"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
+      <c r="Z46" s="69"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="69"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="69"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="69"/>
+      <c r="W49" s="69"/>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="69"/>
+      <c r="Z49" s="69"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="69"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="69"/>
+      <c r="X50" s="69"/>
+      <c r="Y50" s="69"/>
+      <c r="Z50" s="69"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
+      <c r="Z51" s="69"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="71"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="71"/>
-      <c r="Y53" s="71"/>
-      <c r="Z53" s="71"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+      <c r="S53" s="69"/>
+      <c r="T53" s="69"/>
+      <c r="U53" s="69"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="69"/>
+      <c r="X53" s="69"/>
+      <c r="Y53" s="69"/>
+      <c r="Z53" s="69"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="71"/>
-      <c r="R54" s="71"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="71"/>
-      <c r="Y54" s="71"/>
-      <c r="Z54" s="71"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+      <c r="S54" s="69"/>
+      <c r="T54" s="69"/>
+      <c r="U54" s="69"/>
+      <c r="V54" s="69"/>
+      <c r="W54" s="69"/>
+      <c r="X54" s="69"/>
+      <c r="Y54" s="69"/>
+      <c r="Z54" s="69"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="71"/>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="71"/>
-      <c r="X55" s="71"/>
-      <c r="Y55" s="71"/>
-      <c r="Z55" s="71"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="69"/>
+      <c r="U55" s="69"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="69"/>
+      <c r="X55" s="69"/>
+      <c r="Y55" s="69"/>
+      <c r="Z55" s="69"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="71"/>
-      <c r="Z56" s="71"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="69"/>
+      <c r="V56" s="69"/>
+      <c r="W56" s="69"/>
+      <c r="X56" s="69"/>
+      <c r="Y56" s="69"/>
+      <c r="Z56" s="69"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="71"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="71"/>
-      <c r="V57" s="71"/>
-      <c r="W57" s="71"/>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="69"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="69"/>
+      <c r="X57" s="69"/>
+      <c r="Y57" s="69"/>
+      <c r="Z57" s="69"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
-      <c r="Q58" s="71"/>
-      <c r="R58" s="71"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="69"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="69"/>
+      <c r="V58" s="69"/>
+      <c r="W58" s="69"/>
+      <c r="X58" s="69"/>
+      <c r="Y58" s="69"/>
+      <c r="Z58" s="69"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
-      <c r="Z59" s="71"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="69"/>
+      <c r="W59" s="69"/>
+      <c r="X59" s="69"/>
+      <c r="Y59" s="69"/>
+      <c r="Z59" s="69"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="71"/>
-      <c r="Z60" s="71"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="69"/>
+      <c r="W60" s="69"/>
+      <c r="X60" s="69"/>
+      <c r="Y60" s="69"/>
+      <c r="Z60" s="69"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="69"/>
+      <c r="T61" s="69"/>
+      <c r="U61" s="69"/>
+      <c r="V61" s="69"/>
+      <c r="W61" s="69"/>
+      <c r="X61" s="69"/>
+      <c r="Y61" s="69"/>
+      <c r="Z61" s="69"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="71"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="69"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="69"/>
+      <c r="U62" s="69"/>
+      <c r="V62" s="69"/>
+      <c r="W62" s="69"/>
+      <c r="X62" s="69"/>
+      <c r="Y62" s="69"/>
+      <c r="Z62" s="69"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="71"/>
-      <c r="R63" s="71"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
-      <c r="U63" s="71"/>
-      <c r="V63" s="71"/>
-      <c r="W63" s="71"/>
-      <c r="X63" s="71"/>
-      <c r="Y63" s="71"/>
-      <c r="Z63" s="71"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
+      <c r="S63" s="69"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="69"/>
+      <c r="V63" s="69"/>
+      <c r="W63" s="69"/>
+      <c r="X63" s="69"/>
+      <c r="Y63" s="69"/>
+      <c r="Z63" s="69"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
-      <c r="O64" s="71"/>
-      <c r="P64" s="71"/>
-      <c r="Q64" s="71"/>
-      <c r="R64" s="71"/>
-      <c r="S64" s="71"/>
-      <c r="T64" s="71"/>
-      <c r="U64" s="71"/>
-      <c r="V64" s="71"/>
-      <c r="W64" s="71"/>
-      <c r="X64" s="71"/>
-      <c r="Y64" s="71"/>
-      <c r="Z64" s="71"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
+      <c r="M64" s="69"/>
+      <c r="N64" s="69"/>
+      <c r="O64" s="69"/>
+      <c r="P64" s="69"/>
+      <c r="Q64" s="69"/>
+      <c r="R64" s="69"/>
+      <c r="S64" s="69"/>
+      <c r="T64" s="69"/>
+      <c r="U64" s="69"/>
+      <c r="V64" s="69"/>
+      <c r="W64" s="69"/>
+      <c r="X64" s="69"/>
+      <c r="Y64" s="69"/>
+      <c r="Z64" s="69"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="71"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="71"/>
-      <c r="W65" s="71"/>
-      <c r="X65" s="71"/>
-      <c r="Y65" s="71"/>
-      <c r="Z65" s="71"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="69"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="69"/>
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="69"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="71"/>
-      <c r="R66" s="71"/>
-      <c r="S66" s="71"/>
-      <c r="T66" s="71"/>
-      <c r="U66" s="71"/>
-      <c r="V66" s="71"/>
-      <c r="W66" s="71"/>
-      <c r="X66" s="71"/>
-      <c r="Y66" s="71"/>
-      <c r="Z66" s="71"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="69"/>
+      <c r="P66" s="69"/>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="69"/>
+      <c r="S66" s="69"/>
+      <c r="T66" s="69"/>
+      <c r="U66" s="69"/>
+      <c r="V66" s="69"/>
+      <c r="W66" s="69"/>
+      <c r="X66" s="69"/>
+      <c r="Y66" s="69"/>
+      <c r="Z66" s="69"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="71"/>
-      <c r="Y67" s="71"/>
-      <c r="Z67" s="71"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="69"/>
+      <c r="P67" s="69"/>
+      <c r="Q67" s="69"/>
+      <c r="R67" s="69"/>
+      <c r="S67" s="69"/>
+      <c r="T67" s="69"/>
+      <c r="U67" s="69"/>
+      <c r="V67" s="69"/>
+      <c r="W67" s="69"/>
+      <c r="X67" s="69"/>
+      <c r="Y67" s="69"/>
+      <c r="Z67" s="69"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="71"/>
-      <c r="R68" s="71"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
-      <c r="U68" s="71"/>
-      <c r="V68" s="71"/>
-      <c r="W68" s="71"/>
-      <c r="X68" s="71"/>
-      <c r="Y68" s="71"/>
-      <c r="Z68" s="71"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="69"/>
+      <c r="P68" s="69"/>
+      <c r="Q68" s="69"/>
+      <c r="R68" s="69"/>
+      <c r="S68" s="69"/>
+      <c r="T68" s="69"/>
+      <c r="U68" s="69"/>
+      <c r="V68" s="69"/>
+      <c r="W68" s="69"/>
+      <c r="X68" s="69"/>
+      <c r="Y68" s="69"/>
+      <c r="Z68" s="69"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71"/>
-      <c r="O69" s="71"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="71"/>
-      <c r="R69" s="71"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="71"/>
-      <c r="U69" s="71"/>
-      <c r="V69" s="71"/>
-      <c r="W69" s="71"/>
-      <c r="X69" s="71"/>
-      <c r="Y69" s="71"/>
-      <c r="Z69" s="71"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69"/>
+      <c r="S69" s="69"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="69"/>
+      <c r="Y69" s="69"/>
+      <c r="Z69" s="69"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="71"/>
-      <c r="S70" s="71"/>
-      <c r="T70" s="71"/>
-      <c r="U70" s="71"/>
-      <c r="V70" s="71"/>
-      <c r="W70" s="71"/>
-      <c r="X70" s="71"/>
-      <c r="Y70" s="71"/>
-      <c r="Z70" s="71"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="69"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="69"/>
+      <c r="U70" s="69"/>
+      <c r="V70" s="69"/>
+      <c r="W70" s="69"/>
+      <c r="X70" s="69"/>
+      <c r="Y70" s="69"/>
+      <c r="Z70" s="69"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
-      <c r="W71" s="71"/>
-      <c r="X71" s="71"/>
-      <c r="Y71" s="71"/>
-      <c r="Z71" s="71"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="69"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="69"/>
+      <c r="V71" s="69"/>
+      <c r="W71" s="69"/>
+      <c r="X71" s="69"/>
+      <c r="Y71" s="69"/>
+      <c r="Z71" s="69"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="71"/>
-      <c r="V72" s="71"/>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="71"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="69"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="69"/>
+      <c r="U72" s="69"/>
+      <c r="V72" s="69"/>
+      <c r="W72" s="69"/>
+      <c r="X72" s="69"/>
+      <c r="Y72" s="69"/>
+      <c r="Z72" s="69"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="71"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="71"/>
-      <c r="X73" s="71"/>
-      <c r="Y73" s="71"/>
-      <c r="Z73" s="71"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="69"/>
+      <c r="Y73" s="69"/>
+      <c r="Z73" s="69"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="S74" s="69"/>
+      <c r="T74" s="69"/>
+      <c r="U74" s="69"/>
+      <c r="V74" s="69"/>
+      <c r="W74" s="69"/>
+      <c r="X74" s="69"/>
+      <c r="Y74" s="69"/>
+      <c r="Z74" s="69"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
-      <c r="V75" s="71"/>
-      <c r="W75" s="71"/>
-      <c r="X75" s="71"/>
-      <c r="Y75" s="71"/>
-      <c r="Z75" s="71"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="69"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="69"/>
+      <c r="R75" s="69"/>
+      <c r="S75" s="69"/>
+      <c r="T75" s="69"/>
+      <c r="U75" s="69"/>
+      <c r="V75" s="69"/>
+      <c r="W75" s="69"/>
+      <c r="X75" s="69"/>
+      <c r="Y75" s="69"/>
+      <c r="Z75" s="69"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="71"/>
-      <c r="W76" s="71"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="69"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
+      <c r="S76" s="69"/>
+      <c r="T76" s="69"/>
+      <c r="U76" s="69"/>
+      <c r="V76" s="69"/>
+      <c r="W76" s="69"/>
+      <c r="X76" s="69"/>
+      <c r="Y76" s="69"/>
+      <c r="Z76" s="69"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="71"/>
-      <c r="R77" s="71"/>
-      <c r="S77" s="71"/>
-      <c r="T77" s="71"/>
-      <c r="U77" s="71"/>
-      <c r="V77" s="71"/>
-      <c r="W77" s="71"/>
-      <c r="X77" s="71"/>
-      <c r="Y77" s="71"/>
-      <c r="Z77" s="71"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+      <c r="S77" s="69"/>
+      <c r="T77" s="69"/>
+      <c r="U77" s="69"/>
+      <c r="V77" s="69"/>
+      <c r="W77" s="69"/>
+      <c r="X77" s="69"/>
+      <c r="Y77" s="69"/>
+      <c r="Z77" s="69"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
-      <c r="O78" s="71"/>
-      <c r="P78" s="71"/>
-      <c r="Q78" s="71"/>
-      <c r="R78" s="71"/>
-      <c r="S78" s="71"/>
-      <c r="T78" s="71"/>
-      <c r="U78" s="71"/>
-      <c r="V78" s="71"/>
-      <c r="W78" s="71"/>
-      <c r="X78" s="71"/>
-      <c r="Y78" s="71"/>
-      <c r="Z78" s="71"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="69"/>
+      <c r="S78" s="69"/>
+      <c r="T78" s="69"/>
+      <c r="U78" s="69"/>
+      <c r="V78" s="69"/>
+      <c r="W78" s="69"/>
+      <c r="X78" s="69"/>
+      <c r="Y78" s="69"/>
+      <c r="Z78" s="69"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="71"/>
-      <c r="W79" s="71"/>
-      <c r="X79" s="71"/>
-      <c r="Y79" s="71"/>
-      <c r="Z79" s="71"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="69"/>
+      <c r="T79" s="69"/>
+      <c r="U79" s="69"/>
+      <c r="V79" s="69"/>
+      <c r="W79" s="69"/>
+      <c r="X79" s="69"/>
+      <c r="Y79" s="69"/>
+      <c r="Z79" s="69"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="71"/>
-      <c r="V80" s="71"/>
-      <c r="W80" s="71"/>
-      <c r="X80" s="71"/>
-      <c r="Y80" s="71"/>
-      <c r="Z80" s="71"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="69"/>
+      <c r="P80" s="69"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="69"/>
+      <c r="T80" s="69"/>
+      <c r="U80" s="69"/>
+      <c r="V80" s="69"/>
+      <c r="W80" s="69"/>
+      <c r="X80" s="69"/>
+      <c r="Y80" s="69"/>
+      <c r="Z80" s="69"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="71"/>
-      <c r="R81" s="71"/>
-      <c r="S81" s="71"/>
-      <c r="T81" s="71"/>
-      <c r="U81" s="71"/>
-      <c r="V81" s="71"/>
-      <c r="W81" s="71"/>
-      <c r="X81" s="71"/>
-      <c r="Y81" s="71"/>
-      <c r="Z81" s="71"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="69"/>
+      <c r="O81" s="69"/>
+      <c r="P81" s="69"/>
+      <c r="Q81" s="69"/>
+      <c r="R81" s="69"/>
+      <c r="S81" s="69"/>
+      <c r="T81" s="69"/>
+      <c r="U81" s="69"/>
+      <c r="V81" s="69"/>
+      <c r="W81" s="69"/>
+      <c r="X81" s="69"/>
+      <c r="Y81" s="69"/>
+      <c r="Z81" s="69"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="71"/>
-      <c r="R82" s="71"/>
-      <c r="S82" s="71"/>
-      <c r="T82" s="71"/>
-      <c r="U82" s="71"/>
-      <c r="V82" s="71"/>
-      <c r="W82" s="71"/>
-      <c r="X82" s="71"/>
-      <c r="Y82" s="71"/>
-      <c r="Z82" s="71"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="69"/>
+      <c r="R82" s="69"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="69"/>
+      <c r="U82" s="69"/>
+      <c r="V82" s="69"/>
+      <c r="W82" s="69"/>
+      <c r="X82" s="69"/>
+      <c r="Y82" s="69"/>
+      <c r="Z82" s="69"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="71"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
-      <c r="O83" s="71"/>
-      <c r="P83" s="71"/>
-      <c r="Q83" s="71"/>
-      <c r="R83" s="71"/>
-      <c r="S83" s="71"/>
-      <c r="T83" s="71"/>
-      <c r="U83" s="71"/>
-      <c r="V83" s="71"/>
-      <c r="W83" s="71"/>
-      <c r="X83" s="71"/>
-      <c r="Y83" s="71"/>
-      <c r="Z83" s="71"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="69"/>
+      <c r="N83" s="69"/>
+      <c r="O83" s="69"/>
+      <c r="P83" s="69"/>
+      <c r="Q83" s="69"/>
+      <c r="R83" s="69"/>
+      <c r="S83" s="69"/>
+      <c r="T83" s="69"/>
+      <c r="U83" s="69"/>
+      <c r="V83" s="69"/>
+      <c r="W83" s="69"/>
+      <c r="X83" s="69"/>
+      <c r="Y83" s="69"/>
+      <c r="Z83" s="69"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="71"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="71"/>
-      <c r="W84" s="71"/>
-      <c r="X84" s="71"/>
-      <c r="Y84" s="71"/>
-      <c r="Z84" s="71"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
+      <c r="P84" s="69"/>
+      <c r="Q84" s="69"/>
+      <c r="R84" s="69"/>
+      <c r="S84" s="69"/>
+      <c r="T84" s="69"/>
+      <c r="U84" s="69"/>
+      <c r="V84" s="69"/>
+      <c r="W84" s="69"/>
+      <c r="X84" s="69"/>
+      <c r="Y84" s="69"/>
+      <c r="Z84" s="69"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="71"/>
-      <c r="U85" s="71"/>
-      <c r="V85" s="71"/>
-      <c r="W85" s="71"/>
-      <c r="X85" s="71"/>
-      <c r="Y85" s="71"/>
-      <c r="Z85" s="71"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
+      <c r="O85" s="69"/>
+      <c r="P85" s="69"/>
+      <c r="Q85" s="69"/>
+      <c r="R85" s="69"/>
+      <c r="S85" s="69"/>
+      <c r="T85" s="69"/>
+      <c r="U85" s="69"/>
+      <c r="V85" s="69"/>
+      <c r="W85" s="69"/>
+      <c r="X85" s="69"/>
+      <c r="Y85" s="69"/>
+      <c r="Z85" s="69"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="71"/>
-      <c r="R86" s="71"/>
-      <c r="S86" s="71"/>
-      <c r="T86" s="71"/>
-      <c r="U86" s="71"/>
-      <c r="V86" s="71"/>
-      <c r="W86" s="71"/>
-      <c r="X86" s="71"/>
-      <c r="Y86" s="71"/>
-      <c r="Z86" s="71"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="69"/>
+      <c r="R86" s="69"/>
+      <c r="S86" s="69"/>
+      <c r="T86" s="69"/>
+      <c r="U86" s="69"/>
+      <c r="V86" s="69"/>
+      <c r="W86" s="69"/>
+      <c r="X86" s="69"/>
+      <c r="Y86" s="69"/>
+      <c r="Z86" s="69"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="71"/>
-      <c r="N87" s="71"/>
-      <c r="O87" s="71"/>
-      <c r="P87" s="71"/>
-      <c r="Q87" s="71"/>
-      <c r="R87" s="71"/>
-      <c r="S87" s="71"/>
-      <c r="T87" s="71"/>
-      <c r="U87" s="71"/>
-      <c r="V87" s="71"/>
-      <c r="W87" s="71"/>
-      <c r="X87" s="71"/>
-      <c r="Y87" s="71"/>
-      <c r="Z87" s="71"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="69"/>
+      <c r="Q87" s="69"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="69"/>
+      <c r="T87" s="69"/>
+      <c r="U87" s="69"/>
+      <c r="V87" s="69"/>
+      <c r="W87" s="69"/>
+      <c r="X87" s="69"/>
+      <c r="Y87" s="69"/>
+      <c r="Z87" s="69"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
-      <c r="P88" s="71"/>
-      <c r="Q88" s="71"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="71"/>
-      <c r="V88" s="71"/>
-      <c r="W88" s="71"/>
-      <c r="X88" s="71"/>
-      <c r="Y88" s="71"/>
-      <c r="Z88" s="71"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+      <c r="Q88" s="69"/>
+      <c r="R88" s="69"/>
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
+      <c r="V88" s="69"/>
+      <c r="W88" s="69"/>
+      <c r="X88" s="69"/>
+      <c r="Y88" s="69"/>
+      <c r="Z88" s="69"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
-      <c r="Q89" s="71"/>
-      <c r="R89" s="71"/>
-      <c r="S89" s="71"/>
-      <c r="T89" s="71"/>
-      <c r="U89" s="71"/>
-      <c r="V89" s="71"/>
-      <c r="W89" s="71"/>
-      <c r="X89" s="71"/>
-      <c r="Y89" s="71"/>
-      <c r="Z89" s="71"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="69"/>
+      <c r="P89" s="69"/>
+      <c r="Q89" s="69"/>
+      <c r="R89" s="69"/>
+      <c r="S89" s="69"/>
+      <c r="T89" s="69"/>
+      <c r="U89" s="69"/>
+      <c r="V89" s="69"/>
+      <c r="W89" s="69"/>
+      <c r="X89" s="69"/>
+      <c r="Y89" s="69"/>
+      <c r="Z89" s="69"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
-      <c r="Q90" s="71"/>
-      <c r="R90" s="71"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
-      <c r="U90" s="71"/>
-      <c r="V90" s="71"/>
-      <c r="W90" s="71"/>
-      <c r="X90" s="71"/>
-      <c r="Y90" s="71"/>
-      <c r="Z90" s="71"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="69"/>
+      <c r="P90" s="69"/>
+      <c r="Q90" s="69"/>
+      <c r="R90" s="69"/>
+      <c r="S90" s="69"/>
+      <c r="T90" s="69"/>
+      <c r="U90" s="69"/>
+      <c r="V90" s="69"/>
+      <c r="W90" s="69"/>
+      <c r="X90" s="69"/>
+      <c r="Y90" s="69"/>
+      <c r="Z90" s="69"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="71"/>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71"/>
-      <c r="O91" s="71"/>
-      <c r="P91" s="71"/>
-      <c r="Q91" s="71"/>
-      <c r="R91" s="71"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
-      <c r="U91" s="71"/>
-      <c r="V91" s="71"/>
-      <c r="W91" s="71"/>
-      <c r="X91" s="71"/>
-      <c r="Y91" s="71"/>
-      <c r="Z91" s="71"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="69"/>
+      <c r="O91" s="69"/>
+      <c r="P91" s="69"/>
+      <c r="Q91" s="69"/>
+      <c r="R91" s="69"/>
+      <c r="S91" s="69"/>
+      <c r="T91" s="69"/>
+      <c r="U91" s="69"/>
+      <c r="V91" s="69"/>
+      <c r="W91" s="69"/>
+      <c r="X91" s="69"/>
+      <c r="Y91" s="69"/>
+      <c r="Z91" s="69"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
-      <c r="L92" s="71"/>
-      <c r="M92" s="71"/>
-      <c r="N92" s="71"/>
-      <c r="O92" s="71"/>
-      <c r="P92" s="71"/>
-      <c r="Q92" s="71"/>
-      <c r="R92" s="71"/>
-      <c r="S92" s="71"/>
-      <c r="T92" s="71"/>
-      <c r="U92" s="71"/>
-      <c r="V92" s="71"/>
-      <c r="W92" s="71"/>
-      <c r="X92" s="71"/>
-      <c r="Y92" s="71"/>
-      <c r="Z92" s="71"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="69"/>
+      <c r="O92" s="69"/>
+      <c r="P92" s="69"/>
+      <c r="Q92" s="69"/>
+      <c r="R92" s="69"/>
+      <c r="S92" s="69"/>
+      <c r="T92" s="69"/>
+      <c r="U92" s="69"/>
+      <c r="V92" s="69"/>
+      <c r="W92" s="69"/>
+      <c r="X92" s="69"/>
+      <c r="Y92" s="69"/>
+      <c r="Z92" s="69"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
-      <c r="P93" s="71"/>
-      <c r="Q93" s="71"/>
-      <c r="R93" s="71"/>
-      <c r="S93" s="71"/>
-      <c r="T93" s="71"/>
-      <c r="U93" s="71"/>
-      <c r="V93" s="71"/>
-      <c r="W93" s="71"/>
-      <c r="X93" s="71"/>
-      <c r="Y93" s="71"/>
-      <c r="Z93" s="71"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="69"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="69"/>
+      <c r="O93" s="69"/>
+      <c r="P93" s="69"/>
+      <c r="Q93" s="69"/>
+      <c r="R93" s="69"/>
+      <c r="S93" s="69"/>
+      <c r="T93" s="69"/>
+      <c r="U93" s="69"/>
+      <c r="V93" s="69"/>
+      <c r="W93" s="69"/>
+      <c r="X93" s="69"/>
+      <c r="Y93" s="69"/>
+      <c r="Z93" s="69"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
-      <c r="Q94" s="71"/>
-      <c r="R94" s="71"/>
-      <c r="S94" s="71"/>
-      <c r="T94" s="71"/>
-      <c r="U94" s="71"/>
-      <c r="V94" s="71"/>
-      <c r="W94" s="71"/>
-      <c r="X94" s="71"/>
-      <c r="Y94" s="71"/>
-      <c r="Z94" s="71"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="69"/>
+      <c r="O94" s="69"/>
+      <c r="P94" s="69"/>
+      <c r="Q94" s="69"/>
+      <c r="R94" s="69"/>
+      <c r="S94" s="69"/>
+      <c r="T94" s="69"/>
+      <c r="U94" s="69"/>
+      <c r="V94" s="69"/>
+      <c r="W94" s="69"/>
+      <c r="X94" s="69"/>
+      <c r="Y94" s="69"/>
+      <c r="Z94" s="69"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71"/>
-      <c r="O95" s="71"/>
-      <c r="P95" s="71"/>
-      <c r="Q95" s="71"/>
-      <c r="R95" s="71"/>
-      <c r="S95" s="71"/>
-      <c r="T95" s="71"/>
-      <c r="U95" s="71"/>
-      <c r="V95" s="71"/>
-      <c r="W95" s="71"/>
-      <c r="X95" s="71"/>
-      <c r="Y95" s="71"/>
-      <c r="Z95" s="71"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="69"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="69"/>
+      <c r="P95" s="69"/>
+      <c r="Q95" s="69"/>
+      <c r="R95" s="69"/>
+      <c r="S95" s="69"/>
+      <c r="T95" s="69"/>
+      <c r="U95" s="69"/>
+      <c r="V95" s="69"/>
+      <c r="W95" s="69"/>
+      <c r="X95" s="69"/>
+      <c r="Y95" s="69"/>
+      <c r="Z95" s="69"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
-      <c r="K96" s="71"/>
-      <c r="L96" s="71"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="71"/>
-      <c r="O96" s="71"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="71"/>
-      <c r="R96" s="71"/>
-      <c r="S96" s="71"/>
-      <c r="T96" s="71"/>
-      <c r="U96" s="71"/>
-      <c r="V96" s="71"/>
-      <c r="W96" s="71"/>
-      <c r="X96" s="71"/>
-      <c r="Y96" s="71"/>
-      <c r="Z96" s="71"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+      <c r="O96" s="69"/>
+      <c r="P96" s="69"/>
+      <c r="Q96" s="69"/>
+      <c r="R96" s="69"/>
+      <c r="S96" s="69"/>
+      <c r="T96" s="69"/>
+      <c r="U96" s="69"/>
+      <c r="V96" s="69"/>
+      <c r="W96" s="69"/>
+      <c r="X96" s="69"/>
+      <c r="Y96" s="69"/>
+      <c r="Z96" s="69"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="71"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="71"/>
-      <c r="O97" s="71"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="71"/>
-      <c r="R97" s="71"/>
-      <c r="S97" s="71"/>
-      <c r="T97" s="71"/>
-      <c r="U97" s="71"/>
-      <c r="V97" s="71"/>
-      <c r="W97" s="71"/>
-      <c r="X97" s="71"/>
-      <c r="Y97" s="71"/>
-      <c r="Z97" s="71"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="69"/>
+      <c r="K97" s="69"/>
+      <c r="L97" s="69"/>
+      <c r="M97" s="69"/>
+      <c r="N97" s="69"/>
+      <c r="O97" s="69"/>
+      <c r="P97" s="69"/>
+      <c r="Q97" s="69"/>
+      <c r="R97" s="69"/>
+      <c r="S97" s="69"/>
+      <c r="T97" s="69"/>
+      <c r="U97" s="69"/>
+      <c r="V97" s="69"/>
+      <c r="W97" s="69"/>
+      <c r="X97" s="69"/>
+      <c r="Y97" s="69"/>
+      <c r="Z97" s="69"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
-      <c r="K98" s="71"/>
-      <c r="L98" s="71"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="71"/>
-      <c r="O98" s="71"/>
-      <c r="P98" s="71"/>
-      <c r="Q98" s="71"/>
-      <c r="R98" s="71"/>
-      <c r="S98" s="71"/>
-      <c r="T98" s="71"/>
-      <c r="U98" s="71"/>
-      <c r="V98" s="71"/>
-      <c r="W98" s="71"/>
-      <c r="X98" s="71"/>
-      <c r="Y98" s="71"/>
-      <c r="Z98" s="71"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="69"/>
+      <c r="R98" s="69"/>
+      <c r="S98" s="69"/>
+      <c r="T98" s="69"/>
+      <c r="U98" s="69"/>
+      <c r="V98" s="69"/>
+      <c r="W98" s="69"/>
+      <c r="X98" s="69"/>
+      <c r="Y98" s="69"/>
+      <c r="Z98" s="69"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
-      <c r="O99" s="71"/>
-      <c r="P99" s="71"/>
-      <c r="Q99" s="71"/>
-      <c r="R99" s="71"/>
-      <c r="S99" s="71"/>
-      <c r="T99" s="71"/>
-      <c r="U99" s="71"/>
-      <c r="V99" s="71"/>
-      <c r="W99" s="71"/>
-      <c r="X99" s="71"/>
-      <c r="Y99" s="71"/>
-      <c r="Z99" s="71"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="69"/>
+      <c r="U99" s="69"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6874,18 +6891,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
-      <c r="B5" s="88" t="str">
+      <c r="B5" s="86" t="str">
         <f>"Veda Fill table"</f>
         <v>Veda Fill table</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="87"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="89"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
@@ -7258,7 +7275,7 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -9800,7 +9817,7 @@
       <c r="C42" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="69" t="str">
+      <c r="D42" s="67" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H42,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
         <v>*2.74705437385472</v>
       </c>
@@ -9813,7 +9830,7 @@
         <f>Legend!B39</f>
         <v>ELC</v>
       </c>
-      <c r="H42" s="68" t="str">
+      <c r="H42" s="66" t="str">
         <f>"S-SH-"&amp;F10&amp;"_"&amp;G10&amp;"-HP*"</f>
         <v>S-SH-PU_ELC-HP*</v>
       </c>
@@ -10003,7 +10020,7 @@
       <c r="C49" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="69" t="str">
+      <c r="D49" s="67" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H49,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
         <v>*2.74705437385472</v>
       </c>
@@ -10015,7 +10032,7 @@
         <f t="shared" si="12"/>
         <v>ELC</v>
       </c>
-      <c r="H49" s="68" t="str">
+      <c r="H49" s="66" t="str">
         <f>"S-SH-"&amp;F10&amp;"_"&amp;G10&amp;"-HP*"</f>
         <v>S-SH-PU_ELC-HP*</v>
       </c>
@@ -10321,10 +10338,10 @@
         <f t="shared" si="16"/>
         <v>S-LIG-PU*</v>
       </c>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="65" t="s">
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="63" t="s">
         <v>257</v>
       </c>
     </row>
@@ -10354,19 +10371,19 @@
         <f t="shared" si="16"/>
         <v>S-LIG-CS*</v>
       </c>
-      <c r="J63" s="66" t="str">
+      <c r="J63" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K63" s="66" t="str">
+      <c r="K63" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L63" s="66" t="str">
+      <c r="L63" s="64" t="str">
         <f>"S-"&amp;K63&amp;"-"&amp;J63&amp;"*X1"</f>
         <v>S-PLIG-PU*X1</v>
       </c>
-      <c r="M63" s="67">
+      <c r="M63" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L63,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L63,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>9.366584709050458E-3</v>
       </c>
@@ -10397,19 +10414,19 @@
         <f>"S-"&amp;G64&amp;"-"&amp;F64&amp;"*"</f>
         <v>S-PLIG-PU*</v>
       </c>
-      <c r="J64" s="66" t="str">
+      <c r="J64" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K64" s="66" t="str">
+      <c r="K64" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L64" s="66" t="str">
+      <c r="L64" s="64" t="str">
         <f>"S-"&amp;K64&amp;"-"&amp;J64&amp;"*X2"</f>
         <v>S-PLIG-PU*X2</v>
       </c>
-      <c r="M64" s="67">
+      <c r="M64" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L64,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L64,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>2.6860059092129972E-2</v>
       </c>
@@ -10440,19 +10457,19 @@
         <f>"S-"&amp;G65&amp;"-"&amp;F65&amp;"*X4"</f>
         <v>S-PLIG-PU*X4</v>
       </c>
-      <c r="J65" s="66" t="str">
+      <c r="J65" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K65" s="66" t="str">
+      <c r="K65" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L65" s="66" t="str">
+      <c r="L65" s="64" t="str">
         <f>"S-"&amp;K65&amp;"-"&amp;J65&amp;"*X3"</f>
         <v>S-PLIG-PU*X3</v>
       </c>
-      <c r="M65" s="67">
+      <c r="M65" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L65,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L65,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>0.12176560121765607</v>
       </c>
@@ -10464,19 +10481,19 @@
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="J66" s="66" t="str">
+      <c r="J66" s="64" t="str">
         <f>Legend!$C$18</f>
         <v>PU</v>
       </c>
-      <c r="K66" s="66" t="str">
+      <c r="K66" s="64" t="str">
         <f>Legend!$C$29</f>
         <v>PLIG</v>
       </c>
-      <c r="L66" s="66" t="str">
+      <c r="L66" s="64" t="str">
         <f>"S-"&amp;K66&amp;"-"&amp;J66&amp;"*X4"</f>
         <v>S-PLIG-PU*X4</v>
       </c>
-      <c r="M66" s="67">
+      <c r="M66" s="65">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L66,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L66,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
         <v>6.0882800608827838E-3</v>
       </c>
@@ -11643,8 +11660,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:AA7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11688,7 +11705,7 @@
       <c r="B3" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
@@ -11709,30 +11726,30 @@
       <c r="AA3" s="50"/>
     </row>
     <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="H4" s="61" t="str">
-        <f>Regions!C3</f>
+      <c r="H4" s="60" t="str">
+        <f>[1]Regions!C3</f>
         <v>IE</v>
       </c>
-      <c r="I4" s="62" t="str">
-        <f>Regions!D3</f>
+      <c r="I4" s="60" t="str">
+        <f>[1]Regions!D3</f>
         <v>National</v>
       </c>
       <c r="J4" s="50"/>
@@ -11755,7 +11772,7 @@
       <c r="AA4" s="50"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="61" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="50">
@@ -11764,7 +11781,7 @@
       <c r="H5" s="50">
         <v>1</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="50">
         <v>1</v>
       </c>
       <c r="J5" s="50"/>
@@ -11787,6 +11804,7 @@
       <c r="AA5" s="50"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91D2BE-AD7F-43B2-94CD-F8799C205949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76369195-50C6-49C0-84CA-D86EE33ACA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1815" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -2565,7 +2565,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2943,20 +2943,20 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" customWidth="1"/>
+    <col min="1" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="59"/>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -2984,7 +2984,7 @@
       <c r="Y1" s="60"/>
       <c r="Z1" s="60"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -3012,7 +3012,7 @@
       <c r="Y2" s="60"/>
       <c r="Z2" s="60"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -3040,7 +3040,7 @@
       <c r="Y3" s="60"/>
       <c r="Z3" s="60"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3068,7 +3068,7 @@
       <c r="Y4" s="60"/>
       <c r="Z4" s="60"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3096,7 +3096,7 @@
       <c r="Y5" s="60"/>
       <c r="Z5" s="60"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3124,7 +3124,7 @@
       <c r="Y6" s="60"/>
       <c r="Z6" s="60"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -3152,7 +3152,7 @@
       <c r="Y7" s="60"/>
       <c r="Z7" s="60"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3180,7 +3180,7 @@
       <c r="Y8" s="60"/>
       <c r="Z8" s="60"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -3208,7 +3208,7 @@
       <c r="Y9" s="60"/>
       <c r="Z9" s="60"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -3236,7 +3236,7 @@
       <c r="Y10" s="60"/>
       <c r="Z10" s="60"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -3264,7 +3264,7 @@
       <c r="Y11" s="60"/>
       <c r="Z11" s="60"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -3292,7 +3292,7 @@
       <c r="Y12" s="60"/>
       <c r="Z12" s="60"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -3320,7 +3320,7 @@
       <c r="Y13" s="60"/>
       <c r="Z13" s="60"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -3348,7 +3348,7 @@
       <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -3376,7 +3376,7 @@
       <c r="Y15" s="60"/>
       <c r="Z15" s="60"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
         <v>258</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="Y16" s="60"/>
       <c r="Z16" s="60"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -3434,7 +3434,7 @@
       <c r="Y17" s="60"/>
       <c r="Z17" s="60"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="63"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
@@ -3462,7 +3462,7 @@
       <c r="Y18" s="60"/>
       <c r="Z18" s="60"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
         <v>31</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="Y19" s="60"/>
       <c r="Z19" s="60"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
         <v>259</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="Y20" s="60"/>
       <c r="Z20" s="60"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
         <v>260</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="Y21" s="60"/>
       <c r="Z21" s="60"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
       <c r="B22" s="69"/>
       <c r="C22" s="69"/>
@@ -3586,7 +3586,7 @@
       <c r="Y22" s="60"/>
       <c r="Z22" s="60"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
         <v>261</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="Y23" s="60"/>
       <c r="Z23" s="60"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
@@ -3644,7 +3644,7 @@
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="B25" s="69"/>
       <c r="C25" s="69"/>
@@ -3672,7 +3672,7 @@
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
         <v>262</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="Y26" s="60"/>
       <c r="Z26" s="60"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -3732,7 +3732,7 @@
       <c r="Y27" s="60"/>
       <c r="Z27" s="60"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="B28" s="69"/>
       <c r="C28" s="69"/>
@@ -3760,7 +3760,7 @@
       <c r="Y28" s="60"/>
       <c r="Z28" s="60"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
         <v>263</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="Y29" s="60"/>
       <c r="Z29" s="60"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
         <v>264</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="Y30" s="60"/>
       <c r="Z30" s="60"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66" t="s">
         <v>266</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="Y31" s="60"/>
       <c r="Z31" s="60"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="72"/>
       <c r="B32" s="73" t="s">
         <v>268</v>
@@ -3886,7 +3886,7 @@
       <c r="Y32" s="60"/>
       <c r="Z32" s="60"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -3914,7 +3914,7 @@
       <c r="Y33" s="60"/>
       <c r="Z33" s="60"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -3942,7 +3942,7 @@
       <c r="Y34" s="60"/>
       <c r="Z34" s="60"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -3970,7 +3970,7 @@
       <c r="Y35" s="60"/>
       <c r="Z35" s="60"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -3998,7 +3998,7 @@
       <c r="Y36" s="60"/>
       <c r="Z36" s="60"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -4026,7 +4026,7 @@
       <c r="Y37" s="60"/>
       <c r="Z37" s="60"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -4054,7 +4054,7 @@
       <c r="Y38" s="60"/>
       <c r="Z38" s="60"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -4082,7 +4082,7 @@
       <c r="Y39" s="60"/>
       <c r="Z39" s="60"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -4110,7 +4110,7 @@
       <c r="Y40" s="60"/>
       <c r="Z40" s="60"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -4138,7 +4138,7 @@
       <c r="Y41" s="60"/>
       <c r="Z41" s="60"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -4166,7 +4166,7 @@
       <c r="Y42" s="60"/>
       <c r="Z42" s="60"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -4194,7 +4194,7 @@
       <c r="Y43" s="60"/>
       <c r="Z43" s="60"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -4222,7 +4222,7 @@
       <c r="Y44" s="60"/>
       <c r="Z44" s="60"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -4250,7 +4250,7 @@
       <c r="Y45" s="60"/>
       <c r="Z45" s="60"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -4278,7 +4278,7 @@
       <c r="Y46" s="60"/>
       <c r="Z46" s="60"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -4306,7 +4306,7 @@
       <c r="Y47" s="60"/>
       <c r="Z47" s="60"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -4334,7 +4334,7 @@
       <c r="Y48" s="60"/>
       <c r="Z48" s="60"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="60"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -4362,7 +4362,7 @@
       <c r="Y49" s="60"/>
       <c r="Z49" s="60"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="60"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -4390,7 +4390,7 @@
       <c r="Y50" s="60"/>
       <c r="Z50" s="60"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -4418,7 +4418,7 @@
       <c r="Y51" s="60"/>
       <c r="Z51" s="60"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
@@ -4446,7 +4446,7 @@
       <c r="Y52" s="60"/>
       <c r="Z52" s="60"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="60"/>
       <c r="B53" s="60"/>
       <c r="C53" s="60"/>
@@ -4474,7 +4474,7 @@
       <c r="Y53" s="60"/>
       <c r="Z53" s="60"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="60"/>
       <c r="B54" s="60"/>
       <c r="C54" s="60"/>
@@ -4502,7 +4502,7 @@
       <c r="Y54" s="60"/>
       <c r="Z54" s="60"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="60"/>
       <c r="B55" s="60"/>
       <c r="C55" s="60"/>
@@ -4530,7 +4530,7 @@
       <c r="Y55" s="60"/>
       <c r="Z55" s="60"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="60"/>
       <c r="B56" s="60"/>
       <c r="C56" s="60"/>
@@ -4558,7 +4558,7 @@
       <c r="Y56" s="60"/>
       <c r="Z56" s="60"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="60"/>
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
@@ -4586,7 +4586,7 @@
       <c r="Y57" s="60"/>
       <c r="Z57" s="60"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="60"/>
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
@@ -4614,7 +4614,7 @@
       <c r="Y58" s="60"/>
       <c r="Z58" s="60"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
@@ -4642,7 +4642,7 @@
       <c r="Y59" s="60"/>
       <c r="Z59" s="60"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="60"/>
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
@@ -4670,7 +4670,7 @@
       <c r="Y60" s="60"/>
       <c r="Z60" s="60"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="60"/>
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
@@ -4698,7 +4698,7 @@
       <c r="Y61" s="60"/>
       <c r="Z61" s="60"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="60"/>
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
@@ -4726,7 +4726,7 @@
       <c r="Y62" s="60"/>
       <c r="Z62" s="60"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="60"/>
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
@@ -4754,7 +4754,7 @@
       <c r="Y63" s="60"/>
       <c r="Z63" s="60"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="60"/>
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
@@ -4782,7 +4782,7 @@
       <c r="Y64" s="60"/>
       <c r="Z64" s="60"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="60"/>
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
@@ -4810,7 +4810,7 @@
       <c r="Y65" s="60"/>
       <c r="Z65" s="60"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="60"/>
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
@@ -4838,7 +4838,7 @@
       <c r="Y66" s="60"/>
       <c r="Z66" s="60"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="60"/>
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
@@ -4866,7 +4866,7 @@
       <c r="Y67" s="60"/>
       <c r="Z67" s="60"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="60"/>
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
@@ -4894,7 +4894,7 @@
       <c r="Y68" s="60"/>
       <c r="Z68" s="60"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="60"/>
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
@@ -4922,7 +4922,7 @@
       <c r="Y69" s="60"/>
       <c r="Z69" s="60"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="60"/>
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
@@ -4950,7 +4950,7 @@
       <c r="Y70" s="60"/>
       <c r="Z70" s="60"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="60"/>
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
@@ -4978,7 +4978,7 @@
       <c r="Y71" s="60"/>
       <c r="Z71" s="60"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="60"/>
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
@@ -5006,7 +5006,7 @@
       <c r="Y72" s="60"/>
       <c r="Z72" s="60"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="60"/>
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
@@ -5034,7 +5034,7 @@
       <c r="Y73" s="60"/>
       <c r="Z73" s="60"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
@@ -5062,7 +5062,7 @@
       <c r="Y74" s="60"/>
       <c r="Z74" s="60"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="60"/>
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
@@ -5090,7 +5090,7 @@
       <c r="Y75" s="60"/>
       <c r="Z75" s="60"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="60"/>
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
@@ -5118,7 +5118,7 @@
       <c r="Y76" s="60"/>
       <c r="Z76" s="60"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="60"/>
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
@@ -5146,7 +5146,7 @@
       <c r="Y77" s="60"/>
       <c r="Z77" s="60"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="60"/>
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
@@ -5174,7 +5174,7 @@
       <c r="Y78" s="60"/>
       <c r="Z78" s="60"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="60"/>
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
@@ -5202,7 +5202,7 @@
       <c r="Y79" s="60"/>
       <c r="Z79" s="60"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="60"/>
       <c r="B80" s="60"/>
       <c r="C80" s="60"/>
@@ -5230,7 +5230,7 @@
       <c r="Y80" s="60"/>
       <c r="Z80" s="60"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="60"/>
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
@@ -5258,7 +5258,7 @@
       <c r="Y81" s="60"/>
       <c r="Z81" s="60"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="60"/>
       <c r="B82" s="60"/>
       <c r="C82" s="60"/>
@@ -5286,7 +5286,7 @@
       <c r="Y82" s="60"/>
       <c r="Z82" s="60"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="60"/>
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
@@ -5314,7 +5314,7 @@
       <c r="Y83" s="60"/>
       <c r="Z83" s="60"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="60"/>
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
@@ -5342,7 +5342,7 @@
       <c r="Y84" s="60"/>
       <c r="Z84" s="60"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="60"/>
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
@@ -5370,7 +5370,7 @@
       <c r="Y85" s="60"/>
       <c r="Z85" s="60"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="60"/>
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
@@ -5398,7 +5398,7 @@
       <c r="Y86" s="60"/>
       <c r="Z86" s="60"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="60"/>
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
@@ -5426,7 +5426,7 @@
       <c r="Y87" s="60"/>
       <c r="Z87" s="60"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="60"/>
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
@@ -5454,7 +5454,7 @@
       <c r="Y88" s="60"/>
       <c r="Z88" s="60"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="60"/>
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
@@ -5482,7 +5482,7 @@
       <c r="Y89" s="60"/>
       <c r="Z89" s="60"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="60"/>
       <c r="B90" s="60"/>
       <c r="C90" s="60"/>
@@ -5510,7 +5510,7 @@
       <c r="Y90" s="60"/>
       <c r="Z90" s="60"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="60"/>
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
@@ -5538,7 +5538,7 @@
       <c r="Y91" s="60"/>
       <c r="Z91" s="60"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="60"/>
       <c r="B92" s="60"/>
       <c r="C92" s="60"/>
@@ -5566,7 +5566,7 @@
       <c r="Y92" s="60"/>
       <c r="Z92" s="60"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="60"/>
       <c r="B93" s="60"/>
       <c r="C93" s="60"/>
@@ -5594,7 +5594,7 @@
       <c r="Y93" s="60"/>
       <c r="Z93" s="60"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="60"/>
       <c r="B94" s="60"/>
       <c r="C94" s="60"/>
@@ -5622,7 +5622,7 @@
       <c r="Y94" s="60"/>
       <c r="Z94" s="60"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="60"/>
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
@@ -5650,7 +5650,7 @@
       <c r="Y95" s="60"/>
       <c r="Z95" s="60"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="60"/>
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
@@ -5678,7 +5678,7 @@
       <c r="Y96" s="60"/>
       <c r="Z96" s="60"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="60"/>
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
@@ -5706,7 +5706,7 @@
       <c r="Y97" s="60"/>
       <c r="Z97" s="60"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="60"/>
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
@@ -5734,7 +5734,7 @@
       <c r="Y98" s="60"/>
       <c r="Z98" s="60"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="60"/>
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
@@ -5791,12 +5791,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>3.42465753424658E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>2.7679848891515602</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6178,12 +6178,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>2.5559498489728498</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>4.0979523881676903</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>0.48784295359637803</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>0.37305637627958299</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>0.31709791983764601</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>1.2683916793505801</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>34.2773280159549</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>54.9568131234806</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -6813,16 +6813,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="3" width="27.36328125" customWidth="1"/>
-    <col min="7" max="7" width="42.6328125" customWidth="1"/>
-    <col min="8" max="8" width="56.6328125" customWidth="1"/>
-    <col min="9" max="9" width="101.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="56.5703125" customWidth="1"/>
+    <col min="9" max="9" width="101.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -6833,14 +6833,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="77" t="str">
         <f>"Veda Fill table"</f>
@@ -6848,24 +6848,24 @@
       </c>
       <c r="C5" s="78"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="80"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
     </row>
-    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>52</v>
       </c>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>52</v>
       </c>
@@ -6883,19 +6883,19 @@
       </c>
       <c r="C10" s="35"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="36"/>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
@@ -6906,14 +6906,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>63</v>
       </c>
@@ -6931,14 +6931,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -6965,14 +6965,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -7035,12 +7035,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>112</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>121</v>
       </c>
@@ -7226,28 +7226,28 @@
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.08984375" style="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
@@ -8103,7 +8103,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>37</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
@@ -8566,7 +8566,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>37</v>
       </c>
@@ -8638,28 +8638,28 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.08984375" style="1"/>
-    <col min="8" max="8" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -8693,7 +8693,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>241</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>241</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>241</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>241</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>241</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>241</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>241</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>241</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>241</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>241</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>241</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
@@ -9152,7 +9152,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>241</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>241</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>241</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>241</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>241</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>241</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>241</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>241</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>241</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
@@ -9555,7 +9555,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>241</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>241</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>241</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>241</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>241</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>241</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>241</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>241</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>241</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>241</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
@@ -9958,7 +9958,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>241</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>241</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>241</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>241</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>254</v>
       </c>
@@ -10088,7 +10088,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>S-REF-PU*</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>S-REF-CS*</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>S-OEL-PU*</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>S-OEL-CS*</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>9.366584709050458E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>2.6860059092129972E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>127</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>0.12176560121765607</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>30</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>6.0882800608827838E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
@@ -10388,25 +10388,25 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="16"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
     <col min="2" max="2" width="11" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="16"/>
-    <col min="6" max="6" width="10.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="16"/>
+    <col min="3" max="3" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>196</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
@@ -10469,7 +10469,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
@@ -10490,8 +10490,8 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>197</v>
       </c>
@@ -10504,7 +10504,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
@@ -10554,7 +10554,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
@@ -10575,8 +10575,8 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>198</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
@@ -10639,7 +10639,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
@@ -10660,7 +10660,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>242</v>
       </c>
@@ -10673,7 +10673,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
@@ -10723,7 +10723,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>16</v>
       </c>
@@ -10759,39 +10759,37 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" customWidth="1"/>
-    <col min="25" max="25" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="41" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10905,12 +10903,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -11025,7 +11023,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -11142,7 +11140,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -11259,7 +11257,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>133</v>
       </c>
@@ -11267,7 +11265,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>135</v>
       </c>
@@ -11275,7 +11273,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>137</v>
       </c>
@@ -11283,7 +11281,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>139</v>
       </c>
@@ -11291,7 +11289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>141</v>
       </c>
@@ -11299,7 +11297,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>143</v>
       </c>
@@ -11307,7 +11305,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>145</v>
       </c>
@@ -11315,7 +11313,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>147</v>
       </c>
@@ -11323,7 +11321,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>149</v>
       </c>
@@ -11331,7 +11329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>151</v>
       </c>
@@ -11339,7 +11337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>153</v>
       </c>
@@ -11347,7 +11345,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>155</v>
       </c>
@@ -11355,7 +11353,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>157</v>
       </c>
@@ -11363,7 +11361,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>159</v>
       </c>
@@ -11371,7 +11369,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>161</v>
       </c>
@@ -11379,7 +11377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>163</v>
       </c>
@@ -11387,7 +11385,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>165</v>
       </c>
@@ -11395,7 +11393,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>167</v>
       </c>
@@ -11403,7 +11401,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>169</v>
       </c>
@@ -11411,7 +11409,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>171</v>
       </c>
@@ -11419,7 +11417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>173</v>
       </c>
@@ -11427,7 +11425,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>175</v>
       </c>
@@ -11435,7 +11433,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>177</v>
       </c>
@@ -11443,7 +11441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>179</v>
       </c>
@@ -11451,7 +11449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>181</v>
       </c>
@@ -11459,7 +11457,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>183</v>
       </c>
@@ -11467,7 +11465,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>185</v>
       </c>
@@ -11475,7 +11473,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>187</v>
       </c>
@@ -11501,7 +11499,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11525,43 +11523,37 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.6328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.36328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.6328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.6328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.6328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.36328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.36328125" style="48" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="2.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
         <v>188</v>
       </c>
@@ -11585,7 +11577,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>189</v>
       </c>
@@ -11631,7 +11623,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C5" s="53" t="s">
         <v>30</v>
       </c>
@@ -11663,7 +11655,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -11683,7 +11675,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -11719,12 +11711,12 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -11765,7 +11757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11806,7 +11798,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11847,7 +11839,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -11888,7 +11880,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11929,7 +11921,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -11970,7 +11962,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12011,7 +12003,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12052,7 +12044,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12093,7 +12085,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12134,7 +12126,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12175,7 +12167,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12216,7 +12208,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12257,7 +12249,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12298,7 +12290,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12339,7 +12331,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12380,7 +12372,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12421,7 +12413,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -12462,7 +12454,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12503,7 +12495,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12544,7 +12536,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12577,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -12626,7 +12618,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +12659,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -12708,7 +12700,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -12749,7 +12741,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -12790,7 +12782,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -12831,7 +12823,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -12872,7 +12864,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -12913,7 +12905,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -12954,7 +12946,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -12995,7 +12987,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -13036,7 +13028,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -13092,12 +13084,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -13138,7 +13130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13179,7 +13171,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13220,7 +13212,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13261,7 +13253,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -13302,7 +13294,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13343,7 +13335,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -13384,7 +13376,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -13425,7 +13417,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -13466,7 +13458,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -13507,7 +13499,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -13548,7 +13540,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13589,7 +13581,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13622,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -13671,7 +13663,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13712,7 +13704,7 @@
         <v>2.2831050228310501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13753,7 +13745,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13794,7 +13786,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13835,7 +13827,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -13876,7 +13868,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -13917,7 +13909,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -13958,7 +13950,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -13999,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -14040,7 +14032,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14081,7 +14073,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -14122,7 +14114,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -14163,7 +14155,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -14204,7 +14196,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -14245,7 +14237,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76369195-50C6-49C0-84CA-D86EE33ACA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47082DF0-2B18-468C-8DE5-0D5336B42799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1815" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -1150,15 +1150,6 @@
     <t>SRVSH-CS</t>
   </si>
   <si>
-    <t>~TFM_Fill-R: w=BY_S-SH; Hcol=Region</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-WH; Hcol=Region</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
-  </si>
-  <si>
     <t>S-SH-CS_BIO_X0</t>
   </si>
   <si>
@@ -1288,9 +1279,6 @@
     <t>CEFF</t>
   </si>
   <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
     <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
   </si>
   <si>
@@ -1379,6 +1367,18 @@
   </si>
   <si>
     <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>deact~TFM_Fill-R: w=BY_S-SH; Hcol=Region</t>
+  </si>
+  <si>
+    <t>deact~TFM_Fill-R: w=BY_S-WH; Hcol=Region</t>
+  </si>
+  <si>
+    <t>deact~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
+  </si>
+  <si>
+    <t>deact~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2939,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -3467,7 +3467,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B29" s="70">
         <v>1</v>
@@ -3794,10 +3794,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -3859,7 +3859,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="72"/>
       <c r="B32" s="73" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -5845,7 +5845,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5927,7 +5927,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5968,7 +5968,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6009,7 +6009,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6018,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G6">
         <v>2018</v>
@@ -6050,7 +6050,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6059,7 +6059,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -6091,7 +6091,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6100,7 +6100,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G8">
         <v>2018</v>
@@ -6132,7 +6132,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6141,7 +6141,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G9">
         <v>2018</v>
@@ -6232,7 +6232,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6241,7 +6241,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G2">
         <v>2018</v>
@@ -6273,7 +6273,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6282,7 +6282,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>2018</v>
@@ -6314,7 +6314,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6323,7 +6323,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G4">
         <v>2018</v>
@@ -6355,7 +6355,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6364,7 +6364,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G5">
         <v>2018</v>
@@ -6396,7 +6396,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G6">
         <v>2018</v>
@@ -6437,7 +6437,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6446,7 +6446,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -6478,7 +6478,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6487,7 +6487,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G8">
         <v>2018</v>
@@ -6519,7 +6519,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6528,7 +6528,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G9">
         <v>2018</v>
@@ -6560,7 +6560,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6569,7 +6569,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G10">
         <v>2018</v>
@@ -6601,7 +6601,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6610,7 +6610,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G11">
         <v>2018</v>
@@ -6639,10 +6639,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6680,10 +6680,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6721,10 +6721,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6762,10 +6762,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -7239,7 +7239,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8112,7 +8112,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D37" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H37,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8140,7 +8140,7 @@
         <v>S-SH-PU_LPG*</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D38" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H38,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8168,7 +8168,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D39" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H39,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8196,7 +8196,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D40" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H40,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8224,7 +8224,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H41,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8252,7 +8252,7 @@
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D42" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H42,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8280,7 +8280,7 @@
         <v>S-SH-PU_HET*</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D43" s="8">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H43,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8308,7 +8308,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D44" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H44,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8336,7 +8336,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D45" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H45,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8364,7 +8364,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D46" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H46,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8392,7 +8392,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D47" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H47,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8420,7 +8420,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D48" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H48,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8448,7 +8448,7 @@
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D49" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H49,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8476,7 +8476,7 @@
         <v>S-SH-CS_HET*</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D50" s="13">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H50,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
@@ -8575,7 +8575,7 @@
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D55" s="7">
         <f>SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,AFA!H55,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"AFA")</f>
@@ -8602,7 +8602,7 @@
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D56" s="13">
         <f>SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,AFA!H56,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"AFA")</f>
@@ -8651,12 +8651,12 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8723,7 +8723,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8779,7 +8779,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>"S-SH-"&amp;F10&amp;"_"&amp;G10&amp;"*, -*N1"</f>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>"S-SH-"&amp;F11&amp;"_"&amp;G11&amp;"*N1"</f>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" ref="B12:B13" si="2">"S-SH-"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>"S-SH-"&amp;F18&amp;"_"&amp;G18&amp;"*, -*N1"</f>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>"S-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*N1"</f>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B20" s="12" t="str">
         <f t="shared" ref="B20" si="5">"S-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
@@ -9161,7 +9161,7 @@
         <v>S-WH-PU_COA*</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H22,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9182,14 +9182,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_LPG*</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H23,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9217,7 +9217,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D24" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H24,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9238,14 +9238,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_GAS*</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D25" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H25,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9266,14 +9266,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_BIO*</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D26" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H26,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9294,14 +9294,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_SOL*</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H27,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9322,14 +9322,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_ELC*</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D28" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H28,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9357,7 +9357,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D29" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H29,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9378,14 +9378,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_LPG*</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D30" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H30,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9413,7 +9413,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D31" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H31,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9434,14 +9434,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_GAS*</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D32" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H32,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9462,14 +9462,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_BIO*</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D33" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H33,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9490,14 +9490,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_SOL*</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D34" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H34,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9518,14 +9518,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_ELC*</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D35" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H35,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9564,7 +9564,7 @@
         <v>S-SH-PU_COA*</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H37,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9585,14 +9585,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_LPG*</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D38" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H38,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9613,14 +9613,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_OIL*</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D39" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H39,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9641,14 +9641,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_GAS*</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D40" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H40,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9669,14 +9669,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_BIO*</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H41,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9697,14 +9697,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D42" s="58" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H42,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
@@ -9725,14 +9725,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B43" s="4" t="str">
         <f t="shared" ref="B43" si="11">"S-SH-"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
         <v>S-SH-PU_HET*</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D43" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H43,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9760,7 +9760,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D44" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H44,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9781,14 +9781,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_LPG*</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D45" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H45,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9809,14 +9809,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_OIL*</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D46" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H46,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9837,14 +9837,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_GAS*</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D47" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H47,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9865,14 +9865,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_BIO*</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D48" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H48,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9893,14 +9893,14 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D49" s="58" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H49,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
@@ -9921,14 +9921,14 @@
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B50" s="12" t="str">
         <f t="shared" ref="B50" si="13">"S-SH-"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
         <v>S-SH-CS_HET*</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D50" s="13" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H50,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9960,14 +9960,14 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B52" s="1" t="str">
         <f>"S-SC-"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
         <v>S-SC-PU_ELC*</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D52" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H52,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -9987,14 +9987,14 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B53" s="4" t="str">
         <f>"S-SC-"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
         <v>S-SC-CS_ELC*</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D53" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H53,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -10025,14 +10025,14 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" ref="B55:B56" si="14">"S-SH-"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D55" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H55,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -10052,14 +10052,14 @@
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B56" s="12" t="str">
         <f t="shared" si="14"/>
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D56" s="13" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H56,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -10216,7 +10216,7 @@
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
       <c r="M62" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -10384,8 +10384,8 @@
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10408,7 +10408,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -10493,7 +10493,7 @@
     <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -10578,7 +10578,7 @@
     <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -10662,7 +10662,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -10718,7 +10718,7 @@
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E21" s="18">
         <v>2018</v>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -11765,7 +11765,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11806,7 +11806,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11847,7 +11847,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11888,7 +11888,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11929,7 +11929,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11970,7 +11970,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12011,7 +12011,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12052,7 +12052,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12093,7 +12093,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12134,7 +12134,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12175,7 +12175,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12216,7 +12216,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12257,7 +12257,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12298,7 +12298,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12339,7 +12339,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12380,7 +12380,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12421,7 +12421,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12430,7 +12430,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G18">
         <v>2018</v>
@@ -12462,7 +12462,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12471,7 +12471,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G19">
         <v>2018</v>
@@ -12503,7 +12503,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12512,7 +12512,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G20">
         <v>2018</v>
@@ -12544,7 +12544,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12553,7 +12553,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G21">
         <v>2018</v>
@@ -12585,7 +12585,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12594,7 +12594,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -12626,7 +12626,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12635,7 +12635,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G23">
         <v>2018</v>
@@ -12667,7 +12667,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12676,7 +12676,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G24">
         <v>2018</v>
@@ -12708,7 +12708,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12717,7 +12717,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G25">
         <v>2018</v>
@@ -12749,7 +12749,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12758,7 +12758,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G26">
         <v>2018</v>
@@ -12790,7 +12790,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12799,7 +12799,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -12831,7 +12831,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12840,7 +12840,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G28">
         <v>2018</v>
@@ -12872,7 +12872,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12881,7 +12881,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G29">
         <v>2018</v>
@@ -12913,7 +12913,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12922,7 +12922,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G30">
         <v>2018</v>
@@ -12954,16 +12954,16 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
         <v>212</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>215</v>
       </c>
       <c r="G31">
         <v>2018</v>
@@ -12995,7 +12995,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13004,7 +13004,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G32">
         <v>2018</v>
@@ -13036,7 +13036,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13045,7 +13045,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G33">
         <v>2018</v>
@@ -13138,7 +13138,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13179,7 +13179,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13220,7 +13220,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13261,7 +13261,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13302,7 +13302,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13343,7 +13343,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13384,7 +13384,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13425,7 +13425,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13466,7 +13466,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13507,7 +13507,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13548,7 +13548,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13589,7 +13589,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13630,7 +13630,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13671,7 +13671,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13712,7 +13712,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13721,7 +13721,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G16">
         <v>2018</v>
@@ -13753,7 +13753,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13762,7 +13762,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G17">
         <v>2018</v>
@@ -13794,7 +13794,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13803,7 +13803,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G18">
         <v>2018</v>
@@ -13835,7 +13835,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13844,7 +13844,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G19">
         <v>2018</v>
@@ -13876,7 +13876,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13885,7 +13885,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G20">
         <v>2018</v>
@@ -13917,7 +13917,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13926,7 +13926,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G21">
         <v>2018</v>
@@ -13958,7 +13958,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -13967,7 +13967,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -13999,7 +13999,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14008,7 +14008,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G23">
         <v>2018</v>
@@ -14040,7 +14040,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14049,7 +14049,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G24">
         <v>2018</v>
@@ -14081,7 +14081,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14090,7 +14090,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G25">
         <v>2018</v>
@@ -14122,7 +14122,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14131,7 +14131,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G26">
         <v>2018</v>
@@ -14163,7 +14163,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14172,7 +14172,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -14204,7 +14204,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14213,7 +14213,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G28">
         <v>2018</v>
@@ -14245,7 +14245,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -14254,7 +14254,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G29">
         <v>2018</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47082DF0-2B18-468C-8DE5-0D5336B42799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr updateLinks="never" codeName="ThisWorkbook" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1815" windowWidth="19200" windowHeight="11175" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="19" r:id="rId1"/>
-    <sheet name="Legend" sheetId="14" r:id="rId2"/>
-    <sheet name="AFA" sheetId="1" r:id="rId3"/>
-    <sheet name="EFF" sheetId="17" r:id="rId4"/>
-    <sheet name="FillTable" sheetId="5" r:id="rId5"/>
-    <sheet name="Regions" sheetId="15" r:id="rId6"/>
-    <sheet name="TechSelection" sheetId="16" r:id="rId7"/>
-    <sheet name="BY_S-SH" sheetId="7" r:id="rId8"/>
-    <sheet name="BY_S-WH" sheetId="9" r:id="rId9"/>
-    <sheet name="BY_S-SC" sheetId="11" r:id="rId10"/>
-    <sheet name="BY_S-EAP" sheetId="18" r:id="rId11"/>
+    <sheet name="Cover" sheetId="19" r:id="rId3"/>
+    <sheet name="Legend" sheetId="14" r:id="rId4"/>
+    <sheet name="AFA" sheetId="1" r:id="rId5"/>
+    <sheet name="EFF" sheetId="17" r:id="rId6"/>
+    <sheet name="FillTable" sheetId="5" r:id="rId7"/>
+    <sheet name="Regions" sheetId="15" r:id="rId8"/>
+    <sheet name="TechSelection" sheetId="16" r:id="rId9"/>
+    <sheet name="BY_S-SH" sheetId="7" r:id="rId10"/>
+    <sheet name="BY_S-WH" sheetId="9" r:id="rId11"/>
+    <sheet name="BY_S-SC" sheetId="11" r:id="rId12"/>
+    <sheet name="BY_S-EAP" sheetId="18" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -125,13 +124,16 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -143,7 +145,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -152,7 +153,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -166,7 +166,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -175,7 +174,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -189,7 +187,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -198,7 +195,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -212,7 +208,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -221,7 +216,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -235,7 +229,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -244,7 +237,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -258,7 +250,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -267,7 +258,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -281,7 +271,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -290,7 +279,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -304,7 +292,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -313,7 +300,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -325,7 +311,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -337,7 +323,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -346,7 +331,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -360,7 +344,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -369,7 +352,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -383,7 +365,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -392,7 +373,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -406,7 +386,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -415,7 +394,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -429,7 +407,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -438,7 +415,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -452,7 +428,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -461,7 +436,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -475,7 +449,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -484,7 +457,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -498,7 +470,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -507,7 +478,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -520,7 +490,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -542,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="274">
   <si>
     <t>LimType</t>
   </si>
@@ -1150,235 +1120,238 @@
     <t>SRVSH-CS</t>
   </si>
   <si>
+    <t>~TFM_Fill-R: w=BY_S-SH; Hcol=Region</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-WH; Hcol=Region</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-SH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>S-SH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>S-SH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>deact~TFM_Fill-R: w=BY_S-SH; Hcol=Region</t>
-  </si>
-  <si>
-    <t>deact~TFM_Fill-R: w=BY_S-WH; Hcol=Region</t>
-  </si>
-  <si>
-    <t>deact~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
-  </si>
-  <si>
-    <t>deact~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,11 +1370,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1455,13 +1427,11 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1475,7 +1445,7 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1491,7 +1461,7 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1521,7 +1491,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -1544,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
+      <color theme="7" tint="-0.499900013208389"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499984740745262"/>
+      <color theme="7" tint="-0.499900013208389"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1580,13 +1550,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.0499100014567375"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990010261536"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799979984760284"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990010261536"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,43 +1592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.799979984760284"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,7 +1604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149920001626015"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,116 +1632,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1782,29 +1646,124 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -1813,79 +1772,95 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1898,10 +1873,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1910,28 +1885,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1943,7 +1918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1952,68 +1927,68 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2021,19 +1996,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2042,76 +2017,159 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="20" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="20" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{69C03A9E-E6BF-43EA-B0A7-BB21DAB38692}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <mruColors>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2124,12 +2182,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="1" val="0"/>
+<file path=xl/ctrProps/ctrProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="8" dropStyle="Combo" dx="15" noThreeD="1" sel="1" fmlaLink="$A$4" fmlaRange="$A$5:$A$7"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2157,19 +2215,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="1"/>
-          <a:ext cx="5796000" cy="2324211"/>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="5762625" cy="2324100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2200,25 +2256,19 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="4608" t="8923" r="7736" b="12915"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19050" y="8810625"/>
-          <a:ext cx="1431433" cy="576000"/>
+          <a:ext cx="1419225" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2250,25 +2300,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1957123" y="8810625"/>
-          <a:ext cx="1250988" cy="576000"/>
+          <a:off x="1943100" y="8810625"/>
+          <a:ext cx="1238250" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2300,25 +2342,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733801" y="8810625"/>
-          <a:ext cx="2018073" cy="576000"/>
+          <a:off x="3714750" y="8810625"/>
+          <a:ext cx="2009775" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2349,25 +2383,19 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:srcRect l="1358" t="6553" r="4000" b="6326"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3628275" y="7962900"/>
-          <a:ext cx="1400925" cy="576000"/>
+          <a:off x="3609975" y="7962900"/>
+          <a:ext cx="1390650" cy="571500"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2392,34 +2420,25 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
-            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:srcRect l="3988" t="26188" r="3988" b="26187"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="666750" y="8077200"/>
-          <a:ext cx="1676400" cy="428625"/>
+          <a:ext cx="1666875" cy="428625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
@@ -2461,25 +2480,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="5476875"/>
-          <a:ext cx="2457450" cy="390512"/>
+          <a:off x="1438275" y="5476875"/>
+          <a:ext cx="2447925" cy="390525"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2488,7 +2499,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2502,7 +2513,7 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
@@ -2518,9 +2529,7 @@
           <a:off x="7781925" y="12153900"/>
           <a:ext cx="200025" cy="171450"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rightArrow"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2535,7 +2544,7 @@
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2553,7 +2562,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2569,7 +2578,7 @@
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3073" name="Drop Down 1" hidden="1">
               <a:extLst>
@@ -2577,35 +2586,28 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000010c0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr/>
+            <xdr:cNvSpPr>
+              <a:spLocks noRot="1" noTextEdit="1"/>
+            </xdr:cNvSpPr>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="0" y="381000"/>
+              <a:ext cx="838200" cy="190500"/>
             </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
+            <a:prstGeom prst="rect"/>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr lIns="91440" tIns="45720" rIns="91440" bIns="45720"/>
+            <a:p/>
+          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -2935,28 +2937,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D85494-AD7E-4E2E-B014-AEAB87A7BB96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D85494-AD7E-4E2E-B014-AEAB87A7BB96}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A7">
+      <selection pane="topLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.5714285714286" customWidth="1"/>
+    <col min="5" max="6" width="14.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
+    <col min="8" max="10" width="8.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="9.57142857142857" customWidth="1"/>
+    <col min="12" max="12" width="8.14285714285714" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.4285714285714" customWidth="1"/>
+    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15">
       <c r="A1" s="59"/>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -2984,7 +2986,7 @@
       <c r="Y1" s="60"/>
       <c r="Z1" s="60"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -3012,7 +3014,7 @@
       <c r="Y2" s="60"/>
       <c r="Z2" s="60"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -3040,7 +3042,7 @@
       <c r="Y3" s="60"/>
       <c r="Z3" s="60"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3068,7 +3070,7 @@
       <c r="Y4" s="60"/>
       <c r="Z4" s="60"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3096,7 +3098,7 @@
       <c r="Y5" s="60"/>
       <c r="Z5" s="60"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3124,7 +3126,7 @@
       <c r="Y6" s="60"/>
       <c r="Z6" s="60"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -3152,7 +3154,7 @@
       <c r="Y7" s="60"/>
       <c r="Z7" s="60"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3180,7 +3182,7 @@
       <c r="Y8" s="60"/>
       <c r="Z8" s="60"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -3208,7 +3210,7 @@
       <c r="Y9" s="60"/>
       <c r="Z9" s="60"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -3236,7 +3238,7 @@
       <c r="Y10" s="60"/>
       <c r="Z10" s="60"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -3264,7 +3266,7 @@
       <c r="Y11" s="60"/>
       <c r="Z11" s="60"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -3292,7 +3294,7 @@
       <c r="Y12" s="60"/>
       <c r="Z12" s="60"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -3320,7 +3322,7 @@
       <c r="Y13" s="60"/>
       <c r="Z13" s="60"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -3348,7 +3350,7 @@
       <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -3376,9 +3378,9 @@
       <c r="Y15" s="60"/>
       <c r="Z15" s="60"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="75" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -3406,7 +3408,7 @@
       <c r="Y16" s="60"/>
       <c r="Z16" s="60"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
       <c r="A17" s="63"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -3434,7 +3436,7 @@
       <c r="Y17" s="60"/>
       <c r="Z17" s="60"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
       <c r="A18" s="63"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
@@ -3462,12 +3464,12 @@
       <c r="Y18" s="60"/>
       <c r="Z18" s="60"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="66" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
@@ -3494,12 +3496,12 @@
       <c r="Y19" s="60"/>
       <c r="Z19" s="60"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="66" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -3526,12 +3528,12 @@
       <c r="Y20" s="60"/>
       <c r="Z20" s="60"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="66" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -3558,7 +3560,7 @@
       <c r="Y21" s="60"/>
       <c r="Z21" s="60"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
       <c r="A22" s="66"/>
       <c r="B22" s="69"/>
       <c r="C22" s="69"/>
@@ -3586,9 +3588,9 @@
       <c r="Y22" s="60"/>
       <c r="Z22" s="60"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="66" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -3616,7 +3618,7 @@
       <c r="Y23" s="60"/>
       <c r="Z23" s="60"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="66"/>
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>
@@ -3644,7 +3646,7 @@
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
       <c r="A25" s="66"/>
       <c r="B25" s="69"/>
       <c r="C25" s="69"/>
@@ -3672,12 +3674,12 @@
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="66" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
@@ -3704,7 +3706,7 @@
       <c r="Y26" s="60"/>
       <c r="Z26" s="60"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -3732,7 +3734,7 @@
       <c r="Y27" s="60"/>
       <c r="Z27" s="60"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="69"/>
       <c r="C28" s="69"/>
@@ -3760,9 +3762,9 @@
       <c r="Y28" s="60"/>
       <c r="Z28" s="60"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="66" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B29" s="70">
         <v>1</v>
@@ -3792,12 +3794,12 @@
       <c r="Y29" s="60"/>
       <c r="Z29" s="60"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="66" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -3824,12 +3826,12 @@
       <c r="Y30" s="60"/>
       <c r="Z30" s="60"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="66" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -3856,10 +3858,10 @@
       <c r="Y31" s="60"/>
       <c r="Z31" s="60"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="72"/>
       <c r="B32" s="73" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -3886,7 +3888,7 @@
       <c r="Y32" s="60"/>
       <c r="Z32" s="60"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -3914,7 +3916,7 @@
       <c r="Y33" s="60"/>
       <c r="Z33" s="60"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -3942,7 +3944,7 @@
       <c r="Y34" s="60"/>
       <c r="Z34" s="60"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -3970,7 +3972,7 @@
       <c r="Y35" s="60"/>
       <c r="Z35" s="60"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -3998,7 +4000,7 @@
       <c r="Y36" s="60"/>
       <c r="Z36" s="60"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -4026,7 +4028,7 @@
       <c r="Y37" s="60"/>
       <c r="Z37" s="60"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -4054,7 +4056,7 @@
       <c r="Y38" s="60"/>
       <c r="Z38" s="60"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -4082,7 +4084,7 @@
       <c r="Y39" s="60"/>
       <c r="Z39" s="60"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -4110,7 +4112,7 @@
       <c r="Y40" s="60"/>
       <c r="Z40" s="60"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -4138,7 +4140,7 @@
       <c r="Y41" s="60"/>
       <c r="Z41" s="60"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -4166,7 +4168,7 @@
       <c r="Y42" s="60"/>
       <c r="Z42" s="60"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15">
       <c r="A43" s="60"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
@@ -4194,7 +4196,7 @@
       <c r="Y43" s="60"/>
       <c r="Z43" s="60"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15">
       <c r="A44" s="60"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -4222,7 +4224,7 @@
       <c r="Y44" s="60"/>
       <c r="Z44" s="60"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15">
       <c r="A45" s="60"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -4250,7 +4252,7 @@
       <c r="Y45" s="60"/>
       <c r="Z45" s="60"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15">
       <c r="A46" s="60"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -4278,7 +4280,7 @@
       <c r="Y46" s="60"/>
       <c r="Z46" s="60"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15">
       <c r="A47" s="60"/>
       <c r="B47" s="60"/>
       <c r="C47" s="60"/>
@@ -4306,7 +4308,7 @@
       <c r="Y47" s="60"/>
       <c r="Z47" s="60"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15">
       <c r="A48" s="60"/>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -4334,7 +4336,7 @@
       <c r="Y48" s="60"/>
       <c r="Z48" s="60"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15">
       <c r="A49" s="60"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -4362,7 +4364,7 @@
       <c r="Y49" s="60"/>
       <c r="Z49" s="60"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15">
       <c r="A50" s="60"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -4390,7 +4392,7 @@
       <c r="Y50" s="60"/>
       <c r="Z50" s="60"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -4418,7 +4420,7 @@
       <c r="Y51" s="60"/>
       <c r="Z51" s="60"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
@@ -4446,7 +4448,7 @@
       <c r="Y52" s="60"/>
       <c r="Z52" s="60"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15">
       <c r="A53" s="60"/>
       <c r="B53" s="60"/>
       <c r="C53" s="60"/>
@@ -4474,7 +4476,7 @@
       <c r="Y53" s="60"/>
       <c r="Z53" s="60"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15">
       <c r="A54" s="60"/>
       <c r="B54" s="60"/>
       <c r="C54" s="60"/>
@@ -4502,7 +4504,7 @@
       <c r="Y54" s="60"/>
       <c r="Z54" s="60"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15">
       <c r="A55" s="60"/>
       <c r="B55" s="60"/>
       <c r="C55" s="60"/>
@@ -4530,7 +4532,7 @@
       <c r="Y55" s="60"/>
       <c r="Z55" s="60"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15">
       <c r="A56" s="60"/>
       <c r="B56" s="60"/>
       <c r="C56" s="60"/>
@@ -4558,7 +4560,7 @@
       <c r="Y56" s="60"/>
       <c r="Z56" s="60"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15">
       <c r="A57" s="60"/>
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
@@ -4586,7 +4588,7 @@
       <c r="Y57" s="60"/>
       <c r="Z57" s="60"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15">
       <c r="A58" s="60"/>
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
@@ -4614,7 +4616,7 @@
       <c r="Y58" s="60"/>
       <c r="Z58" s="60"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15">
       <c r="A59" s="60"/>
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
@@ -4642,7 +4644,7 @@
       <c r="Y59" s="60"/>
       <c r="Z59" s="60"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15">
       <c r="A60" s="60"/>
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
@@ -4670,7 +4672,7 @@
       <c r="Y60" s="60"/>
       <c r="Z60" s="60"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15">
       <c r="A61" s="60"/>
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
@@ -4698,7 +4700,7 @@
       <c r="Y61" s="60"/>
       <c r="Z61" s="60"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="60"/>
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
@@ -4726,7 +4728,7 @@
       <c r="Y62" s="60"/>
       <c r="Z62" s="60"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="60"/>
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
@@ -4754,7 +4756,7 @@
       <c r="Y63" s="60"/>
       <c r="Z63" s="60"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15">
       <c r="A64" s="60"/>
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
@@ -4782,7 +4784,7 @@
       <c r="Y64" s="60"/>
       <c r="Z64" s="60"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15">
       <c r="A65" s="60"/>
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
@@ -4810,7 +4812,7 @@
       <c r="Y65" s="60"/>
       <c r="Z65" s="60"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15">
       <c r="A66" s="60"/>
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
@@ -4838,7 +4840,7 @@
       <c r="Y66" s="60"/>
       <c r="Z66" s="60"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15">
       <c r="A67" s="60"/>
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
@@ -4866,7 +4868,7 @@
       <c r="Y67" s="60"/>
       <c r="Z67" s="60"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15">
       <c r="A68" s="60"/>
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
@@ -4894,7 +4896,7 @@
       <c r="Y68" s="60"/>
       <c r="Z68" s="60"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15">
       <c r="A69" s="60"/>
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
@@ -4922,7 +4924,7 @@
       <c r="Y69" s="60"/>
       <c r="Z69" s="60"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15">
       <c r="A70" s="60"/>
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
@@ -4950,7 +4952,7 @@
       <c r="Y70" s="60"/>
       <c r="Z70" s="60"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15">
       <c r="A71" s="60"/>
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
@@ -4978,7 +4980,7 @@
       <c r="Y71" s="60"/>
       <c r="Z71" s="60"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15">
       <c r="A72" s="60"/>
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
@@ -5006,7 +5008,7 @@
       <c r="Y72" s="60"/>
       <c r="Z72" s="60"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15">
       <c r="A73" s="60"/>
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
@@ -5034,7 +5036,7 @@
       <c r="Y73" s="60"/>
       <c r="Z73" s="60"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15">
       <c r="A74" s="60"/>
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
@@ -5062,7 +5064,7 @@
       <c r="Y74" s="60"/>
       <c r="Z74" s="60"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15">
       <c r="A75" s="60"/>
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
@@ -5090,7 +5092,7 @@
       <c r="Y75" s="60"/>
       <c r="Z75" s="60"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15">
       <c r="A76" s="60"/>
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
@@ -5118,7 +5120,7 @@
       <c r="Y76" s="60"/>
       <c r="Z76" s="60"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15">
       <c r="A77" s="60"/>
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
@@ -5146,7 +5148,7 @@
       <c r="Y77" s="60"/>
       <c r="Z77" s="60"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15">
       <c r="A78" s="60"/>
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
@@ -5174,7 +5176,7 @@
       <c r="Y78" s="60"/>
       <c r="Z78" s="60"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15">
       <c r="A79" s="60"/>
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
@@ -5202,7 +5204,7 @@
       <c r="Y79" s="60"/>
       <c r="Z79" s="60"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15">
       <c r="A80" s="60"/>
       <c r="B80" s="60"/>
       <c r="C80" s="60"/>
@@ -5230,7 +5232,7 @@
       <c r="Y80" s="60"/>
       <c r="Z80" s="60"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="15">
       <c r="A81" s="60"/>
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
@@ -5258,7 +5260,7 @@
       <c r="Y81" s="60"/>
       <c r="Z81" s="60"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15">
       <c r="A82" s="60"/>
       <c r="B82" s="60"/>
       <c r="C82" s="60"/>
@@ -5286,7 +5288,7 @@
       <c r="Y82" s="60"/>
       <c r="Z82" s="60"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="15">
       <c r="A83" s="60"/>
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
@@ -5314,7 +5316,7 @@
       <c r="Y83" s="60"/>
       <c r="Z83" s="60"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15">
       <c r="A84" s="60"/>
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
@@ -5342,7 +5344,7 @@
       <c r="Y84" s="60"/>
       <c r="Z84" s="60"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="15">
       <c r="A85" s="60"/>
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
@@ -5370,7 +5372,7 @@
       <c r="Y85" s="60"/>
       <c r="Z85" s="60"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15">
       <c r="A86" s="60"/>
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
@@ -5398,7 +5400,7 @@
       <c r="Y86" s="60"/>
       <c r="Z86" s="60"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15">
       <c r="A87" s="60"/>
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
@@ -5426,7 +5428,7 @@
       <c r="Y87" s="60"/>
       <c r="Z87" s="60"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="15">
       <c r="A88" s="60"/>
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
@@ -5454,7 +5456,7 @@
       <c r="Y88" s="60"/>
       <c r="Z88" s="60"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15">
       <c r="A89" s="60"/>
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
@@ -5482,7 +5484,7 @@
       <c r="Y89" s="60"/>
       <c r="Z89" s="60"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="15">
       <c r="A90" s="60"/>
       <c r="B90" s="60"/>
       <c r="C90" s="60"/>
@@ -5510,7 +5512,7 @@
       <c r="Y90" s="60"/>
       <c r="Z90" s="60"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="15">
       <c r="A91" s="60"/>
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
@@ -5538,7 +5540,7 @@
       <c r="Y91" s="60"/>
       <c r="Z91" s="60"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15">
       <c r="A92" s="60"/>
       <c r="B92" s="60"/>
       <c r="C92" s="60"/>
@@ -5566,7 +5568,7 @@
       <c r="Y92" s="60"/>
       <c r="Z92" s="60"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15">
       <c r="A93" s="60"/>
       <c r="B93" s="60"/>
       <c r="C93" s="60"/>
@@ -5594,7 +5596,7 @@
       <c r="Y93" s="60"/>
       <c r="Z93" s="60"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15">
       <c r="A94" s="60"/>
       <c r="B94" s="60"/>
       <c r="C94" s="60"/>
@@ -5622,7 +5624,7 @@
       <c r="Y94" s="60"/>
       <c r="Z94" s="60"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15">
       <c r="A95" s="60"/>
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
@@ -5650,7 +5652,7 @@
       <c r="Y95" s="60"/>
       <c r="Z95" s="60"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15">
       <c r="A96" s="60"/>
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
@@ -5678,7 +5680,7 @@
       <c r="Y96" s="60"/>
       <c r="Z96" s="60"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15">
       <c r="A97" s="60"/>
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
@@ -5706,7 +5708,7 @@
       <c r="Y97" s="60"/>
       <c r="Z97" s="60"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15">
       <c r="A98" s="60"/>
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
@@ -5734,7 +5736,7 @@
       <c r="Y98" s="60"/>
       <c r="Z98" s="60"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15">
       <c r="A99" s="60"/>
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
@@ -5773,30 +5775,30 @@
     <mergeCell ref="B30:D30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{3B3B10F0-C4F4-45BB-991C-B76F0ABC4880}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{DC3894CC-63DB-4515-AE86-F0165BA4B086}"/>
+    <hyperlink ref="B30" r:id="rId1" display="https://github.com/MaREI-EPMG/TIMES-Ireland-model"/>
+    <hyperlink ref="B32" r:id="rId2" display="https://creativecommons.org/licenses/by-nc-sa/4.0/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.4285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5856,8 +5858,8 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>2018</v>
+      <c r="G2" t="s">
+        <v>213</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -5872,13 +5874,13 @@
         <v>17</v>
       </c>
       <c r="L2">
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="M2">
-        <v>3.42465753424658E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0342465753424658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5897,8 +5899,8 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>2018</v>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -5913,13 +5915,13 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="M3">
-        <v>3.42465753424658E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0342465753424658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5938,8 +5940,8 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>2018</v>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -5954,13 +5956,13 @@
         <v>17</v>
       </c>
       <c r="L4">
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="M4">
-        <v>3.42465753424658E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0342465753424658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -5968,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -5979,8 +5981,8 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>2018</v>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -5995,13 +5997,13 @@
         <v>17</v>
       </c>
       <c r="L5">
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="M5">
-        <v>3.42465753424658E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0342465753424658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6018,10 +6020,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -6042,7 +6044,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6059,10 +6061,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -6083,7 +6085,7 @@
         <v>2.7679848891515602</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6100,10 +6102,10 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -6124,7 +6126,7 @@
         <v>2.7466471585410202</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6132,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6141,10 +6143,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -6167,23 +6169,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D26C6F6-7364-4BC5-A5DD-ABBD01511FAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D26C6F6-7364-4BC5-A5DD-ABBD01511FAF}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6241,10 +6243,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -6259,13 +6261,13 @@
         <v>17</v>
       </c>
       <c r="L2">
-        <v>2.5559498489728498</v>
+        <v>2.4973571887487398</v>
       </c>
       <c r="M2">
-        <v>2.5559498489728498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.4973571887487398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6273,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6282,10 +6284,10 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -6300,13 +6302,13 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>4.0979523881676903</v>
+        <v>4.3260777448279004</v>
       </c>
       <c r="M3">
-        <v>4.0979523881676903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.3260777448279004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6314,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6323,10 +6325,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -6347,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6364,10 +6366,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -6388,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6396,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6405,10 +6407,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -6429,7 +6431,7 @@
         <v>0.48784295359637803</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6446,10 +6448,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -6470,7 +6472,7 @@
         <v>0.37305637627958299</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6487,10 +6489,10 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -6511,7 +6513,7 @@
         <v>0.31709791983764601</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6519,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6528,10 +6530,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -6552,7 +6554,7 @@
         <v>1.2683916793505801</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -6560,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6569,10 +6571,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -6587,13 +6589,13 @@
         <v>17</v>
       </c>
       <c r="L10">
-        <v>34.2773280159549</v>
+        <v>33.491553664929803</v>
       </c>
       <c r="M10">
-        <v>34.2773280159549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>33.491553664929803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6610,10 +6612,10 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -6628,21 +6630,21 @@
         <v>17</v>
       </c>
       <c r="L11">
-        <v>54.9568131234806</v>
+        <v>58.016156280053501</v>
       </c>
       <c r="M11">
-        <v>54.9568131234806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58.016156280053501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6653,8 +6655,8 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12">
-        <v>2018</v>
+      <c r="G12" t="s">
+        <v>213</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -6669,22 +6671,22 @@
         <v>17</v>
       </c>
       <c r="L12">
-        <v>1.9199999999999998E-2</v>
+        <v>0.019199999999999998</v>
       </c>
       <c r="M12">
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.019199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
         <v>251</v>
       </c>
-      <c r="C13" t="s">
-        <v>245</v>
-      </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
@@ -6694,8 +6696,8 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13">
-        <v>2018</v>
+      <c r="G13" t="s">
+        <v>213</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -6710,21 +6712,21 @@
         <v>17</v>
       </c>
       <c r="L13">
-        <v>7.1999999999999995E-2</v>
+        <v>0.071999999999999995</v>
       </c>
       <c r="M13">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.071999999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6735,8 +6737,8 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14">
-        <v>2018</v>
+      <c r="G14" t="s">
+        <v>213</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -6757,15 +6759,15 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -6776,8 +6778,8 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15">
-        <v>2018</v>
+      <c r="G15" t="s">
+        <v>213</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -6792,37 +6794,37 @@
         <v>17</v>
       </c>
       <c r="L15">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0047999999999999996</v>
       </c>
       <c r="M15">
-        <v>4.7999999999999996E-3</v>
+        <v>0.0047999999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90C09D7-D00C-4C75-A70B-C8533DD5434C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90C09D7-D00C-4C75-A70B-C8533DD5434C}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A3:C46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="56.5703125" customWidth="1"/>
-    <col min="9" max="9" width="101.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+    <col min="2" max="3" width="27.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="42.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="56.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="101.571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -6833,14 +6835,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.75">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="40"/>
       <c r="B5" s="77" t="str">
         <f>"Veda Fill table"</f>
@@ -6848,24 +6850,24 @@
       </c>
       <c r="C5" s="78"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="27"/>
       <c r="B6" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="80"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15">
       <c r="A7" s="28"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.75">
       <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="30" t="s">
         <v>52</v>
       </c>
@@ -6874,7 +6876,7 @@
       </c>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="33" t="s">
         <v>52</v>
       </c>
@@ -6883,19 +6885,19 @@
       </c>
       <c r="C10" s="35"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="36"/>
       <c r="B11" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="36"/>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="21">
       <c r="A14" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
@@ -6906,14 +6908,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="38" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="4" t="s">
         <v>63</v>
       </c>
@@ -6931,14 +6933,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -6956,7 +6958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -6965,14 +6967,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -7026,7 +7028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -7035,12 +7037,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="15">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -7051,7 +7053,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -7073,7 +7075,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -7084,7 +7086,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -7106,7 +7108,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -7117,7 +7119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15">
       <c r="A43" s="1" t="s">
         <v>112</v>
       </c>
@@ -7172,7 +7174,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15">
       <c r="A46" s="4" t="s">
         <v>121</v>
       </c>
@@ -7211,43 +7213,43 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.8571428571429" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.14285714285714" style="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -7281,12 +7283,12 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5" si="0">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
+        <f t="shared" si="0" ref="B5">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
         <v>S-SH-PU_COA*</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7305,16 +7307,16 @@
         <v>COA</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5" si="1">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
+        <f t="shared" si="1" ref="H5">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" ref="B6:B17" si="2">"S-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <f t="shared" si="2" ref="B6:B17">"S-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
         <v>S-SH-PU_LPG*</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -7333,11 +7335,11 @@
         <v>LPG</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" ref="H6:H17" si="3">"S-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
+        <f t="shared" si="3" ref="H6:H17">"S-SH-"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -7477,12 +7479,12 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f t="shared" ref="B12:B13" si="4">"S-SH-"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
+        <f t="shared" si="4" ref="B12:B13">"S-SH-"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
         <v>S-SH-PU_HET*</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -7505,7 +7507,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -7525,15 +7527,15 @@
         <v>CS</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13:G20" si="5">G5</f>
+        <f t="shared" si="5" ref="G13:G20">G5</f>
         <v>COA</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="6">"S-SH-"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
+        <f t="shared" si="6" ref="H13">"S-SH-"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -7589,7 +7591,7 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7617,7 +7619,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -7645,7 +7647,7 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -7673,7 +7675,7 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -7701,12 +7703,12 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="12" t="str">
-        <f t="shared" ref="B20" si="7">"S-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
+        <f t="shared" si="7" ref="B20">"S-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
         <v>S-SH-CS_HET*</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -7729,7 +7731,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
@@ -7740,17 +7742,17 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" ref="B22" si="8">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
+        <f t="shared" si="8" ref="B22">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
         <v>S-WH-PU_COA*</v>
       </c>
       <c r="D22" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H22,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F22" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -7761,21 +7763,21 @@
         <v>COA</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" ref="H22" si="9">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
+        <f t="shared" si="9" ref="H22">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" ref="B23:B35" si="10">"S-WH-"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
+        <f t="shared" si="10" ref="B23:B35">"S-WH-"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
         <v>S-WH-PU_LPG*</v>
       </c>
       <c r="D23" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H23,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -7786,11 +7788,11 @@
         <v>LPG</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" ref="H23:H35" si="11">"S-WH-"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
+        <f t="shared" si="11" ref="H23:H35">"S-WH-"&amp;F23&amp;"_"&amp;G23&amp;"*"</f>
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -7800,7 +7802,7 @@
       </c>
       <c r="D24" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H24,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F24" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -7815,7 +7817,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -7825,7 +7827,7 @@
       </c>
       <c r="D25" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H25,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F25" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -7840,7 +7842,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -7850,7 +7852,7 @@
       </c>
       <c r="D26" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H26,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -7865,7 +7867,7 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -7875,7 +7877,7 @@
       </c>
       <c r="D27" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H27,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -7890,7 +7892,7 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -7901,7 +7903,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="8">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H28,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F28" s="4" t="str">
         <f>Legend!$C$18</f>
@@ -7916,32 +7918,32 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" ref="B29" si="12">"S-WH-"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
+        <f t="shared" si="12" ref="B29">"S-WH-"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
         <v>S-WH-CS_COA*</v>
       </c>
       <c r="D29" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H29,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>Legend!$C$17</f>
         <v>CS</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" ref="G29:G35" si="13">G22</f>
+        <f t="shared" si="13" ref="G29:G35">G22</f>
         <v>COA</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" ref="H29" si="14">"S-WH-"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
+        <f t="shared" si="14" ref="H29">"S-WH-"&amp;F29&amp;"_"&amp;G29&amp;"*"</f>
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -7951,7 +7953,7 @@
       </c>
       <c r="D30" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H30,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -7966,7 +7968,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -7976,7 +7978,7 @@
       </c>
       <c r="D31" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H31,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -7991,7 +7993,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -8001,7 +8003,7 @@
       </c>
       <c r="D32" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H32,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F32" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8016,7 +8018,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -8026,7 +8028,7 @@
       </c>
       <c r="D33" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H33,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8041,7 +8043,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -8051,7 +8053,7 @@
       </c>
       <c r="D34" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H34,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F34" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8066,7 +8068,7 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="4" t="s">
         <v>14</v>
       </c>
@@ -8077,7 +8079,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="8">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H35,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F35" s="4" t="str">
         <f>Legend!$C$17</f>
@@ -8092,7 +8094,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
@@ -8103,20 +8105,20 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" ref="B37:B42" si="15">"S-SH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <f t="shared" si="15" ref="B37:B42">"S-SH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
         <v>S-SH-PU_COA*</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D37" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H37,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F37" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8127,11 +8129,11 @@
         <v>COA</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" ref="H37:H49" si="16">"S-WH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <f t="shared" si="16" ref="H37:H49">"S-WH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -8140,11 +8142,11 @@
         <v>S-SH-PU_LPG*</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D38" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H38,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8155,11 +8157,11 @@
         <v>LPG</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f t="shared" ref="H38:H39" si="17">"S-WH-"&amp;F38&amp;"_"&amp;G38&amp;"*"</f>
+        <f t="shared" si="17" ref="H38:H39">"S-WH-"&amp;F38&amp;"_"&amp;G38&amp;"*"</f>
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -8168,11 +8170,11 @@
         <v>S-SH-PU_OIL*</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D39" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H39,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8187,7 +8189,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -8196,11 +8198,11 @@
         <v>S-SH-PU_GAS*</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D40" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H40,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F40" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8211,11 +8213,11 @@
         <v>GAS</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" ref="H40" si="18">"S-WH-"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
+        <f t="shared" si="18" ref="H40">"S-WH-"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -8224,11 +8226,11 @@
         <v>S-SH-PU_BIO*</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D41" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H41,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F41" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8239,11 +8241,11 @@
         <v>BIO</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" ref="H41" si="19">"S-WH-"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
+        <f t="shared" si="19" ref="H41">"S-WH-"&amp;F41&amp;"_"&amp;G41&amp;"*"</f>
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -8252,11 +8254,11 @@
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D42" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H42,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F42" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8271,20 +8273,20 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="4" t="str">
-        <f t="shared" ref="B43" si="20">"S-SH-"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
+        <f t="shared" si="20" ref="B43">"S-SH-"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
         <v>S-SH-PU_HET*</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D43" s="8">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H43,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F43" s="4" t="str">
         <f>Legend!$C$18</f>
@@ -8299,27 +8301,27 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f t="shared" ref="B44:B49" si="21">"S-SH-"&amp;F44&amp;"_"&amp;G44&amp;"*"</f>
+        <f t="shared" si="21" ref="B44:B49">"S-SH-"&amp;F44&amp;"_"&amp;G44&amp;"*"</f>
         <v>S-SH-CS_COA*</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D44" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H44,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F44" s="1" t="str">
         <f>Legend!$C$17</f>
         <v>CS</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" ref="G44:G50" si="22">G37</f>
+        <f t="shared" si="22" ref="G44:G50">G37</f>
         <v>COA</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -8327,7 +8329,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -8336,11 +8338,11 @@
         <v>S-SH-CS_LPG*</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D45" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H45,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F45" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8355,7 +8357,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -8364,11 +8366,11 @@
         <v>S-SH-CS_OIL*</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D46" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H46,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8383,7 +8385,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -8392,11 +8394,11 @@
         <v>S-SH-CS_GAS*</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D47" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H47,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F47" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8411,7 +8413,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -8420,11 +8422,11 @@
         <v>S-SH-CS_BIO*</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D48" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H48,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8439,7 +8441,7 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -8448,11 +8450,11 @@
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D49" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H49,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F49" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8467,20 +8469,20 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="12" t="str">
-        <f t="shared" ref="B50" si="23">"S-SH-"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <f t="shared" si="23" ref="B50">"S-SH-"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
         <v>S-SH-CS_HET*</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D50" s="13">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H50,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="F50" s="12" t="str">
         <f>Legend!$C$17</f>
@@ -8495,7 +8497,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15">
       <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
@@ -8506,7 +8508,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -8516,7 +8518,7 @@
       </c>
       <c r="D52" s="7">
         <f>SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,AFA!H52,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"AFA")</f>
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="F52" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8530,7 +8532,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -8541,7 +8543,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="8">
         <f>SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,AFA!H53,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"AFA")</f>
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="F53" s="4" t="str">
         <f>Legend!$C$17</f>
@@ -8555,7 +8557,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15">
       <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
@@ -8566,20 +8568,20 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f t="shared" ref="B55:B56" si="24">"S-SH-"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <f t="shared" si="24" ref="B55:B56">"S-SH-"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D55" s="7">
         <f>SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,AFA!H55,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"AFA")</f>
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="F55" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -8593,7 +8595,7 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="12" t="s">
         <v>37</v>
       </c>
@@ -8602,11 +8604,11 @@
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D56" s="13">
         <f>SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,AFA!H56,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"AFA")</f>
-        <v>3.42465753424658E-2</v>
+        <v>0.0342465753424658</v>
       </c>
       <c r="F56" s="12" t="str">
         <f>Legend!$C$17</f>
@@ -8622,44 +8624,44 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60206D-3DFE-49C4-BDD8-4C53C8B3D248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60206D-3DFE-49C4-BDD8-4C53C8B3D248}">
   <sheetPr codeName="Sheet3">
-    <tabColor theme="9" tint="0.59999389629810485"/>
+    <tabColor theme="9" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.8571428571429" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.14285714285714" style="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8682,7 +8684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -8693,12 +8695,12 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:B17" si="0">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
+        <f t="shared" si="0" ref="B5:B17">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
         <v>S-SH-PU_COA*</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -8717,13 +8719,13 @@
         <v>COA</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H17" si="1">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
+        <f t="shared" si="1" ref="H5:H17">"S-SH-"&amp;F5&amp;"_"&amp;G5&amp;"*"</f>
         <v>S-SH-PU_COA*</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8749,9 +8751,9 @@
         <v>S-SH-PU_LPG*</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8777,9 +8779,9 @@
         <v>S-SH-PU_OIL*</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8805,9 +8807,9 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8833,9 +8835,9 @@
         <v>S-SH-PU_BIO*</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>"S-SH-"&amp;F10&amp;"_"&amp;G10&amp;"*, -*N1"</f>
@@ -8861,9 +8863,9 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>"S-SH-"&amp;F11&amp;"_"&amp;G11&amp;"*N1"</f>
@@ -8889,12 +8891,12 @@
         <v>S-SH-PU_ELC_X0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f t="shared" ref="B12:B13" si="2">"S-SH-"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
+        <f t="shared" si="2" ref="B12:B13">"S-SH-"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
         <v>S-SH-PU_HET*</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -8917,7 +8919,7 @@
         <v>S-SH-PU_GAS*</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -8937,17 +8939,17 @@
         <v>CS</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" ref="G13:G20" si="3">G5</f>
+        <f t="shared" si="3" ref="G13:G20">G5</f>
         <v>COA</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" ref="H13" si="4">"S-SH-"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
+        <f t="shared" si="4" ref="H13">"S-SH-"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
         <v>S-SH-CS_COA*</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -8973,9 +8975,9 @@
         <v>S-SH-CS_LPG*</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9001,9 +9003,9 @@
         <v>S-SH-CS_OIL*</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9029,9 +9031,9 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9057,9 +9059,9 @@
         <v>S-SH-CS_BIO*</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>"S-SH-"&amp;F18&amp;"_"&amp;G18&amp;"*, -*N1"</f>
@@ -9085,9 +9087,9 @@
         <v>S-SH-CS_ELC-HP*</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>"S-SH-"&amp;F19&amp;"_"&amp;G19&amp;"*N1"</f>
@@ -9113,12 +9115,12 @@
         <v>S-SH-CS_ELC_X0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B20" s="12" t="str">
-        <f t="shared" ref="B20" si="5">"S-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
+        <f t="shared" si="5" ref="B20">"S-SH-"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
         <v>S-SH-CS_HET*</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -9141,7 +9143,7 @@
         <v>S-SH-CS_GAS*</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
@@ -9152,16 +9154,16 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" ref="B22:B35" si="6">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
+        <f t="shared" si="6" ref="B22:B35">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
         <v>S-WH-PU_COA*</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H22,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9176,20 +9178,20 @@
         <v>COA</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" ref="H22:H35" si="7">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
+        <f t="shared" si="7" ref="H22:H35">"S-WH-"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_LPG*</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H23,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9208,7 +9210,7 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9217,7 +9219,7 @@
         <v>S-WH-PU_OIL*</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D24" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H24,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9236,16 +9238,16 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_GAS*</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D25" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H25,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9264,16 +9266,16 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_BIO*</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D26" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H26,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9292,16 +9294,16 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_SOL*</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H27,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9320,16 +9322,16 @@
         <v>S-WH-PU_SOL*</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-PU_ELC*</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D28" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H28,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9348,7 +9350,7 @@
         <v>S-WH-PU_ELC*</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>S-WH-CS_COA*</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D29" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H29,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9368,7 +9370,7 @@
         <v>CS</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" ref="G29:G35" si="8">G22</f>
+        <f t="shared" si="8" ref="G29:G35">G22</f>
         <v>COA</v>
       </c>
       <c r="H29" s="1" t="str">
@@ -9376,16 +9378,16 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_LPG*</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D30" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H30,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9404,7 +9406,7 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -9413,7 +9415,7 @@
         <v>S-WH-CS_OIL*</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D31" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H31,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9432,16 +9434,16 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_GAS*</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D32" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H32,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9460,16 +9462,16 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15">
       <c r="A33" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_BIO*</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D33" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H33,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9488,16 +9490,16 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_SOL*</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D34" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H34,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9516,16 +9518,16 @@
         <v>S-WH-CS_SOL*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="6"/>
         <v>S-WH-CS_ELC*</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D35" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H35,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9544,7 +9546,7 @@
         <v>S-WH-CS_ELC*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
@@ -9555,16 +9557,16 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" ref="B37:B49" si="9">"S-SH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <f t="shared" si="9" ref="B37:B49">"S-SH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
         <v>S-SH-PU_COA*</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H37,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9579,20 +9581,20 @@
         <v>COA</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" ref="H37:H48" si="10">"S-WH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
+        <f t="shared" si="10" ref="H37:H48">"S-WH-"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
         <v>S-WH-PU_COA*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_LPG*</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D38" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H38,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9611,16 +9613,16 @@
         <v>S-WH-PU_LPG*</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_OIL*</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D39" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H39,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9639,16 +9641,16 @@
         <v>S-WH-PU_OIL*</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_GAS*</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D40" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H40,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9667,16 +9669,16 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_BIO*</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D41" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H41,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9695,16 +9697,16 @@
         <v>S-WH-PU_BIO*</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D42" s="58" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H42,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
@@ -9723,16 +9725,16 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B43" s="4" t="str">
-        <f t="shared" ref="B43" si="11">"S-SH-"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
+        <f t="shared" si="11" ref="B43">"S-SH-"&amp;F43&amp;"_"&amp;G43&amp;"*"</f>
         <v>S-SH-PU_HET*</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D43" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H43,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9751,7 +9753,7 @@
         <v>S-WH-PU_GAS*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -9760,7 +9762,7 @@
         <v>S-SH-CS_COA*</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D44" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H44,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9771,7 +9773,7 @@
         <v>CS</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f t="shared" ref="G44:G50" si="12">G37</f>
+        <f t="shared" si="12" ref="G44:G50">G37</f>
         <v>COA</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -9779,16 +9781,16 @@
         <v>S-WH-CS_COA*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15">
       <c r="A45" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_LPG*</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D45" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H45,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9807,16 +9809,16 @@
         <v>S-WH-CS_LPG*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15">
       <c r="A46" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_OIL*</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D46" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H46,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9835,16 +9837,16 @@
         <v>S-WH-CS_OIL*</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15">
       <c r="A47" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_GAS*</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D47" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H47,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9863,16 +9865,16 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15">
       <c r="A48" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_BIO*</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D48" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H48,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9891,16 +9893,16 @@
         <v>S-WH-CS_BIO*</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15">
       <c r="A49" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="9"/>
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D49" s="58" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,EFF!H49,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"EFF")</f>
@@ -9919,16 +9921,16 @@
         <v>S-SH-PU_ELC-HP*</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B50" s="12" t="str">
-        <f t="shared" ref="B50" si="13">"S-SH-"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
+        <f t="shared" si="13" ref="B50">"S-SH-"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
         <v>S-SH-CS_HET*</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D50" s="13" t="str">
         <f>"*"&amp;SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,EFF!H50,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"EFF")</f>
@@ -9947,7 +9949,7 @@
         <v>S-WH-CS_GAS*</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15">
       <c r="A51" s="9" t="s">
         <v>28</v>
       </c>
@@ -9958,16 +9960,16 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15">
       <c r="A52" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B52" s="1" t="str">
         <f>"S-SC-"&amp;F52&amp;"_"&amp;G52&amp;"*"</f>
         <v>S-SC-PU_ELC*</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D52" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H52,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -9985,16 +9987,16 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15">
       <c r="A53" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B53" s="4" t="str">
         <f>"S-SC-"&amp;F53&amp;"_"&amp;G53&amp;"*"</f>
         <v>S-SC-CS_ELC*</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D53" s="8" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H53,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -10012,7 +10014,7 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15">
       <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
@@ -10023,16 +10025,16 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15">
       <c r="A55" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f t="shared" ref="B55:B56" si="14">"S-SH-"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
+        <f t="shared" si="14" ref="B55:B56">"S-SH-"&amp;F55&amp;"_"&amp;G55&amp;"*"</f>
         <v>S-SH-PU_ELC*</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D55" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H55,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -10050,16 +10052,16 @@
         <v>S-SC-PU_ELC*</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B56" s="12" t="str">
         <f t="shared" si="14"/>
         <v>S-SH-CS_ELC*</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D56" s="13" t="str">
         <f>"*"&amp;SUMIFS('BY_S-SC'!$L$2:$L$100,'BY_S-SC'!$C$2:$C$100,EFF!H56,'BY_S-SC'!$A$2:$A$100,"BASE",'BY_S-SC'!$B$2:$B$100,"EFF")</f>
@@ -10077,9 +10079,9 @@
         <v>S-SC-CS_ELC*</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15">
       <c r="A57" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -10088,17 +10090,17 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f t="shared" ref="B58:B63" si="15">"S-"&amp;G58&amp;"-"&amp;F58&amp;"*"</f>
+        <f t="shared" si="15" ref="B58:B63">"S-"&amp;G58&amp;"-"&amp;F58&amp;"*"</f>
         <v>S-REF-PU*</v>
       </c>
       <c r="D58" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!H58,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")</f>
-        <v>*54.9568131234806</v>
+        <v>*58.0161562800535</v>
       </c>
       <c r="F58" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -10109,11 +10111,11 @@
         <v>REF</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" ref="H58:H63" si="16">"S-"&amp;G58&amp;"-"&amp;F58&amp;"*"</f>
+        <f t="shared" si="16" ref="H58:H63">"S-"&amp;G58&amp;"-"&amp;F58&amp;"*"</f>
         <v>S-REF-PU*</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -10123,7 +10125,7 @@
       </c>
       <c r="D59" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!H59,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")</f>
-        <v>*34.2773280159549</v>
+        <v>*33.4915536649298</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -10138,7 +10140,7 @@
         <v>S-REF-CS*</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -10163,7 +10165,7 @@
         <v>S-OEL-PU*</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -10188,7 +10190,7 @@
         <v>S-OEL-CS*</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -10198,7 +10200,7 @@
       </c>
       <c r="D62" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!H62,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")</f>
-        <v>*4.09795238816769</v>
+        <v>*4.3260777448279</v>
       </c>
       <c r="F62" s="1" t="str">
         <f>Legend!$C$18</f>
@@ -10216,10 +10218,10 @@
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
       <c r="M62" s="55" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -10229,7 +10231,7 @@
       </c>
       <c r="D63" s="7" t="str">
         <f>"*"&amp;SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!H63,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")</f>
-        <v>*2.55594984897285</v>
+        <v>*2.49735718874874</v>
       </c>
       <c r="F63" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -10257,10 +10259,10 @@
       </c>
       <c r="M63" s="56">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L63,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L63,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
-        <v>9.366584709050458E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.009366584709050458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -10298,10 +10300,10 @@
       </c>
       <c r="M64" s="56">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L64,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L64,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
-        <v>2.6860059092129972E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.026860059092129972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1">
       <c r="A65" s="12" t="s">
         <v>127</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>0.12176560121765607</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15">
       <c r="A66" s="1" t="s">
         <v>30</v>
       </c>
@@ -10361,54 +10363,54 @@
       </c>
       <c r="M66" s="56">
         <f>SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L66,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"EFF")*SUMIFS('BY_S-EAP'!$L$2:$L$100,'BY_S-EAP'!$C$2:$C$100,EFF!L66,'BY_S-EAP'!$A$2:$A$100,"BASE",'BY_S-EAP'!$B$2:$B$100,"Stock")</f>
-        <v>6.0882800608827838E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0060882800608827838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
-    <tabColor theme="5" tint="0.59999389629810485"/>
+    <tabColor theme="5" tint="0.599990010261536"/>
   </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.14285714285714" style="16"/>
     <col min="2" max="2" width="11" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
+    <col min="3" max="3" width="14.4285714285714" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="16"/>
+    <col min="6" max="6" width="10.5714285714286" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42857142857143" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.57142857142857" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" ht="23.25">
       <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15">
       <c r="B3" s="6" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -10419,7 +10421,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
@@ -10448,7 +10450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15">
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
@@ -10469,7 +10471,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15">
       <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
@@ -10490,10 +10492,10 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" s="0" customFormat="1" ht="15"/>
+    <row r="8" spans="2:10" ht="15">
       <c r="B8" s="6" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -10504,7 +10506,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1">
       <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
@@ -10533,7 +10535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15">
       <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
@@ -10554,7 +10556,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15">
       <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
@@ -10575,10 +10577,10 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" s="0" customFormat="1" ht="15"/>
+    <row r="13" spans="2:10" ht="15">
       <c r="B13" s="6" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -10589,7 +10591,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
@@ -10618,7 +10620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="15">
       <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
@@ -10639,7 +10641,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="15">
       <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
@@ -10660,9 +10662,9 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="15">
       <c r="B18" s="6" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -10673,7 +10675,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1">
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
@@ -10702,7 +10704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15">
       <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
@@ -10718,18 +10720,18 @@
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="15">
       <c r="B21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E21" s="18">
         <v>2018</v>
@@ -10739,57 +10741,57 @@
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7017402B-A73C-4EBC-804A-06AD84600B4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7017402B-A73C-4EBC-804A-06AD84600B4E}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="3.14285714285714" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.14285714285714" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.14285714285714" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.57142857142857" customWidth="1"/>
+    <col min="25" max="25" width="6.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.14285714285714" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.57142857142857" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30" ht="15">
       <c r="C3" s="41" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10903,12 +10905,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -11023,7 +11025,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -11036,7 +11038,7 @@
         <v>*National</v>
       </c>
       <c r="E6" s="41" t="str">
-        <f t="shared" ref="E6:AD6" si="0">"*"&amp;E5</f>
+        <f t="shared" si="0" ref="E6:AD6">"*"&amp;E5</f>
         <v>*IE-CW</v>
       </c>
       <c r="F6" s="41" t="str">
@@ -11140,7 +11142,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -11153,7 +11155,7 @@
         <v>National</v>
       </c>
       <c r="E7" s="41" t="str">
-        <f t="shared" ref="E7:AD7" si="1">E5</f>
+        <f t="shared" si="1" ref="E7:AD7">E5</f>
         <v>IE-CW</v>
       </c>
       <c r="F7" s="41" t="str">
@@ -11257,7 +11259,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
       <c r="A10" s="43" t="s">
         <v>133</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="44" t="s">
         <v>135</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="45" t="s">
         <v>137</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" s="45" t="s">
         <v>139</v>
       </c>
@@ -11289,7 +11291,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="45" t="s">
         <v>141</v>
       </c>
@@ -11297,7 +11299,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="45" t="s">
         <v>143</v>
       </c>
@@ -11305,7 +11307,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="45" t="s">
         <v>145</v>
       </c>
@@ -11313,7 +11315,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15">
       <c r="A17" s="45" t="s">
         <v>147</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15">
       <c r="A18" s="45" t="s">
         <v>149</v>
       </c>
@@ -11329,7 +11331,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15">
       <c r="A19" s="45" t="s">
         <v>151</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15">
       <c r="A20" s="45" t="s">
         <v>153</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15">
       <c r="A21" s="45" t="s">
         <v>155</v>
       </c>
@@ -11353,7 +11355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" s="45" t="s">
         <v>157</v>
       </c>
@@ -11361,7 +11363,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" s="45" t="s">
         <v>159</v>
       </c>
@@ -11369,7 +11371,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15">
       <c r="A24" s="45" t="s">
         <v>161</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15">
       <c r="A25" s="45" t="s">
         <v>163</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15">
       <c r="A26" s="45" t="s">
         <v>165</v>
       </c>
@@ -11393,7 +11395,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15">
       <c r="A27" s="45" t="s">
         <v>167</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15">
       <c r="A28" s="45" t="s">
         <v>169</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15">
       <c r="A29" s="45" t="s">
         <v>171</v>
       </c>
@@ -11417,7 +11419,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15">
       <c r="A30" s="45" t="s">
         <v>173</v>
       </c>
@@ -11425,7 +11427,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15">
       <c r="A31" s="45" t="s">
         <v>175</v>
       </c>
@@ -11433,7 +11435,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15">
       <c r="A32" s="45" t="s">
         <v>177</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15">
       <c r="A33" s="45" t="s">
         <v>179</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15">
       <c r="A34" s="45" t="s">
         <v>181</v>
       </c>
@@ -11457,7 +11459,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15">
       <c r="A35" s="45" t="s">
         <v>183</v>
       </c>
@@ -11465,7 +11467,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15">
       <c r="A36" s="45" t="s">
         <v>185</v>
       </c>
@@ -11473,14 +11475,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" s="46" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="1" r:id="rId4"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11488,8 +11490,8 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId4" name="Drop Down 1">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+            <control shapeId="3073" r:id="rId1" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" linkedCell="$A$4" listFillRange="$A$5:$A$7" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -11515,45 +11517,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB4249C-0490-477F-A930-E3E0809B104E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB4249C-0490-477F-A930-E3E0809B104E}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B3:AA7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14428571428571" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.42857142857143" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="2.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="3.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.57142857142857" customWidth="1"/>
+    <col min="8" max="8" width="2.57142857142857" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.57142857142857" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.57142857142857" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.42857142857143" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.57142857142857" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.42857142857143" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.57142857142857" style="48" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42857142857143" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.57142857142857" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="2.57142857142857" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="3.42857142857143" style="48" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3.57142857142857" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" ht="15">
       <c r="B3" s="47" t="s">
         <v>188</v>
       </c>
@@ -11577,7 +11579,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1">
       <c r="B4" s="50" t="s">
         <v>189</v>
       </c>
@@ -11623,7 +11625,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:27" ht="15">
       <c r="C5" s="53" t="s">
         <v>30</v>
       </c>
@@ -11655,7 +11657,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="10:27" ht="15">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -11675,7 +11677,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:27" ht="15">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -11697,26 +11699,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5714285714286" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -11757,7 +11759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11765,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11776,8 +11778,8 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>2018</v>
+      <c r="G2" t="s">
+        <v>213</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -11798,7 +11800,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11806,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11817,8 +11819,8 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>2018</v>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -11839,7 +11841,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -11847,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11858,8 +11860,8 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>2018</v>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -11880,7 +11882,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11888,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11899,8 +11901,8 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>2018</v>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -11921,7 +11923,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -11929,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11940,8 +11942,8 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>2018</v>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -11962,7 +11964,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -11970,7 +11972,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -11981,8 +11983,8 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7">
-        <v>2018</v>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -12003,7 +12005,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12011,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12022,8 +12024,8 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
-        <v>2018</v>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -12044,7 +12046,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12052,7 +12054,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12063,8 +12065,8 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9">
-        <v>2018</v>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -12085,7 +12087,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12093,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12104,8 +12106,8 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10">
-        <v>2018</v>
+      <c r="G10" t="s">
+        <v>213</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -12126,7 +12128,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12134,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12145,8 +12147,8 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11">
-        <v>2018</v>
+      <c r="G11" t="s">
+        <v>213</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -12167,7 +12169,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12175,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12186,8 +12188,8 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12">
-        <v>2018</v>
+      <c r="G12" t="s">
+        <v>213</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -12208,7 +12210,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12216,7 +12218,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12227,8 +12229,8 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13">
-        <v>2018</v>
+      <c r="G13" t="s">
+        <v>213</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -12249,7 +12251,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12257,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12268,8 +12270,8 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14">
-        <v>2018</v>
+      <c r="G14" t="s">
+        <v>213</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -12290,7 +12292,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12298,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12309,8 +12311,8 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15">
-        <v>2018</v>
+      <c r="G15" t="s">
+        <v>213</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -12331,7 +12333,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12339,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12350,8 +12352,8 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G16">
-        <v>2018</v>
+      <c r="G16" t="s">
+        <v>213</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
@@ -12372,7 +12374,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12380,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12391,8 +12393,8 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="G17">
-        <v>2018</v>
+      <c r="G17" t="s">
+        <v>213</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -12413,7 +12415,7 @@
         <v>0.114155251141553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -12421,7 +12423,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12430,10 +12432,10 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G18" t="s">
+        <v>213</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -12454,7 +12456,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12462,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12471,10 +12473,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
+        <v>213</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -12489,13 +12491,13 @@
         <v>17</v>
       </c>
       <c r="L19">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M19">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12512,10 +12514,10 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G20" t="s">
+        <v>213</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -12530,13 +12532,13 @@
         <v>17</v>
       </c>
       <c r="L20">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="M20">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12544,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12553,10 +12555,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>213</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
@@ -12577,7 +12579,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12594,10 +12596,10 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
@@ -12618,7 +12620,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12626,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12635,10 +12637,10 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
@@ -12653,13 +12655,13 @@
         <v>17</v>
       </c>
       <c r="L23">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M23">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12676,10 +12678,10 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>213</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -12700,7 +12702,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12717,10 +12719,10 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>213</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
@@ -12735,13 +12737,13 @@
         <v>17</v>
       </c>
       <c r="L25">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M25">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -12749,7 +12751,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12758,10 +12760,10 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>213</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -12782,7 +12784,7 @@
         <v>0.63490443337371305</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -12790,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12799,10 +12801,10 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -12817,13 +12819,13 @@
         <v>17</v>
       </c>
       <c r="L27">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M27">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -12831,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12840,10 +12842,10 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>213</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
@@ -12858,13 +12860,13 @@
         <v>17</v>
       </c>
       <c r="L28">
-        <v>2.1</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -12872,7 +12874,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12881,10 +12883,10 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>213</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
@@ -12905,7 +12907,7 @@
         <v>0.81595511259153497</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -12913,7 +12915,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12922,10 +12924,10 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>213</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -12946,7 +12948,7 @@
         <v>0.77299617086321304</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -12954,7 +12956,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12963,10 +12965,10 @@
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>213</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -12981,13 +12983,13 @@
         <v>17</v>
       </c>
       <c r="L31">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M31">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -12995,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13004,10 +13006,10 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G32" t="s">
+        <v>213</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
@@ -13028,7 +13030,7 @@
         <v>0.65835584489725196</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -13036,7 +13038,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13045,10 +13047,10 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
@@ -13063,33 +13065,33 @@
         <v>17</v>
       </c>
       <c r="L33">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M33">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -13130,7 +13132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -13138,7 +13140,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13149,8 +13151,8 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>2018</v>
+      <c r="G2" t="s">
+        <v>213</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -13165,13 +13167,13 @@
         <v>17</v>
       </c>
       <c r="L2">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M2">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13190,8 +13192,8 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>2018</v>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -13206,13 +13208,13 @@
         <v>17</v>
       </c>
       <c r="L3">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M3">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13220,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13231,8 +13233,8 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>2018</v>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -13247,13 +13249,13 @@
         <v>17</v>
       </c>
       <c r="L4">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M4">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -13261,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13272,8 +13274,8 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>2018</v>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -13288,13 +13290,13 @@
         <v>17</v>
       </c>
       <c r="L5">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M5">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13302,7 +13304,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13313,8 +13315,8 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>2018</v>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -13329,13 +13331,13 @@
         <v>17</v>
       </c>
       <c r="L6">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M6">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -13343,7 +13345,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13354,8 +13356,8 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7">
-        <v>2018</v>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -13370,13 +13372,13 @@
         <v>17</v>
       </c>
       <c r="L7">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M7">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -13384,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13395,8 +13397,8 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
-        <v>2018</v>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -13411,13 +13413,13 @@
         <v>17</v>
       </c>
       <c r="L8">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M8">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -13425,7 +13427,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13436,8 +13438,8 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9">
-        <v>2018</v>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -13452,13 +13454,13 @@
         <v>17</v>
       </c>
       <c r="L9">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M9">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -13466,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13477,8 +13479,8 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10">
-        <v>2018</v>
+      <c r="G10" t="s">
+        <v>213</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -13493,13 +13495,13 @@
         <v>17</v>
       </c>
       <c r="L10">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M10">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -13507,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13518,8 +13520,8 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11">
-        <v>2018</v>
+      <c r="G11" t="s">
+        <v>213</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -13534,13 +13536,13 @@
         <v>17</v>
       </c>
       <c r="L11">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M11">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -13548,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13559,8 +13561,8 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12">
-        <v>2018</v>
+      <c r="G12" t="s">
+        <v>213</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -13575,13 +13577,13 @@
         <v>17</v>
       </c>
       <c r="L12">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M12">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13589,7 +13591,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13600,8 +13602,8 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13">
-        <v>2018</v>
+      <c r="G13" t="s">
+        <v>213</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -13616,13 +13618,13 @@
         <v>17</v>
       </c>
       <c r="L13">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M13">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -13630,7 +13632,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13641,8 +13643,8 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14">
-        <v>2018</v>
+      <c r="G14" t="s">
+        <v>213</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -13657,13 +13659,13 @@
         <v>17</v>
       </c>
       <c r="L14">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M14">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -13671,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13682,8 +13684,8 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15">
-        <v>2018</v>
+      <c r="G15" t="s">
+        <v>213</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -13698,13 +13700,13 @@
         <v>17</v>
       </c>
       <c r="L15">
-        <v>2.2831050228310501E-2</v>
+        <v>0.022831050228310501</v>
       </c>
       <c r="M15">
-        <v>2.2831050228310501E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.022831050228310501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -13712,20 +13714,20 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" t="s">
         <v>213</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16">
-        <v>2018</v>
-      </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
@@ -13739,13 +13741,13 @@
         <v>17</v>
       </c>
       <c r="L16">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M16">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13753,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13762,10 +13764,10 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G17" t="s">
+        <v>213</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -13780,13 +13782,13 @@
         <v>17</v>
       </c>
       <c r="L17">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M17">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13794,19 +13796,19 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
         <v>215</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18">
-        <v>2018</v>
+      <c r="G18" t="s">
+        <v>213</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -13827,7 +13829,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -13835,7 +13837,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13844,10 +13846,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
+        <v>213</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
@@ -13868,7 +13870,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -13876,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13885,10 +13887,10 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G20" t="s">
+        <v>213</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -13903,13 +13905,13 @@
         <v>17</v>
       </c>
       <c r="L20">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M20">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -13917,7 +13919,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13926,10 +13928,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>213</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
@@ -13950,7 +13952,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -13958,7 +13960,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -13967,10 +13969,10 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
@@ -13991,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -13999,7 +14001,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14008,10 +14010,10 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
@@ -14026,13 +14028,13 @@
         <v>17</v>
       </c>
       <c r="L23">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M23">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14040,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14049,10 +14051,10 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>213</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
@@ -14067,13 +14069,13 @@
         <v>17</v>
       </c>
       <c r="L24">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M24">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -14081,7 +14083,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14090,10 +14092,10 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>213</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
@@ -14114,7 +14116,7 @@
         <v>0.77915338816094504</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -14122,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14131,10 +14133,10 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>213</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
@@ -14155,7 +14157,7 @@
         <v>0.63024757853709501</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -14163,7 +14165,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14172,10 +14174,10 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -14190,13 +14192,13 @@
         <v>17</v>
       </c>
       <c r="L27">
-        <v>0.33</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="M27">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -14204,7 +14206,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14213,10 +14215,10 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>213</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
@@ -14237,7 +14239,7 @@
         <v>0.59834963673469899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -14254,10 +14256,10 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29">
-        <v>2018</v>
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>213</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
@@ -14280,6 +14282,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1129,229 +1129,229 @@
     <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
   </si>
   <si>
+    <t>S-SH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
     <t>S-SH-CS_COA_X0</t>
   </si>
   <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_OIL_X0</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>S-SH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>S-SH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>S-SH-CS_BIO_X0</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499900013208389"/>
+      <color theme="7" tint="-0.499889999628067"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499900013208389"/>
+      <color theme="7" tint="-0.499889999628067"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499100014567375"/>
+        <fgColor theme="0" tint="-0.0498999990522861"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149920001626015"/>
+        <fgColor theme="0" tint="-0.149910002946854"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4608" t="8923" r="7736" b="12915"/>
+        <a:srcRect l="4606" t="8921" r="7734" b="12913"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1358" t="6553" r="4000" b="6326"/>
+        <a:srcRect l="1356" t="6552" r="3999" b="6324"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3988" t="26188" r="3988" b="26187"/>
+        <a:srcRect l="3987" t="26187" r="3987" b="26185"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5847,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5929,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5970,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6011,7 +6011,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6093,7 +6093,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6134,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D15" s="7">
         <f>SUMIFS('BY_S-SH'!$L$2:$L$100,'BY_S-SH'!$C$2:$C$100,AFA!H15,'BY_S-SH'!$A$2:$A$100,"BASE",'BY_S-SH'!$B$2:$B$100,"AFA")</f>
-        <v>0.114155251141553</v>
+        <v>0.116438356164384</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="D31" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H31,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>0.022831050228310501</v>
+        <v>0.0232876712328767</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -8370,7 +8370,7 @@
       </c>
       <c r="D46" s="7">
         <f>SUMIFS('BY_S-WH'!$L$2:$L$100,'BY_S-WH'!$C$2:$C$100,AFA!H46,'BY_S-WH'!$A$2:$A$100,"BASE",'BY_S-WH'!$B$2:$B$100,"AFA")</f>
-        <v>0.022831050228310501</v>
+        <v>0.0232876712328767</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>Legend!$C$17</f>
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11808,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11849,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11890,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11931,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11972,7 +11972,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12013,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12040,10 +12040,10 @@
         <v>17</v>
       </c>
       <c r="L8">
-        <v>0.114155251141553</v>
+        <v>0.116438356164384</v>
       </c>
       <c r="M8">
-        <v>0.114155251141553</v>
+        <v>0.116438356164384</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15">
@@ -12054,7 +12054,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12177,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12218,7 +12218,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12259,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12300,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12341,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12464,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12505,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12546,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12587,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12628,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12669,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12710,7 +12710,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12751,7 +12751,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12792,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12833,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12874,7 +12874,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12915,7 +12915,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12956,7 +12956,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12997,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13038,7 +13038,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13140,7 +13140,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13181,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13222,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13304,7 +13304,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13345,7 +13345,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13372,10 +13372,10 @@
         <v>17</v>
       </c>
       <c r="L7">
-        <v>0.022831050228310501</v>
+        <v>0.0232876712328767</v>
       </c>
       <c r="M7">
-        <v>0.022831050228310501</v>
+        <v>0.0232876712328767</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15">
@@ -13386,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13427,7 +13427,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13468,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13509,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13550,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13591,7 +13591,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13632,7 +13632,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13673,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13714,7 +13714,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13755,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13796,7 +13796,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13837,7 +13837,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13878,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13919,7 +13919,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13960,7 +13960,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -14001,7 +14001,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14042,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14083,7 +14083,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14124,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14165,7 +14165,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14206,7 +14206,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14247,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1129,229 +1129,229 @@
     <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
   </si>
   <si>
+    <t>S-SH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
     <t>S-SH-PU_OIL_X0</t>
   </si>
   <si>
-    <t>S-SH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_COA_X0</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>S-SH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>S-SH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>S-SH-PU_SOL_X0</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499889999628067"/>
+      <color theme="7" tint="-0.499799996614456"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499889999628067"/>
+      <color theme="7" tint="-0.499799996614456"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0498999990522861"/>
+        <fgColor theme="0" tint="-0.0498099997639656"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149910002946854"/>
+        <fgColor theme="0" tint="-0.149819999933243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4606" t="8921" r="7734" b="12913"/>
+        <a:srcRect l="4592" t="8908" r="7720" b="12899"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1356" t="6552" r="3999" b="6324"/>
+        <a:srcRect l="1342" t="6538" r="3985" b="6311"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3987" t="26187" r="3987" b="26185"/>
+        <a:srcRect l="3973" t="26173" r="3973" b="26171"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5847,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5929,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5970,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6011,7 +6011,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6093,7 +6093,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6134,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11808,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11849,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11890,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11931,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11972,7 +11972,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12013,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12054,7 +12054,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12177,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12218,7 +12218,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12259,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12300,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12341,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12464,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12505,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12546,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12587,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12628,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12669,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12710,7 +12710,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12751,7 +12751,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12792,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12833,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12874,7 +12874,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12915,7 +12915,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12956,7 +12956,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12997,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13038,7 +13038,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13140,7 +13140,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13181,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13222,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13304,7 +13304,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13345,7 +13345,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13386,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13427,7 +13427,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13468,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13509,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13550,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13591,7 +13591,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13632,7 +13632,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13673,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13714,7 +13714,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13755,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13796,7 +13796,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13837,7 +13837,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13878,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13919,7 +13919,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13960,7 +13960,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -14001,7 +14001,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14042,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14083,7 +14083,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14124,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14165,7 +14165,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14206,7 +14206,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14247,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1129,229 +1129,229 @@
     <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
   </si>
   <si>
+    <t>S-SH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
     <t>S-SH-CS_COA_X0</t>
   </si>
   <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_OIL_X0</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>S-SH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>S-SH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>S-SH-CS_BIO_X0</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499799996614456"/>
+      <color theme="7" tint="-0.499729990959167"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499799996614456"/>
+      <color theme="7" tint="-0.499729990959167"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0498099997639656"/>
+        <fgColor theme="0" tint="-0.0497400015592575"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149819999933243"/>
+        <fgColor theme="0" tint="-0.149749994277954"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4592" t="8908" r="7720" b="12899"/>
+        <a:srcRect l="4582" t="8897" r="7710" b="12889"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1342" t="6538" r="3985" b="6311"/>
+        <a:srcRect l="1332" t="6527" r="3974" b="6300"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3973" t="26173" r="3973" b="26171"/>
+        <a:srcRect l="3962" t="26162" r="3962" b="26161"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5847,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5929,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5970,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6011,7 +6011,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6093,7 +6093,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6134,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11808,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11849,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11890,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11931,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11972,7 +11972,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12013,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12054,7 +12054,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12177,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12218,7 +12218,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12259,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12300,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12341,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12464,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12505,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12546,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12587,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12628,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12669,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12710,7 +12710,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12751,7 +12751,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12792,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12833,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12874,7 +12874,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12915,7 +12915,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12956,7 +12956,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12997,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13038,7 +13038,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13140,7 +13140,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13181,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13222,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13304,7 +13304,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13345,7 +13345,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13386,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13427,7 +13427,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13468,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13509,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13550,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13591,7 +13591,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13632,7 +13632,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13673,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13714,7 +13714,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13755,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13796,7 +13796,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13837,7 +13837,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13878,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13919,7 +13919,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13960,7 +13960,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -14001,7 +14001,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14042,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14083,7 +14083,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14124,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14165,7 +14165,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14206,7 +14206,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14247,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1264,34 +1264,34 @@
     <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
     <t>S-LIG-PU_ELC_X0</t>
   </si>
   <si>
     <t>S-LIG-CS_ELC_X0</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
     <t>S-OEL-PU_ELC_X0</t>
   </si>
   <si>
     <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
   </si>
   <si>
     <t>*Electric appliances</t>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499729990959167"/>
+      <color theme="7" tint="-0.499610006809235"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499729990959167"/>
+      <color theme="7" tint="-0.499610006809235"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0497400015592575"/>
+        <fgColor theme="0" tint="-0.0496199987828732"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149749994277954"/>
+        <fgColor theme="0" tint="-0.14962999522686"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4582" t="8897" r="7710" b="12889"/>
+        <a:srcRect l="4563" t="8879" r="7691" b="12870"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1332" t="6527" r="3974" b="6300"/>
+        <a:srcRect l="1313" t="6509" r="3956" b="6282"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3962" t="26162" r="3962" b="26161"/>
+        <a:srcRect l="3944" t="26144" r="3944" b="26142"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1129,229 +1129,229 @@
     <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
   </si>
   <si>
+    <t>S-SH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
     <t>S-SH-PU_OIL_X0</t>
   </si>
   <si>
-    <t>S-SH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_COA_X0</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>S-SH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>S-SH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>S-SH-PU_SOL_X0</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499610006809235"/>
+      <color theme="7" tint="-0.49957999587059"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499610006809235"/>
+      <color theme="7" tint="-0.49957999587059"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0496199987828732"/>
+        <fgColor theme="0" tint="-0.0495899990200996"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14962999522686"/>
+        <fgColor theme="0" tint="-0.149599999189377"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4563" t="8879" r="7691" b="12870"/>
+        <a:srcRect l="4559" t="8874" r="7687" b="12866"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1313" t="6509" r="3956" b="6282"/>
+        <a:srcRect l="1309" t="6504" r="3952" b="6277"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3944" t="26144" r="3944" b="26142"/>
+        <a:srcRect l="3939" t="26139" r="3939" b="26138"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5847,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5929,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5970,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6011,7 +6011,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6093,7 +6093,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6134,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11808,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11849,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11890,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11931,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11972,7 +11972,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12013,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12054,7 +12054,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12177,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12218,7 +12218,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12259,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12300,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12341,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12464,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12505,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12546,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12587,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12628,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12669,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12710,7 +12710,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12751,7 +12751,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12792,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12833,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12874,7 +12874,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12915,7 +12915,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12956,7 +12956,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12997,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13038,7 +13038,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13140,7 +13140,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13181,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13222,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13304,7 +13304,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13345,7 +13345,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13386,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13427,7 +13427,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13468,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13509,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13550,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13591,7 +13591,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13632,7 +13632,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13673,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13714,7 +13714,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13755,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13796,7 +13796,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13837,7 +13837,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13878,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13919,7 +13919,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13960,7 +13960,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -14001,7 +14001,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14042,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14083,7 +14083,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14124,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14165,7 +14165,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14206,7 +14206,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14247,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1264,34 +1264,34 @@
     <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
     <t>S-LIG-CS_ELC_X0</t>
   </si>
   <si>
     <t>S-LIG-PU_ELC_X0</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
     <t>S-OEL-CS_ELC_X0</t>
   </si>
   <si>
     <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
   </si>
   <si>
     <t>*Electric appliances</t>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.49957999587059"/>
+      <color theme="7" tint="-0.499559998512268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.49957999587059"/>
+      <color theme="7" tint="-0.499559998512268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495899990200996"/>
+        <fgColor theme="0" tint="-0.0495700016617775"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149599999189377"/>
+        <fgColor theme="0" tint="-0.149580001831055"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4559" t="8874" r="7687" b="12866"/>
+        <a:srcRect l="4556" t="8871" r="7684" b="12863"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1309" t="6504" r="3952" b="6277"/>
+        <a:srcRect l="1306" t="6501" r="3948" b="6274"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3939" t="26139" r="3939" b="26138"/>
+        <a:srcRect l="3936" t="26136" r="3936" b="26135"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1129,229 +1129,229 @@
     <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
   </si>
   <si>
+    <t>S-SH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
     <t>S-SH-CS_COA_X0</t>
   </si>
   <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_OIL_X0</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>S-SH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>S-SH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>S-SH-CS_BIO_X0</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499559998512268"/>
+      <color theme="7" tint="-0.499550014734268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499559998512268"/>
+      <color theme="7" tint="-0.499550014734268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495700016617775"/>
+        <fgColor theme="0" tint="-0.0495599992573261"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149580001831055"/>
+        <fgColor theme="0" tint="-0.149570003151894"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4556" t="8871" r="7684" b="12863"/>
+        <a:srcRect l="4554" t="8869" r="7682" b="12861"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1306" t="6501" r="3948" b="6274"/>
+        <a:srcRect l="1304" t="6500" r="3947" b="6272"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3936" t="26136" r="3936" b="26135"/>
+        <a:srcRect l="3935" t="26135" r="3935" b="26133"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5847,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5929,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5970,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6011,7 +6011,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6093,7 +6093,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6134,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11808,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11849,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11890,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11931,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11972,7 +11972,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12013,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12054,7 +12054,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12177,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12218,7 +12218,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12259,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12300,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12341,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12464,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12505,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12546,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12587,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12628,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12669,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12710,7 +12710,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12751,7 +12751,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12792,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12833,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12874,7 +12874,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12915,7 +12915,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12956,7 +12956,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12997,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13038,7 +13038,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13140,7 +13140,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13181,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13222,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13304,7 +13304,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13345,7 +13345,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13386,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13427,7 +13427,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13468,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13509,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13550,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13591,7 +13591,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13632,7 +13632,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13673,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13714,7 +13714,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13755,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13796,7 +13796,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13837,7 +13837,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13878,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13919,7 +13919,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13960,7 +13960,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -14001,7 +14001,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14042,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14083,7 +14083,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14124,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14165,7 +14165,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14206,7 +14206,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14247,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1264,34 +1264,34 @@
     <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
   </si>
   <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
     <t>S-OEL-PU_ELC_X0</t>
   </si>
   <si>
     <t>S-OEL-CS_ELC_X0</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
     <t>S-REF-PU_ELC_X0</t>
   </si>
   <si>
     <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
   </si>
   <si>
     <t>*Electric appliances</t>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499550014734268"/>
+      <color theme="7" tint="-0.499529987573624"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499550014734268"/>
+      <color theme="7" tint="-0.499529987573624"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495599992573261"/>
+        <fgColor theme="0" tint="-0.0495399981737137"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149570003151894"/>
+        <fgColor theme="0" tint="-0.149550005793571"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4554" t="8869" r="7682" b="12861"/>
+        <a:srcRect l="4551" t="8866" r="7679" b="12858"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1304" t="6500" r="3947" b="6272"/>
+        <a:srcRect l="1301" t="6497" r="3944" b="6269"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3935" t="26135" r="3935" b="26133"/>
+        <a:srcRect l="3932" t="26132" r="3932" b="26130"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1264,34 +1264,34 @@
     <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
     <t>S-LIG-PU_ELC_X0</t>
   </si>
   <si>
     <t>S-LIG-CS_ELC_X0</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
     <t>S-OEL-PU_ELC_X0</t>
   </si>
   <si>
     <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
   </si>
   <si>
     <t>*Electric appliances</t>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499529987573624"/>
+      <color theme="7" tint="-0.499509990215302"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499529987573624"/>
+      <color theme="7" tint="-0.499509990215302"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495399981737137"/>
+        <fgColor theme="0" tint="-0.0495200008153915"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149550005793571"/>
+        <fgColor theme="0" tint="-0.149529993534088"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4551" t="8866" r="7679" b="12858"/>
+        <a:srcRect l="4548" t="8863" r="7676" b="12855"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1301" t="6497" r="3944" b="6269"/>
+        <a:srcRect l="1298" t="6494" r="3941" b="6266"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3932" t="26132" r="3932" b="26130"/>
+        <a:srcRect l="3929" t="26129" r="3929" b="26127"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1264,34 +1264,34 @@
     <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
     <t>S-PLIG-PU_X2</t>
   </si>
   <si>
     <t>S-PLIG-PU_X1</t>
   </si>
   <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
     <t>S-LIG-PU_ELC_X0</t>
   </si>
   <si>
     <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
   </si>
   <si>
     <t>*Electric appliances</t>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499509990215302"/>
+      <color theme="7" tint="-0.499489992856979"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499509990215302"/>
+      <color theme="7" tint="-0.499489992856979"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495200008153915"/>
+        <fgColor theme="0" tint="-0.0494999997317791"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149529993534088"/>
+        <fgColor theme="0" tint="-0.149509996175766"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4548" t="8863" r="7676" b="12855"/>
+        <a:srcRect l="4545" t="8860" r="7673" b="12852"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1298" t="6494" r="3941" b="6266"/>
+        <a:srcRect l="1295" t="6491" r="3938" b="6263"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3929" t="26129" r="3929" b="26127"/>
+        <a:srcRect l="3926" t="26126" r="3926" b="26124"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1129,229 +1129,229 @@
     <t>~TFM_Fill-R: w=BY_S-SC; Hcol=Region</t>
   </si>
   <si>
+    <t>S-SH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC-HP_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SH-PU_LPG_X0</t>
+  </si>
+  <si>
     <t>S-SH-PU_OIL_X0</t>
   </si>
   <si>
-    <t>S-SH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-SH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_ELC-HP_X0</t>
-  </si>
-  <si>
-    <t>S-SH-CS_COA_X0</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>S-SH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>S-WH-CS_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-CS_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_BIO_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_COA_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_LPG_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_OIL_X0</t>
+  </si>
+  <si>
+    <t>S-WH-PU_SOL_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-CS_GAS_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-SC-PU_GAS_X0</t>
+  </si>
+  <si>
+    <t>SRVWH-PU</t>
+  </si>
+  <si>
+    <t>SRVWH-CS</t>
+  </si>
+  <si>
+    <t>SRVSC-PU</t>
+  </si>
+  <si>
+    <t>SRVSC-CS</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>AFA for SRV techs</t>
+  </si>
+  <si>
+    <t>EFF for SRV techs</t>
+  </si>
+  <si>
+    <t>CEFF</t>
+  </si>
+  <si>
+    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
+  </si>
+  <si>
+    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
+  </si>
+  <si>
+    <t>S-LIG-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-LIG-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>*Electric appliances</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>S-PLIG*</t>
+  </si>
+  <si>
+    <t>EFF*Stock</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>Service sector (SRV)</t>
+  </si>
+  <si>
+    <t>Transform techno-economic data</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>S-SH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>S-WH-PU_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-PU_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_SOL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_OIL_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_LPG_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_COA_X0</t>
-  </si>
-  <si>
-    <t>S-WH-CS_BIO_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_GAS_X0</t>
-  </si>
-  <si>
-    <t>S-SC-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>SRVWH-PU</t>
-  </si>
-  <si>
-    <t>SRVWH-CS</t>
-  </si>
-  <si>
-    <t>SRVSC-PU</t>
-  </si>
-  <si>
-    <t>SRVSC-CS</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>AFA for SRV techs</t>
-  </si>
-  <si>
-    <t>EFF for SRV techs</t>
-  </si>
-  <si>
-    <t>CEFF</t>
-  </si>
-  <si>
-    <t>~TFM_Fill-R: w=BY_S-EAP; Hcol=Region</t>
-  </si>
-  <si>
-    <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-LIG-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>*Electric appliances</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>S-PLIG*</t>
-  </si>
-  <si>
-    <t>EFF*Stock</t>
-  </si>
-  <si>
-    <t>TIMES-Ireland Model</t>
-  </si>
-  <si>
-    <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Purpose:</t>
-  </si>
-  <si>
-    <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Current maintainer(s):</t>
-  </si>
-  <si>
-    <t>Part of TIM version:</t>
-  </si>
-  <si>
-    <t>Model repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
-  </si>
-  <si>
-    <t>Licence:</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
-  </si>
-  <si>
-    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>New Technologies - Transformation</t>
-  </si>
-  <si>
-    <t>Service sector (SRV)</t>
-  </si>
-  <si>
-    <t>Transform techno-economic data</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>S-SH-PU_SOL_X0</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499489992856979"/>
+      <color theme="7" tint="-0.499480009078979"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499489992856979"/>
+      <color theme="7" tint="-0.499480009078979"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0494999997317791"/>
+        <fgColor theme="0" tint="-0.049490001052618"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149509996175766"/>
+        <fgColor theme="0" tint="-0.149499997496605"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4545" t="8860" r="7673" b="12852"/>
+        <a:srcRect l="4544" t="8859" r="7672" b="12850"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1295" t="6491" r="3938" b="6263"/>
+        <a:srcRect l="1293" t="6489" r="3936" b="6262"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3926" t="26126" r="3926" b="26124"/>
+        <a:srcRect l="3924" t="26124" r="3924" b="26123"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5847,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -5888,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -5929,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -5970,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6011,7 +6011,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6093,7 +6093,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6134,7 +6134,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -11767,7 +11767,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -11808,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11849,7 +11849,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -11890,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -11931,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -11972,7 +11972,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -12013,7 +12013,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -12054,7 +12054,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -12177,7 +12177,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -12218,7 +12218,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -12259,7 +12259,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -12300,7 +12300,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -12341,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -12423,7 +12423,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -12464,7 +12464,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -12505,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -12546,7 +12546,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -12587,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -12628,7 +12628,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -12669,7 +12669,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -12710,7 +12710,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -12751,7 +12751,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -12792,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -12833,7 +12833,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -12874,7 +12874,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -12915,7 +12915,7 @@
         <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -12956,7 +12956,7 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -12997,7 +12997,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -13038,7 +13038,7 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -13140,7 +13140,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -13181,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -13222,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -13263,7 +13263,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13304,7 +13304,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -13345,7 +13345,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -13386,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -13427,7 +13427,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -13468,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -13509,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13550,7 +13550,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13591,7 +13591,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -13632,7 +13632,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -13673,7 +13673,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -13714,7 +13714,7 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -13755,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -13796,7 +13796,7 @@
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13837,7 +13837,7 @@
         <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -13878,7 +13878,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -13919,7 +13919,7 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -13960,7 +13960,7 @@
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -14001,7 +14001,7 @@
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -14042,7 +14042,7 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -14083,7 +14083,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -14124,7 +14124,7 @@
         <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -14165,7 +14165,7 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -14206,7 +14206,7 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -14247,7 +14247,7 @@
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>

--- a/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_SRV_NewTechs_Trans.xlsx
@@ -1264,34 +1264,34 @@
     <t>S-LIG*, S-REF*, S-OEL*, S-PLIG*</t>
   </si>
   <si>
+    <t>S-PLIG-PU_X3</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X4</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X1</t>
+  </si>
+  <si>
+    <t>S-PLIG-PU_X2</t>
+  </si>
+  <si>
+    <t>S-REF-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-REF-PU_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-CS_ELC_X0</t>
+  </si>
+  <si>
+    <t>S-OEL-PU_ELC_X0</t>
+  </si>
+  <si>
     <t>S-LIG-CS_ELC_X0</t>
   </si>
   <si>
     <t>S-LIG-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-OEL-PU_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X1</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X2</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X3</t>
-  </si>
-  <si>
-    <t>S-PLIG-PU_X4</t>
-  </si>
-  <si>
-    <t>S-REF-CS_ELC_X0</t>
-  </si>
-  <si>
-    <t>S-REF-PU_ELC_X0</t>
   </si>
   <si>
     <t>*Electric appliances</t>
@@ -1514,14 +1514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499480009078979"/>
+      <color theme="7" tint="-0.499440014362335"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499480009078979"/>
+      <color theme="7" tint="-0.499440014362335"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,7 +1556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049490001052618"/>
+        <fgColor theme="0" tint="-0.0494499988853931"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149499997496605"/>
+        <fgColor theme="0" tint="-0.149460002779961"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2258,7 +2258,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4544" t="8859" r="7672" b="12850"/>
+        <a:srcRect l="4537" t="8853" r="7666" b="12844"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2385,7 +2385,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1293" t="6489" r="3936" b="6262"/>
+        <a:srcRect l="1287" t="6483" r="3930" b="6256"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2428,7 +2428,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3924" t="26124" r="3924" b="26123"/>
+        <a:srcRect l="3918" t="26118" r="3918" b="26116"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6234,7 +6234,7 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -6275,7 +6275,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -6316,7 +6316,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -6357,7 +6357,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -6398,7 +6398,7 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6480,7 +6480,7 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -6521,7 +6521,7 @@
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -6603,7 +6603,7 @@
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -6644,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -6685,7 +6685,7 @@
         <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -6726,7 +6726,7 @@
         <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -6767,7 +6767,7 @@
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
